--- a/docassemble/ukraine/data/sources/interview_uk.xlsx
+++ b/docassemble/ukraine/data/sources/interview_uk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Desktop/tripliq-repo/docassemble-ukraine/docassemble/ukraine/data/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F122D9-9295-264B-8CB3-F4ACCC467FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AA830C-074E-1446-A8FB-08FCE114F33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23360" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15040" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="357">
   <si>
     <t>interview</t>
   </si>
@@ -1235,9 +1235,6 @@
     <t>Поточне місто проживання</t>
   </si>
   <si>
-    <t>Берлін</t>
-  </si>
-  <si>
     <t>Призначення резиденції</t>
   </si>
   <si>
@@ -1248,9 +1245,6 @@
   </si>
   <si>
     <t>Будь ласка, заповніть наступні запитання щодо вашого перебування в Німеччині</t>
-  </si>
-  <si>
-    <t>втеча від війни</t>
   </si>
   <si>
     <t>Майже готово, виконайте наведені нижче дії, перш ніж надсилати</t>
@@ -1697,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4514,7 +4508,7 @@
         <v>232</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4566,7 +4560,7 @@
         <v>236</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4592,7 +4586,7 @@
         <v>238</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4618,7 +4612,7 @@
         <v>240</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>350</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4644,7 +4638,7 @@
         <v>242</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4696,7 +4690,7 @@
         <v>247</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4722,7 +4716,7 @@
         <v>249</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4748,7 +4742,7 @@
         <v>251</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4800,7 +4794,7 @@
         <v>255</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4826,7 +4820,7 @@
         <v>257</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4852,7 +4846,7 @@
         <v>261</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4878,7 +4872,7 @@
         <v>263</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
@@ -4904,7 +4898,7 @@
         <v>265</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4956,7 +4950,7 @@
         <v>270</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/docassemble/ukraine/data/sources/interview_uk.xlsx
+++ b/docassemble/ukraine/data/sources/interview_uk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Desktop/tripliq-repo/docassemble-ukraine/docassemble/ukraine/data/sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AA830C-074E-1446-A8FB-08FCE114F33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96D15E7-2A41-E149-B930-12D4D188E974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="352">
   <si>
     <t>interview</t>
   </si>
@@ -55,7 +55,7 @@
     <t>8bd876500ba1d386d7c2567875148aaa</t>
   </si>
   <si>
-    <t>en</t>
+    <t>de</t>
   </si>
   <si>
     <t>uk</t>
@@ -64,10 +64,10 @@
     <t>Interview Started</t>
   </si>
   <si>
-    <t>09620787d1f1072ae97df9d320177837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application for residence title according to § 24 AufenthaltsG
+    <t>197e2fd75ed6d2d113109c64688e34ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antrag auf Aufenthaltstitel gem. § 24 AufenthaltsG
 </t>
   </si>
   <si>
@@ -114,49 +114,53 @@
 </t>
   </si>
   <si>
-    <t>d0c234504772d18f287b811f88a4eb4c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please choose your language
+    <t>c5f70b691caeb534d1fa503ffd6d444c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please choose your language.
 (Будь ласка, виберіть свою мову).
+Bitte wählen Sie eine Sprache aus.
 </t>
   </si>
   <si>
-    <t>c16e5d5d6c9ef1fe00e9a3d36b0ab226</t>
-  </si>
-  <si>
-    <t>English/англійська</t>
-  </si>
-  <si>
-    <t>6b5eac82d8c659446a3631e6b2b20bf2</t>
-  </si>
-  <si>
-    <t>Ukranian/Українка</t>
-  </si>
-  <si>
-    <t>5f1245a6e6ed66d07920666e384275d9</t>
-  </si>
-  <si>
-    <t>Deutsch/німецький</t>
+    <t>69fa7a5a736157eebcd0fab942188705</t>
+  </si>
+  <si>
+    <t>English/англійська/Englisch</t>
+  </si>
+  <si>
+    <t>d6d8b844be29bd19604b16458d5a50b3</t>
+  </si>
+  <si>
+    <t>Ukranian/Українка/Ukrainisch</t>
+  </si>
+  <si>
+    <t>08b29c5eaa87778a6b8bf9f564a2f92f</t>
+  </si>
+  <si>
+    <t>German/німецький/Deutsch</t>
   </si>
   <si>
     <t>9cfefed8fb9497baa5cd519d7d2bb5d7</t>
   </si>
   <si>
+    <t>en</t>
+  </si>
+  <si>
     <t>Question_3</t>
   </si>
   <si>
-    <t>ea0ba775b0252fa7d976c4860c4e2af0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pleae complete the details about yourself.
+    <t>3af74b6d1d85f3bafe030d5097a92a81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte vervollständigen Sie die Angaben zu Ihrer Person
 </t>
   </si>
   <si>
-    <t>bc910f8bdf70f29374f496f05be0330c</t>
-  </si>
-  <si>
-    <t>First Name</t>
+    <t>fecc7b92efa313ac8de08d4094455c9e</t>
+  </si>
+  <si>
+    <t>Vorname</t>
   </si>
   <si>
     <t>c2e366862ccf602f016a326807004aa9</t>
@@ -165,10 +169,10 @@
     <t>Iryna</t>
   </si>
   <si>
-    <t>cf460e6eee3aaee45912bf2cf097d2e9</t>
-  </si>
-  <si>
-    <t>Last Name / Birthname</t>
+    <t>43895f9ec69cb177446921df9828c680</t>
+  </si>
+  <si>
+    <t>Nachname</t>
   </si>
   <si>
     <t>7e7c162a5a1f8372af6ca75caa391dc6</t>
@@ -177,10 +181,10 @@
     <t>Bondarenko</t>
   </si>
   <si>
-    <t>3f020ab7dea5a32a8d3468f2490da5cf</t>
-  </si>
-  <si>
-    <t>Residence (Address)</t>
+    <t>7dbd7847094a0954428c6cbb0492e2b1</t>
+  </si>
+  <si>
+    <t>Adresse in der Ukraine</t>
   </si>
   <si>
     <t>d17244f5d112d3070418befaea725dc6</t>
@@ -189,16 +193,16 @@
     <t>Astronomicheskaya 22</t>
   </si>
   <si>
-    <t>df09396a20ca1b1cefc00e11bf886ed9</t>
-  </si>
-  <si>
-    <t>Residence (Postal Code)</t>
-  </si>
-  <si>
-    <t>e14feabee7d009317b5515bcdeb9845d</t>
-  </si>
-  <si>
-    <t>Residence (City)</t>
+    <t>f840f67c946e0198ba2a697bd2992c84</t>
+  </si>
+  <si>
+    <t>PLZ in der Ukraine</t>
+  </si>
+  <si>
+    <t>73deb8568395488d598e2614b427cf78</t>
+  </si>
+  <si>
+    <t>Ort in der Ukraine</t>
   </si>
   <si>
     <t>1b2d21ab68e4219ce2ec8f073c2db464</t>
@@ -207,10 +211,28 @@
     <t>Kharkov</t>
   </si>
   <si>
-    <t>d45dc691261b1dcb745d17af29f8f87f</t>
-  </si>
-  <si>
-    <t>Residence (Country)</t>
+    <t>ab5a765d5e3252ac61f5ead9a7fd4054</t>
+  </si>
+  <si>
+    <t>Geburtsdatum</t>
+  </si>
+  <si>
+    <t>53de3428c5ce9f797a09cdbea5ca2483</t>
+  </si>
+  <si>
+    <t>${ format_date(today(), format='yyyy-MM-dd') }</t>
+  </si>
+  <si>
+    <t>919faaf67e1953aa59d58c367ae6470c</t>
+  </si>
+  <si>
+    <t>Geburtsort</t>
+  </si>
+  <si>
+    <t>f91d4ca1d94fd19f8f5be1f15bd09c23</t>
+  </si>
+  <si>
+    <t>Geburtsland</t>
   </si>
   <si>
     <t>f01fc92b23faa973f3492a23d5a705c5</t>
@@ -219,136 +241,76 @@
     <t>Ukraine</t>
   </si>
   <si>
-    <t>4965e9e891c3381d1ec7379f036131de</t>
-  </si>
-  <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
-    <t>53de3428c5ce9f797a09cdbea5ca2483</t>
-  </si>
-  <si>
-    <t>${ format_date(today(), format='yyyy-MM-dd') }</t>
-  </si>
-  <si>
-    <t>7b2ad6be4bd2c21e76aa380c9cf01aa0</t>
-  </si>
-  <si>
-    <t>Place of birth</t>
-  </si>
-  <si>
-    <t>99cf53bca4fcfbe48a684f373dbcd705</t>
-  </si>
-  <si>
-    <t>Country of birth</t>
-  </si>
-  <si>
-    <t>019ec3132cdf8ee0f2e2a75cf5d3e459</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>63889cfb9d3cbe05d1bd2be5cc9953fd</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>b719ce180ec7bd9641fece2f920f4817</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>d8f6c38c5994d0cb96ae94cd22344fba</t>
-  </si>
-  <si>
-    <t>Eye Color</t>
-  </si>
-  <si>
-    <t>9594eec95be70e7b1710f730fdda33d9</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>d382816a3cbeed082c9e216e7392eed1</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>994ae1d9731cebe455aff211bcb25b93</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>ed63fc91500594c3086714f86b3001e4</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>eec6c4bdbd339edf8cbea68becb85244</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>e93d1142ee68f1494673a19d7dbea4b0</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>ac6258376f9b13281bfe3075441114ff</t>
-  </si>
-  <si>
-    <t>Previous nationality (only applicable if you had a different nationality before)</t>
-  </si>
-  <si>
-    <t>a08c35c00fd99f8d47075ecdd5d72c70</t>
-  </si>
-  <si>
-    <t>Marital status</t>
-  </si>
-  <si>
-    <t>66ba162102bbf6ae31b522aec561735e</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>3ad9e20e1f957c1b5f2c069bae8f8205</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>36e1add3b49994fe0bf157b73fb033f5</t>
-  </si>
-  <si>
-    <t>Living seperately</t>
-  </si>
-  <si>
-    <t>63f05d78c55f985c526e6614994d0b22</t>
-  </si>
-  <si>
-    <t>Living in registered partnership</t>
-  </si>
-  <si>
-    <t>f2e4016d0c9314f9cf4b36489da5b0dd</t>
-  </si>
-  <si>
-    <t>Divorced</t>
-  </si>
-  <si>
-    <t>2ef86623469f785760c19802da21e7fd</t>
-  </si>
-  <si>
-    <t>Widowed</t>
+    <t>b33509e4101693a82829fd320a7394ef</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>3322b72720651014f6f473f0cf2dae22</t>
+  </si>
+  <si>
+    <t>Männlich</t>
+  </si>
+  <si>
+    <t>c1a9d224abe4774fd94d39c4d8f883c4</t>
+  </si>
+  <si>
+    <t>Weiblich</t>
+  </si>
+  <si>
+    <t>eab75d9851bd767c05237261b153b203</t>
+  </si>
+  <si>
+    <t>Augenfarbe</t>
+  </si>
+  <si>
+    <t>313409a244ee26600d1fd7c3e7d1419e</t>
+  </si>
+  <si>
+    <t>Blau</t>
+  </si>
+  <si>
+    <t>da84d888f8e2ad17a2a35ba34b989f3e</t>
+  </si>
+  <si>
+    <t>Grün</t>
+  </si>
+  <si>
+    <t>dd7cc12f3c2ce05ee5f67d834f3cdb1f</t>
+  </si>
+  <si>
+    <t>Grau</t>
+  </si>
+  <si>
+    <t>0d178dd9904716651a1b0cd7c9882568</t>
+  </si>
+  <si>
+    <t>Braun</t>
+  </si>
+  <si>
+    <t>d248453369cf82a6a64617f1357089c5</t>
+  </si>
+  <si>
+    <t>Größe</t>
+  </si>
+  <si>
+    <t>4481872be58c4d95aec1336303b73159</t>
+  </si>
+  <si>
+    <t>Staatsangehörigkeit</t>
+  </si>
+  <si>
+    <t>a25a3807795ae5779200d608a222ba3b</t>
+  </si>
+  <si>
+    <t>Vorherige Staatsangehörigkeit (nur zutreffend, wenn Sie zuvor eine andere Staatsangehörigkeit hatten)</t>
+  </si>
+  <si>
+    <t>52b7438c976d9cc1ac0faee13cf87107</t>
+  </si>
+  <si>
+    <t>Familienstand</t>
   </si>
   <si>
     <t>3561d879014cd8d355dd6f48a7de82d7</t>
@@ -357,16 +319,46 @@
     <t>ledig</t>
   </si>
   <si>
-    <t>80106b24fe895032c11746b9fff958c8</t>
-  </si>
-  <si>
-    <t>Date of wedding/ registration</t>
-  </si>
-  <si>
-    <t>bcc254b55c4a1babdf1dcb82c207506b</t>
-  </si>
-  <si>
-    <t>Phone</t>
+    <t>10089a27d8ecac99bb41097d6dbf6045</t>
+  </si>
+  <si>
+    <t>verheiratet</t>
+  </si>
+  <si>
+    <t>d1583da77bc6f4c7b014a12fa16dffd3</t>
+  </si>
+  <si>
+    <t>getreent lebend</t>
+  </si>
+  <si>
+    <t>764dbf389582d4e6efad29a46d2e3e8b</t>
+  </si>
+  <si>
+    <t>in eingetragener Lebenspartnerschaft lebend</t>
+  </si>
+  <si>
+    <t>6492c3801e8c049f5b8e6826b3d2b7d9</t>
+  </si>
+  <si>
+    <t>geschieden</t>
+  </si>
+  <si>
+    <t>927d93e85fb03b8bf5d0eabf1513866e</t>
+  </si>
+  <si>
+    <t>verwitwet</t>
+  </si>
+  <si>
+    <t>1f88aebf7007ada18bc4e0e5df36003c</t>
+  </si>
+  <si>
+    <t>Datum der Hochzeit/ Anmeldung</t>
+  </si>
+  <si>
+    <t>0975cf6baccb3862c31522c2b5b8fabc</t>
+  </si>
+  <si>
+    <t>Telefon</t>
   </si>
   <si>
     <t>19b3f25973b650a1cab65ce8a7f3dd12</t>
@@ -408,59 +400,53 @@
     <t>Person ID Details</t>
   </si>
   <si>
-    <t>efac4715ab3f47f7ef1d5f8d31d64368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pleae complete the details about your passport or ID card
+    <t>9a754a29ac3390ac86c9226ed04916a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte geben Sie die Details Ihres Reisepasses oder Personalausweises an
 </t>
   </si>
   <si>
-    <t>cc61d0c09449011c280b0f2b99687766</t>
-  </si>
-  <si>
-    <t>Passport / ID card</t>
-  </si>
-  <si>
-    <t>8f96f1fe4e318544a890ba6ae06a54a7</t>
-  </si>
-  <si>
-    <t>Own Passport / ID card</t>
-  </si>
-  <si>
-    <t>25240633636d7084f86e8c481beaefb4</t>
-  </si>
-  <si>
-    <t>Registered with Father</t>
-  </si>
-  <si>
-    <t>c80f95a6b624e84a9d562763d5bcb4ee</t>
-  </si>
-  <si>
-    <t>Registered with Mother</t>
-  </si>
-  <si>
-    <t>827a37fb93758383027c582a39ec6162</t>
-  </si>
-  <si>
-    <t>Type of ID</t>
-  </si>
-  <si>
-    <t>916df6dabccb420c1ee355d7dd7dd89b</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>6691a5d78a5387d08520aa96e6c828f3</t>
-  </si>
-  <si>
-    <t>ID Card</t>
-  </si>
-  <si>
-    <t>dae903caf35016e727adebc1e3c18b2a</t>
-  </si>
-  <si>
-    <t>ID Number</t>
+    <t>7d3e22221a39b8201c1f14305e92814e</t>
+  </si>
+  <si>
+    <t>Reisepass / Personalausweis</t>
+  </si>
+  <si>
+    <t>bc81cab2d1d8ab637978d4661b08d230</t>
+  </si>
+  <si>
+    <t>eigener Pass/Ausweis</t>
+  </si>
+  <si>
+    <t>21ec048f9c925cb0d8cf2dc690d47ba7</t>
+  </si>
+  <si>
+    <t>eingetragen bei Vater</t>
+  </si>
+  <si>
+    <t>bfd7b7364883556645e40b1903f6aa9e</t>
+  </si>
+  <si>
+    <t>Art Ausweisdokument</t>
+  </si>
+  <si>
+    <t>0121efa678848558a8a40938273405f2</t>
+  </si>
+  <si>
+    <t>Reisepass</t>
+  </si>
+  <si>
+    <t>39c6a9c3da84ae1e6456d11f2b9d7634</t>
+  </si>
+  <si>
+    <t>Personalausweis</t>
+  </si>
+  <si>
+    <t>ef338fd9512742a44430b54b7d9cc890</t>
+  </si>
+  <si>
+    <t>Ausweisdokument Nummer</t>
   </si>
   <si>
     <t>1328562d7712ec30e5907281aef5abad</t>
@@ -469,44 +455,44 @@
     <t>ABCDEFG12345</t>
   </si>
   <si>
-    <t>c8c3d7f1939fee97c1efa7850b28e5ae</t>
-  </si>
-  <si>
-    <t>Issued on</t>
-  </si>
-  <si>
-    <t>b2844b8e17ecaaeae68d018fe9418af0</t>
-  </si>
-  <si>
-    <t>Valid until</t>
-  </si>
-  <si>
-    <t>cf814f4ba6a1fcc649bdf35b34682750</t>
-  </si>
-  <si>
-    <t>Issuing State</t>
+    <t>a3d263e20908ce0203100657caab080e</t>
+  </si>
+  <si>
+    <t>Ausgestellt am</t>
+  </si>
+  <si>
+    <t>abf7ac09dfe3da2923516dd75445cd7e</t>
+  </si>
+  <si>
+    <t>Gültig bis</t>
+  </si>
+  <si>
+    <t>63ec771779c8f14287f1e62ba50d67c1</t>
+  </si>
+  <si>
+    <t>Ausstellender Staat</t>
   </si>
   <si>
     <t>Question_5</t>
   </si>
   <si>
-    <t>479ecededfe0a3544f5104b7932e9365</t>
-  </si>
-  <si>
-    <t>Life Partner Details</t>
-  </si>
-  <si>
-    <t>bdfdaa20233981f0d079a10e6aea7e34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pleae complete the details about your Spouse / registered life partner according to LPartG.
+    <t>405d3e56ebb280d2f311e4d129e3870c</t>
+  </si>
+  <si>
+    <t>Details Life Partner</t>
+  </si>
+  <si>
+    <t>926f21caa7c8491ca6c92b3823bd5480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte füllen Sie die Angaben zu Ihrem Ehegatten / eingetragenen Lebenspartner gemäß LPartG aus
 </t>
   </si>
   <si>
-    <t>8d25a3288196e938b80e435dd4cc90dd</t>
-  </si>
-  <si>
-    <t>Do you have a spouse/registered partner who also wants to apply for a permission to stay?</t>
+    <t>68c5b30a5c70692baeaae343551dadd9</t>
+  </si>
+  <si>
+    <t>Haben Sie einen Ehegatten/eingetragenen Lebenspartner, der ebenfalls eine Aufenthaltserlaubnis beantragen möchte?</t>
   </si>
   <si>
     <t>f8320b26d30ab433c5a54546d21f414c</t>
@@ -515,6 +501,12 @@
     <t>False</t>
   </si>
   <si>
+    <t>13401ecfe6a5d60066ab06a27d82f058</t>
+  </si>
+  <si>
+    <t>Addresse in der Ukraine</t>
+  </si>
+  <si>
     <t>e3f52d56a7b43cf6b9a77757b2423cf2</t>
   </si>
   <si>
@@ -533,12 +525,6 @@
     <t>${ applicant.address.city }</t>
   </si>
   <si>
-    <t>997df769a1585f11e08f7b91a827672f</t>
-  </si>
-  <si>
-    <t>${ applicant.country }</t>
-  </si>
-  <si>
     <t>Question_6</t>
   </si>
   <si>
@@ -548,17 +534,17 @@
     <t>Number Children</t>
   </si>
   <si>
-    <t>23e3fecb15d68d64382098fc239b502b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many children came with you to Germany?
+    <t>9007b1df1de6914f3ca1d88431f83a78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie viele Kinder sind mit Ihnen nach Deutschland gekommen?
 </t>
   </si>
   <si>
-    <t>b2ee912b91d69b435159c7c3f6df7f5f</t>
-  </si>
-  <si>
-    <t>Number</t>
+    <t>71f221d8debed7f7baf1ee4e7b658199</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
   </si>
   <si>
     <t>Question_7</t>
@@ -570,7 +556,7 @@
     <t>Children Details</t>
   </si>
   <si>
-    <t>fb30c26e95bcb54f449f5ce9cb92ea0f</t>
+    <t>23f66f802c32733489de273a91d550fc</t>
   </si>
   <si>
     <r>
@@ -581,7 +567,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Please complete the info about your </t>
+      <t xml:space="preserve">Bitte vervollständigen Sie die Informationen über Ihr </t>
     </r>
     <r>
       <rPr>
@@ -592,7 +578,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>${ ordinal(i) }</t>
+      <t>${ i + 1 }</t>
     </r>
     <r>
       <rPr>
@@ -602,17 +588,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> child
+      <t xml:space="preserve">. Kind
 </t>
     </r>
   </si>
   <si>
-    <t>77587239bf4c54ea493c7033e1dbf636</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>ecaa00bf3577e28c4baa2423436009c9</t>
   </si>
   <si>
@@ -628,47 +608,47 @@
     <t>Arrival</t>
   </si>
   <si>
-    <t>25bbe2304c680b8ec0d14562ad4bfde4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please complete the following questions about your arrival
+    <t>6ab5d4cc9737ffb7eb545569d8ef95ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte beantworten Sie die folgenden Fragen zu Ihrer Ankunft
 </t>
   </si>
   <si>
-    <t>8a7d34cbb55f6e631f11e0857916e037</t>
-  </si>
-  <si>
-    <t>Entry to Germany</t>
-  </si>
-  <si>
-    <t>16f78247e520de8a2bb3a0ac601c3f74</t>
-  </si>
-  <si>
-    <t>Entered with a visa</t>
-  </si>
-  <si>
-    <t>b948e8a02a7f8dc9f098c89e8df9892c</t>
-  </si>
-  <si>
-    <t>Entry</t>
-  </si>
-  <si>
-    <t>e0f905e0ae1ea5fc0be61d7d04c27c8c</t>
-  </si>
-  <si>
-    <t>with Shengen visa</t>
-  </si>
-  <si>
-    <t>72261e01f28cafa786ae81e2efab827b</t>
-  </si>
-  <si>
-    <t>with national German visa</t>
-  </si>
-  <si>
-    <t>d86021d1b7b41ced2a26a002ab4605ed</t>
-  </si>
-  <si>
-    <t>Visa number</t>
+    <t>7c0cd8d53447a934b61673bb2266a602</t>
+  </si>
+  <si>
+    <t>Einreise nach Deutschland</t>
+  </si>
+  <si>
+    <t>66eb0e5b03d8ca2b703036d4b44a8699</t>
+  </si>
+  <si>
+    <t>Einreise mit Visum</t>
+  </si>
+  <si>
+    <t>d10ee484b31918b89a167fd6d8f40948</t>
+  </si>
+  <si>
+    <t>Einreise</t>
+  </si>
+  <si>
+    <t>e6a3f9d48b28d4f378405b8f8d84d1a1</t>
+  </si>
+  <si>
+    <t>mit Shengen-Visum</t>
+  </si>
+  <si>
+    <t>a65961fcd9f7513bdd5c49181ccbd699</t>
+  </si>
+  <si>
+    <t>mit nationalem deutschen Visum</t>
+  </si>
+  <si>
+    <t>b5dc9973d13069eff1e56cbbdc7f9c2e</t>
+  </si>
+  <si>
+    <t>Visumnummer</t>
   </si>
   <si>
     <t>7669ed3e6faeebc70f6317d866ab7158</t>
@@ -677,40 +657,40 @@
     <t>XXX-XXX-XXX</t>
   </si>
   <si>
-    <t>cfb9f43377ec661e19555b861dd99a2e</t>
-  </si>
-  <si>
-    <t>Visa category</t>
-  </si>
-  <si>
-    <t>d48927ccb9e93ef9a19aaf3c001b6a22</t>
-  </si>
-  <si>
-    <t>Visa for flight transit</t>
-  </si>
-  <si>
-    <t>4d743b5f91abe59f561791d63ad9e8c7</t>
-  </si>
-  <si>
-    <t>Visa for transit</t>
-  </si>
-  <si>
-    <t>e9de02ed6c9238d9526be4bdcc42c0bb</t>
-  </si>
-  <si>
-    <t>Stay up to 90 days</t>
-  </si>
-  <si>
-    <t>5a4072134b2402a3e4ef7135b917d2d3</t>
-  </si>
-  <si>
-    <t>National Visa</t>
-  </si>
-  <si>
-    <t>b3cd2e1f3e788604446844397b45ccbb</t>
-  </si>
-  <si>
-    <t>Visa issued by</t>
+    <t>b3dd9c7aea2b2873463b3af4ad6e7663</t>
+  </si>
+  <si>
+    <t>Visum-Kategorie</t>
+  </si>
+  <si>
+    <t>56edd67915b6cdcaa67c40687d044515</t>
+  </si>
+  <si>
+    <t>Visum für Flugtransit</t>
+  </si>
+  <si>
+    <t>8a0a6a671bfb31b3301bad7c096ee11c</t>
+  </si>
+  <si>
+    <t>Visum für die Durchreise</t>
+  </si>
+  <si>
+    <t>fa62ed907c4ac14ee5792e7b5b5384b1</t>
+  </si>
+  <si>
+    <t>Aufenthalt bis zu 90 Tagen</t>
+  </si>
+  <si>
+    <t>71d6486792fffa7eb223d5615ee299f9</t>
+  </si>
+  <si>
+    <t>Nationales Visum</t>
+  </si>
+  <si>
+    <t>6f37cecf65ef60aa8314112dacd09b9d</t>
+  </si>
+  <si>
+    <t>Visum ausgestellt von</t>
   </si>
   <si>
     <t>d4908b1e39cc61772e5d74e5fb77d241</t>
@@ -719,46 +699,34 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>faec0951d6736b8c30c82e7fd9b12efe</t>
-  </si>
-  <si>
-    <t>Visa issued date</t>
-  </si>
-  <si>
-    <t>db20c69da52aa5f73453d0f94169c3c7</t>
-  </si>
-  <si>
-    <t>Visa valid from</t>
-  </si>
-  <si>
-    <t>549653740ccd8bc660b836f937f7d5f4</t>
-  </si>
-  <si>
-    <t>Visa valid until</t>
-  </si>
-  <si>
-    <t>77bca651a8914668f19ab001b0525b37</t>
-  </si>
-  <si>
-    <t>Spatial restriction</t>
-  </si>
-  <si>
-    <t>492cad47393daf754b1c374e17d99e8b</t>
-  </si>
-  <si>
-    <t>Without spatial restriction</t>
-  </si>
-  <si>
-    <t>15a00912ae7be699cd21b6a62c5a49e2</t>
-  </si>
-  <si>
-    <t>With spatial restriction</t>
-  </si>
-  <si>
-    <t>cac22a9b6c8030d4ea6b3cc533cca876</t>
-  </si>
-  <si>
-    <t>Spatial restriction to</t>
+    <t>3fa65f99f785a025680961ad82098e8d</t>
+  </si>
+  <si>
+    <t>Ausstellungsdatum des Visums</t>
+  </si>
+  <si>
+    <t>93687a6fc16dcf23bfeb2f822fb61602</t>
+  </si>
+  <si>
+    <t>Visum gültig von</t>
+  </si>
+  <si>
+    <t>15062acb2293074a7c54b97cbe122ce6</t>
+  </si>
+  <si>
+    <t>Visum gültig bis</t>
+  </si>
+  <si>
+    <t>1bd30f5159b6257c234569e9cdca20a6</t>
+  </si>
+  <si>
+    <t>Räumliche Beschränkung</t>
+  </si>
+  <si>
+    <t>63509b63725d75b1d10285cb656bb109</t>
+  </si>
+  <si>
+    <t>ohne räumliche Beschränkung</t>
   </si>
   <si>
     <t>78b610a44487316c18d72d68c15eaec6</t>
@@ -767,6 +735,12 @@
     <t>beschränkt auf</t>
   </si>
   <si>
+    <t>95dc2a055148b01e72397fd3ad4d95fc</t>
+  </si>
+  <si>
+    <t>Räumliche Beschränkung auf</t>
+  </si>
+  <si>
     <t>Question_9</t>
   </si>
   <si>
@@ -776,29 +750,53 @@
     <t>Residence</t>
   </si>
   <si>
-    <t>0829cd441510e6fead27062bdd7e629e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please complete the following questions about your stay in Germany
+    <t>0d0e75d05fcbdc9b5a90c256f958d866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte beantworten Sie die folgenden Fragen zu Ihrem Aufenthalt in Deutschland
 </t>
   </si>
   <si>
-    <t>193282e8f557cae34bc7d165ce74535b</t>
-  </si>
-  <si>
-    <t>Current Residence City</t>
-  </si>
-  <si>
-    <t>ee1611b61f5688e70c12b40684dbb395</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>faee397990603dfb8cd40cae26bbc2f1</t>
-  </si>
-  <si>
-    <t>Purpose of the residence</t>
+    <t>fb8364eea703fa59c4bc1313dacf9be5</t>
+  </si>
+  <si>
+    <t>Bitte geben Sie hier ihre geplante oder aktuelle Adresse **in Deutschland** an.</t>
+  </si>
+  <si>
+    <t>d4786069e42c6c8aee25985ac7364864</t>
+  </si>
+  <si>
+    <t>Aktuelle Adresse Deutschland</t>
+  </si>
+  <si>
+    <t>67ceed3af3a7ba6d928e5e60ed1b2f7a</t>
+  </si>
+  <si>
+    <t>Musterstraße 1</t>
+  </si>
+  <si>
+    <t>f13a32e76ad571cdb2a641b58551ea8b</t>
+  </si>
+  <si>
+    <t>Aktuelle PLZ Deutschland</t>
+  </si>
+  <si>
+    <t>a978a5c98638e47c358fd12d5856f298</t>
+  </si>
+  <si>
+    <t>Aktueller Ort Deutschland</t>
+  </si>
+  <si>
+    <t>68f2201cb7d566aa17f922c49fa65c1e</t>
+  </si>
+  <si>
+    <t>Musterstadt</t>
+  </si>
+  <si>
+    <t>996beae5bcafe03daf320bc339da5b16</t>
+  </si>
+  <si>
+    <t>Zweck des Aufenthalts</t>
   </si>
   <si>
     <t>a7fb7f38dd07f88081a131e4eee7e19b</t>
@@ -807,10 +805,10 @@
     <t>Flucht vor Krieg</t>
   </si>
   <si>
-    <t>1e71e667725fada0f4d7b15c5acb8023</t>
-  </si>
-  <si>
-    <t>Intended duration of stay</t>
+    <t>276766a2569921b3837cb4717d4166b8</t>
+  </si>
+  <si>
+    <t>Beabsichtigte Dauer des Aufenthalts</t>
   </si>
   <si>
     <t>066e0a89bda7b7abde76ad4bb69651ed</t>
@@ -822,42 +820,42 @@
     <t>Question_10</t>
   </si>
   <si>
-    <t>dd7bf230fde8d4836917806aff6a6b27</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>41177df94b2b050062ccdeda3417cc8a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almost done, complete the following steps before sending
+    <t>a5d727df2ce2d168bae39c78df4b9054</t>
+  </si>
+  <si>
+    <t>Checklist</t>
+  </si>
+  <si>
+    <t>7854f8e53c08bfaec2ebafd78956fb5e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast fertig, vervollständigen Sie die folgenden Schritte vor dem Absenden
 </t>
   </si>
   <si>
-    <t>9d4d6bad2706a39229f8073ecdf0f406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please watch the video below and follow the instructions to find the **right address** to send your application
+    <t>422b5491fc9cd54f8ae1f4f537417d08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte sehen Sie sich das folgende Video an und folgen Sie den Anweisungen, um die **richtige Adresse** für Ihren Antrag  zu finden
 </t>
   </si>
   <si>
-    <t>ac3d71e6e4da4df222f302c1ef0b59d9</t>
-  </si>
-  <si>
-    <t>[YOUTUBE YkgkThdzX-8]</t>
-  </si>
-  <si>
-    <t>896bf14c2d310624e0be2e2ffb5fc6bd</t>
-  </si>
-  <si>
-    <t>Noted right address from the video above as address for application</t>
-  </si>
-  <si>
-    <t>d44bef0a4a2254b42599d1e7e1255876</t>
-  </si>
-  <si>
-    <t>Copied all IDs / passports to add them to the application after download</t>
+    <t>37bbec6e75751bd637cd89cd06477129</t>
+  </si>
+  <si>
+    <t>[YOUTUBE 3hO_jSAgwKI]</t>
+  </si>
+  <si>
+    <t>d7e1c6c795aa9d09bb7df5578cec3993</t>
+  </si>
+  <si>
+    <t>Die richtige Adresse aus dem Video oben als Adresse für den Antrag notiert</t>
+  </si>
+  <si>
+    <t>b7365affa2df27626d2e2a8ca823bf6b</t>
+  </si>
+  <si>
+    <t>Alle Ausweise / Pässe kopiert, um sie nach dem Herunterladen des Antrags hinzuzufügen</t>
   </si>
   <si>
     <t>docassemble.ukraine:data/questions/document.yml</t>
@@ -872,14 +870,14 @@
     <t>Interview Completed</t>
   </si>
   <si>
-    <t>eb18bbacabb0c7517658ad6eab210a8c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your application for residence title according to § 24 AufenthaltsG has been created!
+    <t>1e375e5d3e2b2ca2c36093cbd78b11c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ihr Antrag auf einen Aufenthaltstitel nach § 24 AufenthaltsG ist erstellt!
 </t>
   </si>
   <si>
-    <t>b24b038c199e707bbbc3db97eef7e5f0</t>
+    <t>bbd3e4567fdac77b3e50a79586083022</t>
   </si>
   <si>
     <r>
@@ -946,9 +944,9 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-#### Congrats on completing the application 🎉
-1. Download the application below as **PDF**
-2. Print the application
+#### Ihr Antrag wurde erstellt 🎉
+1. Laden Sie den Antrag als **PDF** herunter
+2. Drucken Sie den Antrag aus
 3. </t>
     </r>
     <r>
@@ -960,7 +958,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;span style="color:red"&gt;</t>
+      <t>&lt;span style=""color:red""&gt;</t>
     </r>
     <r>
       <rPr>
@@ -970,7 +968,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>**Sign the application**</t>
+      <t>**Unterschreiben**</t>
     </r>
     <r>
       <rPr>
@@ -991,9 +989,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> at the bottom where it says **Unterschrift**
-4. Add the copied IDs / passports
-5. Send it to the correct address from the previous step
+      <t xml:space="preserve"> Sie am Ende des Dokuments den Antrag
+4. Fügen Sie kopierte Personalauseweise / Reisepässen zu dem Antrag
+5. Senden Sie den Antrag an die korrekte Adresse aus dem vorherigen Schritt
 </t>
     </r>
   </si>
@@ -1001,49 +999,49 @@
     <t>Question_12</t>
   </si>
   <si>
-    <t>e0921130198fc84cf3b0458706c373ea</t>
-  </si>
-  <si>
-    <t>Application for residence title according to § 24 AufenthaltsG</t>
-  </si>
-  <si>
-    <t>61b9fe8ebed660dfd6f6a37cd5d14cbb</t>
-  </si>
-  <si>
-    <t>Application Residence Title</t>
-  </si>
-  <si>
-    <t>Заява про надання права на проживання згідно з § 24 AufenthaltsG</t>
-  </si>
-  <si>
-    <t>Будь ласка, вкажіть подробиці про себе.</t>
+    <t>f78b3eafebc726131d5f3184986d902e</t>
+  </si>
+  <si>
+    <t>Antrag auf Erteilung eines Aufenthaltstitels nach § 24 AufenthaltsG</t>
+  </si>
+  <si>
+    <t>c8178f063ab6dca768e60c48ca445787</t>
+  </si>
+  <si>
+    <t>Antrag Aufenthaltstitels nach § 24 AufenthaltsG</t>
+  </si>
+  <si>
+    <t>Заява про дозвіл на проживання відповідно до розділу 24 Закону про проживання</t>
+  </si>
+  <si>
+    <t>Будь ласка, заповніть свою особисту інформацію</t>
   </si>
   <si>
     <t>Ім'я</t>
   </si>
   <si>
-    <t>Прізвище/Прізвище</t>
-  </si>
-  <si>
-    <t>Місце проживання (адреса)</t>
-  </si>
-  <si>
-    <t>Місце проживання (поштовий індекс)</t>
-  </si>
-  <si>
-    <t>Місце проживання (місто)</t>
-  </si>
-  <si>
-    <t>Місце проживання (країна)</t>
-  </si>
-  <si>
-    <t>Дата народження</t>
-  </si>
-  <si>
-    <t>Місце народження</t>
-  </si>
-  <si>
-    <t>Країна народження</t>
+    <t>прізвище</t>
+  </si>
+  <si>
+    <t>Адреса в Україні</t>
+  </si>
+  <si>
+    <t>PLZ в Україні</t>
+  </si>
+  <si>
+    <t>місце в Україні</t>
+  </si>
+  <si>
+    <t>дата народження</t>
+  </si>
+  <si>
+    <t>місце народження</t>
+  </si>
+  <si>
+    <t>країна народження</t>
+  </si>
+  <si>
+    <t>Україна</t>
   </si>
   <si>
     <t>Стать</t>
@@ -1052,16 +1050,16 @@
     <t>Чоловічий</t>
   </si>
   <si>
-    <t>Жіночий</t>
-  </si>
-  <si>
-    <t>Колір очей</t>
-  </si>
-  <si>
-    <t>Синій</t>
-  </si>
-  <si>
-    <t>Зелений</t>
+    <t>жіночий</t>
+  </si>
+  <si>
+    <t>колір очей</t>
+  </si>
+  <si>
+    <t>синій</t>
+  </si>
+  <si>
+    <t>зелений</t>
   </si>
   <si>
     <t>Сірий</t>
@@ -1070,115 +1068,94 @@
     <t>Коричневий</t>
   </si>
   <si>
-    <t>Висота</t>
-  </si>
-  <si>
-    <t>Національність</t>
+    <t>розмір</t>
+  </si>
+  <si>
+    <t>національність</t>
   </si>
   <si>
     <t>Попереднє громадянство (застосовується лише якщо ви раніше мали інше громадянство)</t>
   </si>
   <si>
-    <t>Сімейний стан</t>
-  </si>
-  <si>
-    <t>Неодружений</t>
-  </si>
-  <si>
-    <t>Одружений</t>
-  </si>
-  <si>
-    <t>Живуть окремо</t>
-  </si>
-  <si>
-    <t>Проживання в зареєстрованому партнерстві</t>
-  </si>
-  <si>
-    <t>Розлучений</t>
-  </si>
-  <si>
-    <t>Овдовів</t>
-  </si>
-  <si>
-    <t>Дата весілля/реєстрація</t>
+    <t>сімейний стан</t>
+  </si>
+  <si>
+    <t>одиночний</t>
+  </si>
+  <si>
+    <t>одружений</t>
+  </si>
+  <si>
+    <t>проживають окремо</t>
+  </si>
+  <si>
+    <t>проживання в зареєстрованому партнерстві</t>
+  </si>
+  <si>
+    <t>розлучений</t>
+  </si>
+  <si>
+    <t>овдовіла</t>
+  </si>
+  <si>
+    <t>Дата шлюбу/реєстрації</t>
   </si>
   <si>
     <t>Телефон</t>
   </si>
   <si>
-    <t>Будь ласка, заповніть дані про свій паспорт чи ідентифікаційну картку</t>
-  </si>
-  <si>
-    <t>Паспорт/посвідчення особи</t>
-  </si>
-  <si>
-    <t>Власний паспорт/посвідчення особи</t>
-  </si>
-  <si>
-    <t>Зареєстрований у батька</t>
-  </si>
-  <si>
-    <t>Зареєстрований у матері</t>
-  </si>
-  <si>
-    <t>Тип ідентифікатора</t>
+    <t>Адреса електронної пошти</t>
+  </si>
+  <si>
+    <t>власний паспорт/посвідчення особи</t>
+  </si>
+  <si>
+    <t>зареєстрований у батька</t>
+  </si>
+  <si>
+    <t>Тип документа, що посвідчує особу</t>
   </si>
   <si>
     <t>паспорт</t>
   </si>
   <si>
-    <t>посвідчення особи</t>
-  </si>
-  <si>
-    <t>Номер документа</t>
+    <t>ідентифікаційна картка</t>
+  </si>
+  <si>
+    <t>Номер документа, що посвідчує особу</t>
   </si>
   <si>
     <t>Видано на</t>
   </si>
   <si>
-    <t>Діє до</t>
+    <t>термін придатності</t>
   </si>
   <si>
     <t>Держава видачі</t>
   </si>
   <si>
-    <t>Інформація про партнера життя</t>
-  </si>
-  <si>
-    <t>Чи є у вас чоловік/дружина/зареєстрований партнер, який також хоче подати заявку на дозвіл на перебування?</t>
-  </si>
-  <si>
-    <t>Будь ласка, заповніть деталі про вашого чоловіка/дружини/зареєстрованого супутника життя відповідно до LPartG.</t>
-  </si>
-  <si>
-    <t>Кількість дітей</t>
+    <t>Будь ласка, заповніть дані вашого чоловіка/дружини/зареєстрованого цивільного партнера відповідно до LPartG</t>
   </si>
   <si>
     <t>Скільки дітей приїхало з вами до Німеччини?</t>
   </si>
   <si>
-    <t>Номер</t>
-  </si>
-  <si>
-    <t>Діти Деталі</t>
-  </si>
-  <si>
-    <t>Будь ласка, заповніть інформацію про вашу дитину ${ ordinal(i) }</t>
-  </si>
-  <si>
-    <t>Прізвище</t>
-  </si>
-  <si>
-    <t>Будь ласка, заповніть наступні запитання щодо вашого прибуття</t>
+    <t>номер</t>
+  </si>
+  <si>
+    <t>Будь ласка, заповніть інформацію про свій ${ i + 1 }. Дитини</t>
+  </si>
+  <si>
+    <t>Будь ласка, дайте відповідь на наступні запитання щодо вашого прибуття</t>
   </si>
   <si>
     <t>В'їзд до Німеччини</t>
   </si>
   <si>
-    <t>В'їхав з візою</t>
-  </si>
-  <si>
-    <t>Вхід</t>
+    <t>В'їзд з візою</t>
+  </si>
+  <si>
+    <t>вхід</t>
   </si>
   <si>
     <t>з шенгенською візою</t>
@@ -1187,13 +1164,13 @@
     <t>з національною німецькою візою</t>
   </si>
   <si>
-    <t>Номер візи</t>
-  </si>
-  <si>
-    <t>Категорія візи</t>
-  </si>
-  <si>
-    <t>Віза для транзитного рейсу</t>
+    <t>номер візи</t>
+  </si>
+  <si>
+    <t>категорія візи</t>
+  </si>
+  <si>
+    <t>Повітряна транзитна віза</t>
   </si>
   <si>
     <t>Віза для транзиту</t>
@@ -1220,63 +1197,72 @@
     <t>Просторове обмеження</t>
   </si>
   <si>
-    <t>Без просторових обмежень</t>
-  </si>
-  <si>
-    <t>З просторовим обмеженням</t>
-  </si>
-  <si>
-    <t>Просторове обмеження до</t>
-  </si>
-  <si>
-    <t>Місце проживання</t>
-  </si>
-  <si>
-    <t>Поточне місто проживання</t>
-  </si>
-  <si>
-    <t>Призначення резиденції</t>
+    <t>без просторових обмежень</t>
+  </si>
+  <si>
+    <t>обмежується</t>
+  </si>
+  <si>
+    <t>Просторове обмеження на</t>
+  </si>
+  <si>
+    <t>місце проживання</t>
+  </si>
+  <si>
+    <t>Будь ласка, дайте відповідь на наступні запитання щодо вашого перебування в Німеччині</t>
+  </si>
+  <si>
+    <t>Будь ласка, введіть планову або поточну адресу **в Німеччині**.</t>
+  </si>
+  <si>
+    <t>Поточна адреса Німеччина</t>
+  </si>
+  <si>
+    <t>Поточний поштовий індекс Німеччини</t>
+  </si>
+  <si>
+    <t>Поточне місце розташування Німеччина</t>
+  </si>
+  <si>
+    <t>причина перебування</t>
+  </si>
+  <si>
+    <t>втеча від війни</t>
   </si>
   <si>
     <t>Планована тривалість перебування</t>
   </si>
   <si>
-    <t>Адреса</t>
-  </si>
-  <si>
-    <t>Будь ласка, заповніть наступні запитання щодо вашого перебування в Німеччині</t>
+    <t>закінчення війни</t>
   </si>
   <si>
     <t>Майже готово, виконайте наведені нижче дії, перш ніж надсилати</t>
   </si>
   <si>
-    <t>Будь ласка, перегляньте відео нижче та дотримуйтесь інструкцій, щоб знайти **правильну адресу**, щоб надіслати вашу заявку</t>
-  </si>
-  <si>
-    <t>Вказано правильну адресу з відео вище як адресу для подання заявки</t>
-  </si>
-  <si>
-    <t>Скопіював усі ідентифікатори/паспорти, щоб додати їх у додаток після завантаження</t>
-  </si>
-  <si>
-    <t>Інтерв'ю завершено</t>
-  </si>
-  <si>
-    <t>Вашу заяву на отримання права на проживання відповідно до § 24 AufenthaltsG створено!</t>
-  </si>
-  <si>
-    <t>"${ static_image('undraw_done_a34v.svg', width='70%') }
+    <t>Перегляньте відео нижче та дотримуйтесь інструкцій, щоб знайти **правильну адресу** для вашої заявки</t>
+  </si>
+  <si>
+    <t>Запишіть правильну адресу з відео вище як адресу для програми</t>
+  </si>
+  <si>
+    <t>Усі ідентифікатори/паспорти скопійовані, щоб додати після завантаження програми</t>
+  </si>
+  <si>
+    <t>Вашу заяву на отримання дозволу на проживання відповідно до § 24 Закону про проживання створено!</t>
+  </si>
+  <si>
+    <t>${ static_image('undraw_done_a34v.svg', width='70%') }
 &lt;br&gt;
 &lt;br&gt;
-#### Вітаємо із заповненням заявки 🎉
-1. Завантажте програму нижче як **PDF**
-2. Роздрукуйте програму
-3. &lt;span style=""color:red""&gt;**Підпишіть заявку**&lt;/span&gt; внизу, де написано **Unterschrift**
-4. Додайте скопійовані посвідчення особи/паспорта
-5. Надішліть його на правильну адресу з попереднього кроку</t>
-  </si>
-  <si>
-    <t>Заявка на місце проживання</t>
+#### Ваш додаток створено 🎉
+1. Завантажте програму як **PDF**
+2. Роздрукуйте заявку
+3. &lt;span style=""""color:red""""&gt;**Підпишіть**&lt;/span&gt; запит у кінці документа
+4. До заявки додайте ксерокопії ідентифікаційних карток/паспортів
+5. Надішліть заявку на правильну адресу з попереднього кроку</t>
+  </si>
+  <si>
+    <t>Заява про дозвіл на проживання відповідно до § 24 Закону про проживання</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1343,9 +1329,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1689,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="F122" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1778,7 +1761,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1859,7 +1842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1983,10 +1966,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1994,13 +1977,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -2009,10 +1992,10 @@
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2020,13 +2003,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -2035,10 +2018,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2046,13 +2029,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -2061,10 +2044,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2072,13 +2055,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -2087,10 +2070,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2098,13 +2081,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -2113,10 +2096,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2124,13 +2107,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -2139,10 +2122,10 @@
         <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2150,13 +2133,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2">
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
@@ -2165,10 +2148,10 @@
         <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2176,13 +2159,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -2191,10 +2174,10 @@
         <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2202,13 +2185,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -2217,10 +2200,10 @@
         <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2228,13 +2211,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -2243,10 +2226,10 @@
         <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2254,13 +2237,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2">
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
@@ -2269,10 +2252,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2280,13 +2263,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2">
         <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
@@ -2294,11 +2277,11 @@
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>56</v>
+      <c r="G23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2306,13 +2289,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -2321,10 +2304,10 @@
         <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2332,13 +2315,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>11</v>
@@ -2346,11 +2329,11 @@
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>60</v>
+      <c r="G25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2358,13 +2341,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2">
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
@@ -2373,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>280</v>
@@ -2384,13 +2367,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2">
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>11</v>
@@ -2399,7 +2382,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>281</v>
@@ -2410,13 +2393,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2">
         <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
@@ -2425,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>282</v>
@@ -2436,13 +2419,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2">
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>11</v>
@@ -2451,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>283</v>
@@ -2462,13 +2445,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2">
         <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>11</v>
@@ -2477,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>284</v>
@@ -2488,13 +2471,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2">
         <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>11</v>
@@ -2503,7 +2486,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>285</v>
@@ -2514,13 +2497,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2">
         <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>11</v>
@@ -2529,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>286</v>
@@ -2540,13 +2523,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2">
         <v>21</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
@@ -2555,7 +2538,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>287</v>
@@ -2566,13 +2549,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2">
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>11</v>
@@ -2581,7 +2564,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>288</v>
@@ -2592,13 +2575,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2">
         <v>23</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>11</v>
@@ -2607,7 +2590,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>289</v>
@@ -2618,13 +2601,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2">
         <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>11</v>
@@ -2633,24 +2616,24 @@
         <v>12</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2">
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>11</v>
@@ -2659,7 +2642,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>291</v>
@@ -2670,13 +2653,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2">
         <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
@@ -2685,7 +2668,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>292</v>
@@ -2696,13 +2679,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" s="2">
         <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>11</v>
@@ -2711,7 +2694,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>293</v>
@@ -2722,13 +2705,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="2">
         <v>28</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>11</v>
@@ -2737,7 +2720,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>294</v>
@@ -2748,13 +2731,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2">
         <v>29</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>11</v>
@@ -2763,7 +2746,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>295</v>
@@ -2774,13 +2757,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2">
         <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
@@ -2789,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>296</v>
@@ -2800,13 +2783,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2">
         <v>31</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>11</v>
@@ -2815,7 +2798,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>297</v>
@@ -2826,13 +2809,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2">
         <v>32</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>11</v>
@@ -2841,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>298</v>
@@ -2852,13 +2835,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C45" s="2">
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>11</v>
@@ -2867,7 +2850,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>299</v>
@@ -2878,13 +2861,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C46" s="2">
         <v>34</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>11</v>
@@ -2893,10 +2876,10 @@
         <v>12</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>102</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2904,13 +2887,13 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C47" s="2">
         <v>35</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>11</v>
@@ -2919,10 +2902,10 @@
         <v>12</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>300</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2930,13 +2913,13 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C48" s="2">
         <v>36</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
@@ -2945,7 +2928,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>301</v>
@@ -2956,13 +2939,13 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" s="2">
         <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>11</v>
@@ -2971,10 +2954,10 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2982,13 +2965,13 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C50" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>11</v>
@@ -2997,10 +2980,10 @@
         <v>12</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3008,13 +2991,13 @@
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>11</v>
@@ -3023,10 +3006,10 @@
         <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3034,13 +3017,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
@@ -3049,24 +3032,24 @@
         <v>12</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
@@ -3075,10 +3058,10 @@
         <v>12</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3086,13 +3069,13 @@
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
@@ -3101,24 +3084,24 @@
         <v>12</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
@@ -3127,7 +3110,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>302</v>
@@ -3138,13 +3121,13 @@
         <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
@@ -3153,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>303</v>
@@ -3164,13 +3147,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
@@ -3179,7 +3162,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>304</v>
@@ -3190,13 +3173,13 @@
         <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
@@ -3205,7 +3188,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>305</v>
@@ -3216,13 +3199,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -3231,7 +3214,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>306</v>
@@ -3242,13 +3225,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
@@ -3257,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>307</v>
@@ -3268,13 +3251,13 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
@@ -3283,10 +3266,10 @@
         <v>12</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>308</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3294,13 +3277,13 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
@@ -3309,10 +3292,10 @@
         <v>12</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3320,13 +3303,13 @@
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C63" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
@@ -3335,10 +3318,10 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3346,13 +3329,13 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>11</v>
@@ -3361,10 +3344,10 @@
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>139</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3372,13 +3355,13 @@
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C65" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
@@ -3387,50 +3370,50 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" s="2">
-        <v>14</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C67" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
@@ -3439,10 +3422,10 @@
         <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>313</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3450,13 +3433,13 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C68" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
@@ -3465,24 +3448,24 @@
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C69" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>11</v>
@@ -3491,24 +3474,24 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C70" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
@@ -3516,11 +3499,11 @@
       <c r="F70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>315</v>
+      <c r="G70" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3528,13 +3511,13 @@
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C71" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>11</v>
@@ -3542,11 +3525,11 @@
       <c r="F71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>154</v>
+      <c r="G71" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3554,13 +3537,13 @@
         <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C72" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>11</v>
@@ -3569,10 +3552,10 @@
         <v>12</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3580,13 +3563,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C73" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>11</v>
@@ -3594,25 +3577,25 @@
       <c r="F73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H73" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C74" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
@@ -3620,11 +3603,11 @@
       <c r="F74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>160</v>
+      <c r="G74" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3632,13 +3615,13 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C75" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
@@ -3646,11 +3629,11 @@
       <c r="F75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>162</v>
+      <c r="G75" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3658,13 +3641,13 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
@@ -3673,10 +3656,10 @@
         <v>12</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>317</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3684,13 +3667,13 @@
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>11</v>
@@ -3699,10 +3682,10 @@
         <v>12</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3710,13 +3693,13 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C78" s="2">
         <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
@@ -3725,10 +3708,10 @@
         <v>12</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>319</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3736,13 +3719,13 @@
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
@@ -3751,10 +3734,10 @@
         <v>12</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>320</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3762,13 +3745,13 @@
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
@@ -3777,10 +3760,10 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3788,13 +3771,13 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
@@ -3803,10 +3786,10 @@
         <v>12</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3814,13 +3797,13 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C82" s="2">
         <v>3</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
@@ -3829,10 +3812,10 @@
         <v>12</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>178</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3840,13 +3823,13 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C83" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -3855,24 +3838,24 @@
         <v>12</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>11</v>
@@ -3881,10 +3864,10 @@
         <v>12</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3892,13 +3875,13 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C85" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>11</v>
@@ -3907,10 +3890,10 @@
         <v>12</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3918,13 +3901,13 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C86" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>11</v>
@@ -3933,10 +3916,10 @@
         <v>12</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3944,13 +3927,13 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C87" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
@@ -3959,10 +3942,10 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>326</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3970,13 +3953,13 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C88" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>11</v>
@@ -3985,10 +3968,10 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3996,13 +3979,13 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C89" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>11</v>
@@ -4011,10 +3994,10 @@
         <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4022,13 +4005,13 @@
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C90" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>11</v>
@@ -4037,10 +4020,10 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4048,13 +4031,13 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C91" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
@@ -4063,10 +4046,10 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>197</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4074,13 +4057,13 @@
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C92" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>11</v>
@@ -4089,10 +4072,10 @@
         <v>12</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4100,13 +4083,13 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C93" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>11</v>
@@ -4115,10 +4098,10 @@
         <v>12</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4126,13 +4109,13 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C94" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>11</v>
@@ -4141,10 +4124,10 @@
         <v>12</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>332</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4152,13 +4135,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C95" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>11</v>
@@ -4167,10 +4150,10 @@
         <v>12</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4178,13 +4161,13 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C96" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>11</v>
@@ -4193,10 +4176,10 @@
         <v>12</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4204,13 +4187,13 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C97" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>11</v>
@@ -4219,10 +4202,10 @@
         <v>12</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4230,13 +4213,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C98" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>11</v>
@@ -4245,10 +4228,10 @@
         <v>12</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>211</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4256,13 +4239,13 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C99" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>11</v>
@@ -4271,10 +4254,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4282,13 +4265,13 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C100" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>11</v>
@@ -4297,10 +4280,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4308,13 +4291,13 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C101" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>11</v>
@@ -4323,10 +4306,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4334,13 +4317,13 @@
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="C102" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>11</v>
@@ -4349,24 +4332,24 @@
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H102" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C103" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
@@ -4375,10 +4358,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4386,13 +4369,13 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="C104" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>11</v>
@@ -4401,10 +4384,10 @@
         <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4412,13 +4395,13 @@
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="C105" s="2">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>11</v>
@@ -4427,10 +4410,10 @@
         <v>12</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4438,13 +4421,13 @@
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="C106" s="2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>11</v>
@@ -4453,10 +4436,10 @@
         <v>12</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4464,13 +4447,13 @@
         <v>8</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C107" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>11</v>
@@ -4479,24 +4462,24 @@
         <v>12</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C108" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
@@ -4505,10 +4488,10 @@
         <v>12</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4516,13 +4499,13 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C109" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
@@ -4531,10 +4514,10 @@
         <v>12</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>344</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4542,13 +4525,13 @@
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C110" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
@@ -4557,10 +4540,10 @@
         <v>12</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>236</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4568,13 +4551,13 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C111" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>11</v>
@@ -4583,10 +4566,10 @@
         <v>12</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4594,13 +4577,13 @@
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C112" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>11</v>
@@ -4609,10 +4592,10 @@
         <v>12</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>240</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4620,13 +4603,13 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C113" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>11</v>
@@ -4635,10 +4618,10 @@
         <v>12</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4646,13 +4629,13 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C114" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>11</v>
@@ -4661,24 +4644,24 @@
         <v>12</v>
       </c>
       <c r="G114" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="C115" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>11</v>
@@ -4687,10 +4670,10 @@
         <v>12</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4698,13 +4681,13 @@
         <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C116" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
@@ -4713,24 +4696,24 @@
         <v>12</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C117" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>11</v>
@@ -4738,11 +4721,11 @@
       <c r="F117" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>350</v>
+      <c r="G117" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4750,13 +4733,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C118" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>11</v>
@@ -4764,11 +4747,11 @@
       <c r="F118" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G118" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>253</v>
+      <c r="G118" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4776,13 +4759,13 @@
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C119" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>11</v>
@@ -4791,24 +4774,24 @@
         <v>12</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C120" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>11</v>
@@ -4817,76 +4800,76 @@
         <v>12</v>
       </c>
       <c r="G120" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H120" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="C121" s="2">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C122" s="2">
+        <v>2</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C123" s="2">
         <v>0</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C122" s="2">
-        <v>1</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C123" s="2">
-        <v>2</v>
-      </c>
       <c r="D123" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>11</v>
@@ -4895,24 +4878,24 @@
         <v>12</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>11</v>
@@ -4921,36 +4904,10 @@
         <v>12</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C125" s="2">
-        <v>1</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/docassemble/ukraine/data/sources/interview_uk.xlsx
+++ b/docassemble/ukraine/data/sources/interview_uk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Desktop/tripliq-repo/docassemble-ukraine/docassemble/ukraine/data/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96D15E7-2A41-E149-B930-12D4D188E974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEED9077-5734-E342-9507-8D11E8380A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1041,9 +1041,6 @@
     <t>країна народження</t>
   </si>
   <si>
-    <t>Україна</t>
-  </si>
-  <si>
     <t>Стать</t>
   </si>
   <si>
@@ -1263,6 +1260,9 @@
   </si>
   <si>
     <t>Заява про дозвіл на проживання відповідно до § 24 Закону про проживання</t>
+  </si>
+  <si>
+    <t>Чи є у вас чоловік/дружина/зареєстрований партнер, який також хоче подати заяву на отримання дозволу на проживання?</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F122" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2359,7 +2359,7 @@
         <v>63</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>280</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2385,7 +2385,7 @@
         <v>65</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2411,7 +2411,7 @@
         <v>67</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2437,7 +2437,7 @@
         <v>69</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2463,7 +2463,7 @@
         <v>71</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2489,7 +2489,7 @@
         <v>73</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2515,7 +2515,7 @@
         <v>75</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2541,7 +2541,7 @@
         <v>77</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2567,7 +2567,7 @@
         <v>79</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2593,7 +2593,7 @@
         <v>81</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2619,7 +2619,7 @@
         <v>83</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>85</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2671,7 +2671,7 @@
         <v>87</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2697,7 +2697,7 @@
         <v>89</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2723,7 +2723,7 @@
         <v>91</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2749,7 +2749,7 @@
         <v>93</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2775,7 +2775,7 @@
         <v>95</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2801,7 +2801,7 @@
         <v>97</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2827,7 +2827,7 @@
         <v>99</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2853,7 +2853,7 @@
         <v>101</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2879,7 +2879,7 @@
         <v>103</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2931,7 +2931,7 @@
         <v>107</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3113,7 +3113,7 @@
         <v>122</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3139,7 +3139,7 @@
         <v>124</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3165,7 +3165,7 @@
         <v>126</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3191,7 +3191,7 @@
         <v>128</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3217,7 +3217,7 @@
         <v>130</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3243,7 +3243,7 @@
         <v>132</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3295,7 +3295,7 @@
         <v>136</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3321,7 +3321,7 @@
         <v>138</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3347,7 +3347,7 @@
         <v>140</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3399,7 +3399,7 @@
         <v>145</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -3425,7 +3425,7 @@
         <v>147</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>147</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3607,7 +3607,7 @@
         <v>162</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3633,7 +3633,7 @@
         <v>164</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3685,7 +3685,7 @@
         <v>169</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3763,7 +3763,7 @@
         <v>176</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
         <v>178</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3815,7 +3815,7 @@
         <v>180</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3841,7 +3841,7 @@
         <v>182</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3867,7 +3867,7 @@
         <v>184</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3893,7 +3893,7 @@
         <v>186</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
         <v>188</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3971,7 +3971,7 @@
         <v>192</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3997,7 +3997,7 @@
         <v>194</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>196</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4049,7 +4049,7 @@
         <v>198</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4075,7 +4075,7 @@
         <v>200</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4101,7 +4101,7 @@
         <v>202</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4153,7 +4153,7 @@
         <v>206</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4179,7 +4179,7 @@
         <v>208</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4205,7 +4205,7 @@
         <v>210</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4231,7 +4231,7 @@
         <v>212</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4257,7 +4257,7 @@
         <v>214</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4283,7 +4283,7 @@
         <v>216</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4309,7 +4309,7 @@
         <v>218</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>221</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4361,7 +4361,7 @@
         <v>223</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4387,7 +4387,7 @@
         <v>225</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4413,7 +4413,7 @@
         <v>227</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4465,7 +4465,7 @@
         <v>231</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4491,7 +4491,7 @@
         <v>233</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4543,7 +4543,7 @@
         <v>237</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4569,7 +4569,7 @@
         <v>239</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4595,7 +4595,7 @@
         <v>241</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4621,7 +4621,7 @@
         <v>243</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4673,7 +4673,7 @@
         <v>248</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4699,7 +4699,7 @@
         <v>250</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4751,7 +4751,7 @@
         <v>254</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4777,7 +4777,7 @@
         <v>256</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4829,7 +4829,7 @@
         <v>262</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
@@ -4855,7 +4855,7 @@
         <v>264</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4881,7 +4881,7 @@
         <v>267</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">

--- a/docassemble/ukraine/data/sources/interview_uk.xlsx
+++ b/docassemble/ukraine/data/sources/interview_uk.xlsx
@@ -5,22 +5,34 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Desktop/tripliq-repo/docassemble-ukraine/docassemble/ukraine/data/sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEED9077-5734-E342-9507-8D11E8380A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9777205-C410-C345-BBE4-D198C8B74C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15040" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="425">
   <si>
     <t>interview</t>
   </si>
@@ -52,13 +64,45 @@
     <t>Question_1</t>
   </si>
   <si>
+    <t>1f1b6097d20cea3c5d9ae10491d7d3aa</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>DisclaimerShown</t>
+  </si>
+  <si>
+    <t>1f8cca8fd14b19865dfe26e0ac6ba4f5</t>
+  </si>
+  <si>
+    <t>Disclaimer Shown</t>
+  </si>
+  <si>
+    <t>0f9d8b13614071052ef80c56de1ead50</t>
+  </si>
+  <si>
+    <t>TripliQ Hinweis</t>
+  </si>
+  <si>
+    <t>e1af86e448533b16289bda8345b27d35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TripliQ umfasst ***keine Rechtsberatung bzw. Rechtsdienstleistung***, d.h. es erfolgt keine rechtliche Prüfung des konkreten Einzelfalls im Sinne des Rechtsdienstleistungsgesetzes (RDG) durch TripliQ.
+- Wir speichern Ihre Daten nicht dauerhaft. Wir nutzen Ihre Eingaben nur für die Erstellung Ihres Antrages. Danach werden Ihre Daten gelöscht.
+- Das Angebot „TripliQ" unterstützt den Kunden durch einen softwaregestützten Interview- und Vertragserstellungsprozess bei der eigenverantwortlichen Erstellung seiner Rechtsdokumente.
+- Dieser Prozess ist grundsätzlich so gestaltet, dass die Anwendung keine besonderen Rechtskenntnisse erfordert. Ein automatisierter Interviewprozess kann allerdings nicht jeden einzelnen Sachverhalt mit seinen spezifischen Besonderheiten erfassen.
+- Der Kunde ist daher gehalten, die erstellten Rechtsdokumente im Hinblick auf die von ihm angestrebte Verwendung insbesondere einer Plausibilitätsprüfung zu unterziehen. Sollte eine rechtliche Prüfung im konkreten Einzelfall erforderlich werden, empfehlen wir, den Rat eines Rechtsanwalts oder einer sonstigen zur Erbringung von Rechtsdienstleistungen nach dem RDG berechtigten Stelle zu suchen.
+</t>
+  </si>
+  <si>
+    <t>Question_2</t>
+  </si>
+  <si>
     <t>8bd876500ba1d386d7c2567875148aaa</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>uk</t>
   </si>
   <si>
     <t>Interview Started</t>
@@ -69,6 +113,9 @@
   <si>
     <t xml:space="preserve">Antrag auf Aufenthaltstitel gem. § 24 AufenthaltsG
 </t>
+  </si>
+  <si>
+    <t>Заява про дозвіл на проживання відповідно до розділу 24 Закону про проживання</t>
   </si>
   <si>
     <t>4a8f5a283bffedf0e13e610f76705291</t>
@@ -98,7 +145,7 @@
     </r>
   </si>
   <si>
-    <t>Question_2</t>
+    <t>Question_3</t>
   </si>
   <si>
     <t>bc4eea8a43eca9783c811030a56e8243</t>
@@ -147,7 +194,7 @@
     <t>en</t>
   </si>
   <si>
-    <t>Question_3</t>
+    <t>Question_4</t>
   </si>
   <si>
     <t>3af74b6d1d85f3bafe030d5097a92a81</t>
@@ -157,12 +204,18 @@
 </t>
   </si>
   <si>
+    <t>Будь ласка, заповніть свою особисту інформацію</t>
+  </si>
+  <si>
     <t>fecc7b92efa313ac8de08d4094455c9e</t>
   </si>
   <si>
     <t>Vorname</t>
   </si>
   <si>
+    <t>Ім'я</t>
+  </si>
+  <si>
     <t>c2e366862ccf602f016a326807004aa9</t>
   </si>
   <si>
@@ -175,6 +228,9 @@
     <t>Nachname</t>
   </si>
   <si>
+    <t>прізвище</t>
+  </si>
+  <si>
     <t>7e7c162a5a1f8372af6ca75caa391dc6</t>
   </si>
   <si>
@@ -187,6 +243,9 @@
     <t>Adresse in der Ukraine</t>
   </si>
   <si>
+    <t>Адреса в Україні</t>
+  </si>
+  <si>
     <t>d17244f5d112d3070418befaea725dc6</t>
   </si>
   <si>
@@ -199,12 +258,18 @@
     <t>PLZ in der Ukraine</t>
   </si>
   <si>
+    <t>PLZ в Україні</t>
+  </si>
+  <si>
     <t>73deb8568395488d598e2614b427cf78</t>
   </si>
   <si>
     <t>Ort in der Ukraine</t>
   </si>
   <si>
+    <t>місце в Україні</t>
+  </si>
+  <si>
     <t>1b2d21ab68e4219ce2ec8f073c2db464</t>
   </si>
   <si>
@@ -217,6 +282,9 @@
     <t>Geburtsdatum</t>
   </si>
   <si>
+    <t>дата народження</t>
+  </si>
+  <si>
     <t>53de3428c5ce9f797a09cdbea5ca2483</t>
   </si>
   <si>
@@ -229,12 +297,18 @@
     <t>Geburtsort</t>
   </si>
   <si>
+    <t>місце народження</t>
+  </si>
+  <si>
     <t>f91d4ca1d94fd19f8f5be1f15bd09c23</t>
   </si>
   <si>
     <t>Geburtsland</t>
   </si>
   <si>
+    <t>країна народження</t>
+  </si>
+  <si>
     <t>f01fc92b23faa973f3492a23d5a705c5</t>
   </si>
   <si>
@@ -247,120 +321,192 @@
     <t>Geschlecht</t>
   </si>
   <si>
+    <t>Стать</t>
+  </si>
+  <si>
     <t>3322b72720651014f6f473f0cf2dae22</t>
   </si>
   <si>
     <t>Männlich</t>
   </si>
   <si>
+    <t>Чоловічий</t>
+  </si>
+  <si>
     <t>c1a9d224abe4774fd94d39c4d8f883c4</t>
   </si>
   <si>
     <t>Weiblich</t>
   </si>
   <si>
+    <t>жіночий</t>
+  </si>
+  <si>
     <t>eab75d9851bd767c05237261b153b203</t>
   </si>
   <si>
     <t>Augenfarbe</t>
   </si>
   <si>
+    <t>колір очей</t>
+  </si>
+  <si>
     <t>313409a244ee26600d1fd7c3e7d1419e</t>
   </si>
   <si>
     <t>Blau</t>
   </si>
   <si>
+    <t>синій</t>
+  </si>
+  <si>
     <t>da84d888f8e2ad17a2a35ba34b989f3e</t>
   </si>
   <si>
     <t>Grün</t>
   </si>
   <si>
+    <t>зелений</t>
+  </si>
+  <si>
     <t>dd7cc12f3c2ce05ee5f67d834f3cdb1f</t>
   </si>
   <si>
     <t>Grau</t>
   </si>
   <si>
+    <t>Сірий</t>
+  </si>
+  <si>
     <t>0d178dd9904716651a1b0cd7c9882568</t>
   </si>
   <si>
     <t>Braun</t>
   </si>
   <si>
+    <t>Коричневий</t>
+  </si>
+  <si>
     <t>d248453369cf82a6a64617f1357089c5</t>
   </si>
   <si>
     <t>Größe</t>
   </si>
   <si>
+    <t>розмір</t>
+  </si>
+  <si>
     <t>4481872be58c4d95aec1336303b73159</t>
   </si>
   <si>
     <t>Staatsangehörigkeit</t>
   </si>
   <si>
+    <t>національність</t>
+  </si>
+  <si>
     <t>a25a3807795ae5779200d608a222ba3b</t>
   </si>
   <si>
     <t>Vorherige Staatsangehörigkeit (nur zutreffend, wenn Sie zuvor eine andere Staatsangehörigkeit hatten)</t>
   </si>
   <si>
+    <t>Попереднє громадянство (застосовується лише якщо ви раніше мали інше громадянство)</t>
+  </si>
+  <si>
     <t>52b7438c976d9cc1ac0faee13cf87107</t>
   </si>
   <si>
     <t>Familienstand</t>
   </si>
   <si>
+    <t>сімейний стан</t>
+  </si>
+  <si>
     <t>3561d879014cd8d355dd6f48a7de82d7</t>
   </si>
   <si>
     <t>ledig</t>
   </si>
   <si>
+    <t>одиночний</t>
+  </si>
+  <si>
     <t>10089a27d8ecac99bb41097d6dbf6045</t>
   </si>
   <si>
     <t>verheiratet</t>
   </si>
   <si>
+    <t>одружений</t>
+  </si>
+  <si>
     <t>d1583da77bc6f4c7b014a12fa16dffd3</t>
   </si>
   <si>
     <t>getreent lebend</t>
   </si>
   <si>
+    <t>проживають окремо</t>
+  </si>
+  <si>
     <t>764dbf389582d4e6efad29a46d2e3e8b</t>
   </si>
   <si>
     <t>in eingetragener Lebenspartnerschaft lebend</t>
   </si>
   <si>
+    <t>проживання в зареєстрованому партнерстві</t>
+  </si>
+  <si>
     <t>6492c3801e8c049f5b8e6826b3d2b7d9</t>
   </si>
   <si>
     <t>geschieden</t>
   </si>
   <si>
+    <t>розлучений</t>
+  </si>
+  <si>
     <t>927d93e85fb03b8bf5d0eabf1513866e</t>
   </si>
   <si>
     <t>verwitwet</t>
   </si>
   <si>
+    <t>овдовіла</t>
+  </si>
+  <si>
+    <t>a3193d8c02c38f33b7d6d06cbc7af0b9</t>
+  </si>
+  <si>
+    <t>Hiermit beantrage ich die Erlaubnis einer Erwerbstätigkeit</t>
+  </si>
+  <si>
+    <t>f827cf462f62848df37c5e1e94a4da74</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>1f88aebf7007ada18bc4e0e5df36003c</t>
   </si>
   <si>
     <t>Datum der Hochzeit/ Anmeldung</t>
   </si>
   <si>
+    <t>Дата шлюбу/реєстрації</t>
+  </si>
+  <si>
     <t>0975cf6baccb3862c31522c2b5b8fabc</t>
   </si>
   <si>
     <t>Telefon</t>
   </si>
   <si>
+    <t>Телефон</t>
+  </si>
+  <si>
     <t>19b3f25973b650a1cab65ce8a7f3dd12</t>
   </si>
   <si>
@@ -373,25 +519,22 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Адреса електронної пошти</t>
+  </si>
+  <si>
     <t>fbf2b9cfc0a472389f3620e471bdf0e9</t>
   </si>
   <si>
     <t>example@mail.com</t>
   </si>
   <si>
-    <t>Question_4</t>
+    <t>Question_5</t>
   </si>
   <si>
     <t>16fcf804313a563fd834dbef8d2100c0</t>
   </si>
   <si>
     <t>Question Asked</t>
-  </si>
-  <si>
-    <t>f827cf462f62848df37c5e1e94a4da74</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
   <si>
     <t>ffcf25a9474afef66eeb62c018cee111</t>
@@ -419,36 +562,54 @@
     <t>eigener Pass/Ausweis</t>
   </si>
   <si>
+    <t>власний паспорт/посвідчення особи</t>
+  </si>
+  <si>
     <t>21ec048f9c925cb0d8cf2dc690d47ba7</t>
   </si>
   <si>
     <t>eingetragen bei Vater</t>
   </si>
   <si>
+    <t>зареєстрований у батька</t>
+  </si>
+  <si>
     <t>bfd7b7364883556645e40b1903f6aa9e</t>
   </si>
   <si>
     <t>Art Ausweisdokument</t>
   </si>
   <si>
+    <t>Тип документа, що посвідчує особу</t>
+  </si>
+  <si>
     <t>0121efa678848558a8a40938273405f2</t>
   </si>
   <si>
     <t>Reisepass</t>
   </si>
   <si>
+    <t>паспорт</t>
+  </si>
+  <si>
     <t>39c6a9c3da84ae1e6456d11f2b9d7634</t>
   </si>
   <si>
     <t>Personalausweis</t>
   </si>
   <si>
+    <t>ідентифікаційна картка</t>
+  </si>
+  <si>
     <t>ef338fd9512742a44430b54b7d9cc890</t>
   </si>
   <si>
     <t>Ausweisdokument Nummer</t>
   </si>
   <si>
+    <t>Номер документа, що посвідчує особу</t>
+  </si>
+  <si>
     <t>1328562d7712ec30e5907281aef5abad</t>
   </si>
   <si>
@@ -461,19 +622,28 @@
     <t>Ausgestellt am</t>
   </si>
   <si>
+    <t>Видано на</t>
+  </si>
+  <si>
     <t>abf7ac09dfe3da2923516dd75445cd7e</t>
   </si>
   <si>
     <t>Gültig bis</t>
   </si>
   <si>
+    <t>термін придатності</t>
+  </si>
+  <si>
     <t>63ec771779c8f14287f1e62ba50d67c1</t>
   </si>
   <si>
     <t>Ausstellender Staat</t>
   </si>
   <si>
-    <t>Question_5</t>
+    <t>Держава видачі</t>
+  </si>
+  <si>
+    <t>Question_6</t>
   </si>
   <si>
     <t>405d3e56ebb280d2f311e4d129e3870c</t>
@@ -489,12 +659,18 @@
 </t>
   </si>
   <si>
+    <t>Будь ласка, заповніть дані вашого чоловіка/дружини/зареєстрованого цивільного партнера відповідно до LPartG</t>
+  </si>
+  <si>
     <t>68c5b30a5c70692baeaae343551dadd9</t>
   </si>
   <si>
     <t>Haben Sie einen Ehegatten/eingetragenen Lebenspartner, der ebenfalls eine Aufenthaltserlaubnis beantragen möchte?</t>
   </si>
   <si>
+    <t>Чи є у вас чоловік/дружина/зареєстрований партнер, який також хоче подати заяву на отримання дозволу на проживання?</t>
+  </si>
+  <si>
     <t>f8320b26d30ab433c5a54546d21f414c</t>
   </si>
   <si>
@@ -525,7 +701,38 @@
     <t>${ applicant.address.city }</t>
   </si>
   <si>
-    <t>Question_6</t>
+    <t>Question_7</t>
+  </si>
+  <si>
+    <t>9fb644a605c48746c9426bb91f360add</t>
+  </si>
+  <si>
+    <t>Number Family Members</t>
+  </si>
+  <si>
+    <t>5848c88e37c1896016987bb84dcd9dc5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie viele Familienmitglieder sind mit Ihnen nach Deutschland gekommen?
+</t>
+  </si>
+  <si>
+    <t>eaf88f9c5a548686fa745ff9dc445775</t>
+  </si>
+  <si>
+    <t>Hier zählen nur Personen mit der/dem Antragsteller:in vor der Flucht **innerhalb eines Familienverbands gelebt** und war **vollständig oder größtenteils von ihr/ihm abhängig**.</t>
+  </si>
+  <si>
+    <t>71f221d8debed7f7baf1ee4e7b658199</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>номер</t>
+  </si>
+  <si>
+    <t>Question_8</t>
   </si>
   <si>
     <t>d5edb6a1da156d0b28a228bc77826015</t>
@@ -541,13 +748,152 @@
 </t>
   </si>
   <si>
-    <t>71f221d8debed7f7baf1ee4e7b658199</t>
-  </si>
-  <si>
-    <t>Anzahl</t>
-  </si>
-  <si>
-    <t>Question_7</t>
+    <t>Скільки дітей приїхало з вами до Німеччини?</t>
+  </si>
+  <si>
+    <t>Question_9</t>
+  </si>
+  <si>
+    <t>75566c5ecb588b1bdf94e0a9ef16162d</t>
+  </si>
+  <si>
+    <t>Family Member Details</t>
+  </si>
+  <si>
+    <t>5b34b3f76c5c62fe98098e3640a3c78e</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bitte vervollständigen Sie die Informationen über Ihr </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ i + 1 }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Familienmitglied
+</t>
+    </r>
+  </si>
+  <si>
+    <t>ecaa00bf3577e28c4baa2423436009c9</t>
+  </si>
+  <si>
+    <t>Kyiv</t>
+  </si>
+  <si>
+    <t>c2f1e39b36480ee0c7e9a96345d71a9b</t>
+  </si>
+  <si>
+    <t>Familiäre Verbindung</t>
+  </si>
+  <si>
+    <t>d9eece7f90d8d40b6c391a236a8e8f59</t>
+  </si>
+  <si>
+    <t>Mutter</t>
+  </si>
+  <si>
+    <t>dcb504d58f8287434f6b3098d6b6f69f</t>
+  </si>
+  <si>
+    <t>Vater</t>
+  </si>
+  <si>
+    <t>c4a7f176f39472da0f9e714f45f132ac</t>
+  </si>
+  <si>
+    <t>Schwiegermutter</t>
+  </si>
+  <si>
+    <t>72753a7c1dd9f0ccf94b08327fede540</t>
+  </si>
+  <si>
+    <t>Schwiegervater</t>
+  </si>
+  <si>
+    <t>78f5978148a3dae25fb85200b6f267fe</t>
+  </si>
+  <si>
+    <t>Bruder</t>
+  </si>
+  <si>
+    <t>36c0e58589bdce086dbed1f5f88b5971</t>
+  </si>
+  <si>
+    <t>Schwester</t>
+  </si>
+  <si>
+    <t>86a3f75a78dc5ff1e876fdc98159f73b</t>
+  </si>
+  <si>
+    <t>Schwägerin</t>
+  </si>
+  <si>
+    <t>19a62099932b91d0523cf5426ba3965c</t>
+  </si>
+  <si>
+    <t>Schwager</t>
+  </si>
+  <si>
+    <t>2aa0c2b9def0ecd0fbd6ce7391d8326b</t>
+  </si>
+  <si>
+    <t>Onkel</t>
+  </si>
+  <si>
+    <t>059fb00a4e5ef45c7fe0d60563c453c6</t>
+  </si>
+  <si>
+    <t>Tante</t>
+  </si>
+  <si>
+    <t>06147ed887ea0c1b1fa3ad006b849ed7</t>
+  </si>
+  <si>
+    <t>Nichte</t>
+  </si>
+  <si>
+    <t>f7fd6c15743b17a38c783b8daa9f0edd</t>
+  </si>
+  <si>
+    <t>Neffe</t>
+  </si>
+  <si>
+    <t>ed712769ea77496e07203dbdc9cd7027</t>
+  </si>
+  <si>
+    <t>Cousine</t>
+  </si>
+  <si>
+    <t>a30d92a26314107dfdac74aab0e3c9b5</t>
+  </si>
+  <si>
+    <t>Cousin</t>
+  </si>
+  <si>
+    <t>Question_10</t>
   </si>
   <si>
     <t>33f4d7162ae40e74ca7cbc5ee1b13117</t>
@@ -593,13 +939,40 @@
     </r>
   </si>
   <si>
-    <t>ecaa00bf3577e28c4baa2423436009c9</t>
-  </si>
-  <si>
-    <t>Kyiv</t>
-  </si>
-  <si>
-    <t>Question_8</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Будь ласка, заповніть інформацію про свій </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ i + 1 }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Дитини</t>
+    </r>
+  </si>
+  <si>
+    <t>Question_11</t>
   </si>
   <si>
     <t>885b3c534ec909cf87987897bfba2235</t>
@@ -615,42 +988,63 @@
 </t>
   </si>
   <si>
+    <t>Будь ласка, дайте відповідь на наступні запитання щодо вашого прибуття</t>
+  </si>
+  <si>
     <t>7c0cd8d53447a934b61673bb2266a602</t>
   </si>
   <si>
     <t>Einreise nach Deutschland</t>
   </si>
   <si>
+    <t>В'їзд до Німеччини</t>
+  </si>
+  <si>
     <t>66eb0e5b03d8ca2b703036d4b44a8699</t>
   </si>
   <si>
     <t>Einreise mit Visum</t>
   </si>
   <si>
+    <t>В'їзд з візою</t>
+  </si>
+  <si>
     <t>d10ee484b31918b89a167fd6d8f40948</t>
   </si>
   <si>
     <t>Einreise</t>
   </si>
   <si>
+    <t>вхід</t>
+  </si>
+  <si>
     <t>e6a3f9d48b28d4f378405b8f8d84d1a1</t>
   </si>
   <si>
     <t>mit Shengen-Visum</t>
   </si>
   <si>
+    <t>з шенгенською візою</t>
+  </si>
+  <si>
     <t>a65961fcd9f7513bdd5c49181ccbd699</t>
   </si>
   <si>
     <t>mit nationalem deutschen Visum</t>
   </si>
   <si>
+    <t>з національною німецькою візою</t>
+  </si>
+  <si>
     <t>b5dc9973d13069eff1e56cbbdc7f9c2e</t>
   </si>
   <si>
     <t>Visumnummer</t>
   </si>
   <si>
+    <t>номер візи</t>
+  </si>
+  <si>
     <t>7669ed3e6faeebc70f6317d866ab7158</t>
   </si>
   <si>
@@ -663,36 +1057,54 @@
     <t>Visum-Kategorie</t>
   </si>
   <si>
+    <t>категорія візи</t>
+  </si>
+  <si>
     <t>56edd67915b6cdcaa67c40687d044515</t>
   </si>
   <si>
     <t>Visum für Flugtransit</t>
   </si>
   <si>
+    <t>Повітряна транзитна віза</t>
+  </si>
+  <si>
     <t>8a0a6a671bfb31b3301bad7c096ee11c</t>
   </si>
   <si>
     <t>Visum für die Durchreise</t>
   </si>
   <si>
+    <t>Віза для транзиту</t>
+  </si>
+  <si>
     <t>fa62ed907c4ac14ee5792e7b5b5384b1</t>
   </si>
   <si>
     <t>Aufenthalt bis zu 90 Tagen</t>
   </si>
   <si>
+    <t>Перебування до 90 днів</t>
+  </si>
+  <si>
     <t>71d6486792fffa7eb223d5615ee299f9</t>
   </si>
   <si>
     <t>Nationales Visum</t>
   </si>
   <si>
+    <t>Національна віза</t>
+  </si>
+  <si>
     <t>6f37cecf65ef60aa8314112dacd09b9d</t>
   </si>
   <si>
     <t>Visum ausgestellt von</t>
   </si>
   <si>
+    <t>Віза видана</t>
+  </si>
+  <si>
     <t>d4908b1e39cc61772e5d74e5fb77d241</t>
   </si>
   <si>
@@ -705,49 +1117,73 @@
     <t>Ausstellungsdatum des Visums</t>
   </si>
   <si>
+    <t>Дата видачі візи</t>
+  </si>
+  <si>
     <t>93687a6fc16dcf23bfeb2f822fb61602</t>
   </si>
   <si>
     <t>Visum gültig von</t>
   </si>
   <si>
+    <t>Віза діє від</t>
+  </si>
+  <si>
     <t>15062acb2293074a7c54b97cbe122ce6</t>
   </si>
   <si>
     <t>Visum gültig bis</t>
   </si>
   <si>
+    <t>Віза діє до</t>
+  </si>
+  <si>
     <t>1bd30f5159b6257c234569e9cdca20a6</t>
   </si>
   <si>
     <t>Räumliche Beschränkung</t>
   </si>
   <si>
+    <t>Просторове обмеження</t>
+  </si>
+  <si>
     <t>63509b63725d75b1d10285cb656bb109</t>
   </si>
   <si>
     <t>ohne räumliche Beschränkung</t>
   </si>
   <si>
+    <t>без просторових обмежень</t>
+  </si>
+  <si>
     <t>78b610a44487316c18d72d68c15eaec6</t>
   </si>
   <si>
     <t>beschränkt auf</t>
   </si>
   <si>
+    <t>обмежується</t>
+  </si>
+  <si>
     <t>95dc2a055148b01e72397fd3ad4d95fc</t>
   </si>
   <si>
     <t>Räumliche Beschränkung auf</t>
   </si>
   <si>
-    <t>Question_9</t>
+    <t>Просторове обмеження на</t>
+  </si>
+  <si>
+    <t>Question_12</t>
   </si>
   <si>
     <t>6804f318fb04a55e415325ad26f50ae1</t>
   </si>
   <si>
     <t>Residence</t>
+  </si>
+  <si>
+    <t>місце проживання</t>
   </si>
   <si>
     <t>0d0e75d05fcbdc9b5a90c256f958d866</t>
@@ -757,18 +1193,27 @@
 </t>
   </si>
   <si>
+    <t>Будь ласка, дайте відповідь на наступні запитання щодо вашого перебування в Німеччині</t>
+  </si>
+  <si>
     <t>fb8364eea703fa59c4bc1313dacf9be5</t>
   </si>
   <si>
     <t>Bitte geben Sie hier ihre geplante oder aktuelle Adresse **in Deutschland** an.</t>
   </si>
   <si>
+    <t>Будь ласка, введіть планову або поточну адресу **в Німеччині**.</t>
+  </si>
+  <si>
     <t>d4786069e42c6c8aee25985ac7364864</t>
   </si>
   <si>
     <t>Aktuelle Adresse Deutschland</t>
   </si>
   <si>
+    <t>Поточна адреса Німеччина</t>
+  </si>
+  <si>
     <t>67ceed3af3a7ba6d928e5e60ed1b2f7a</t>
   </si>
   <si>
@@ -781,12 +1226,18 @@
     <t>Aktuelle PLZ Deutschland</t>
   </si>
   <si>
+    <t>Поточний поштовий індекс Німеччини</t>
+  </si>
+  <si>
     <t>a978a5c98638e47c358fd12d5856f298</t>
   </si>
   <si>
     <t>Aktueller Ort Deutschland</t>
   </si>
   <si>
+    <t>Поточне місце розташування Німеччина</t>
+  </si>
+  <si>
     <t>68f2201cb7d566aa17f922c49fa65c1e</t>
   </si>
   <si>
@@ -799,25 +1250,37 @@
     <t>Zweck des Aufenthalts</t>
   </si>
   <si>
+    <t>причина перебування</t>
+  </si>
+  <si>
     <t>a7fb7f38dd07f88081a131e4eee7e19b</t>
   </si>
   <si>
     <t>Flucht vor Krieg</t>
   </si>
   <si>
+    <t>втеча від війни</t>
+  </si>
+  <si>
     <t>276766a2569921b3837cb4717d4166b8</t>
   </si>
   <si>
     <t>Beabsichtigte Dauer des Aufenthalts</t>
   </si>
   <si>
+    <t>Планована тривалість перебування</t>
+  </si>
+  <si>
     <t>066e0a89bda7b7abde76ad4bb69651ed</t>
   </si>
   <si>
     <t>Ende des Kriegs</t>
   </si>
   <si>
-    <t>Question_10</t>
+    <t>закінчення війни</t>
+  </si>
+  <si>
+    <t>Question_13</t>
   </si>
   <si>
     <t>a5d727df2ce2d168bae39c78df4b9054</t>
@@ -833,6 +1296,9 @@
 </t>
   </si>
   <si>
+    <t>Майже готово, виконайте наведені нижче дії, перш ніж надсилати</t>
+  </si>
+  <si>
     <t>422b5491fc9cd54f8ae1f4f537417d08</t>
   </si>
   <si>
@@ -840,6 +1306,9 @@
 </t>
   </si>
   <si>
+    <t>Перегляньте відео нижче та дотримуйтесь інструкцій, щоб знайти **правильну адресу** для вашої заявки</t>
+  </si>
+  <si>
     <t>37bbec6e75751bd637cd89cd06477129</t>
   </si>
   <si>
@@ -852,16 +1321,22 @@
     <t>Die richtige Adresse aus dem Video oben als Adresse für den Antrag notiert</t>
   </si>
   <si>
+    <t>Запишіть правильну адресу з відео вище як адресу для програми</t>
+  </si>
+  <si>
     <t>b7365affa2df27626d2e2a8ca823bf6b</t>
   </si>
   <si>
     <t>Alle Ausweise / Pässe kopiert, um sie nach dem Herunterladen des Antrags hinzuzufügen</t>
   </si>
   <si>
+    <t>Усі ідентифікатори/паспорти скопійовані, щоб додати після завантаження програми</t>
+  </si>
+  <si>
     <t>docassemble.ukraine:data/questions/document.yml</t>
   </si>
   <si>
-    <t>Question_11</t>
+    <t>Question_14</t>
   </si>
   <si>
     <t>417213e638acf14e3535ee830f4b0827</t>
@@ -875,6 +1350,9 @@
   <si>
     <t xml:space="preserve">Ihr Antrag auf einen Aufenthaltstitel nach § 24 AufenthaltsG ist erstellt!
 </t>
+  </si>
+  <si>
+    <t>Вашу заяву на отримання дозволу на проживання відповідно до § 24 Закону про проживання створено!</t>
   </si>
   <si>
     <t>bbd3e4567fdac77b3e50a79586083022</t>
@@ -996,273 +1474,201 @@
     </r>
   </si>
   <si>
-    <t>Question_12</t>
-  </si>
-  <si>
-    <t>f78b3eafebc726131d5f3184986d902e</t>
-  </si>
-  <si>
-    <t>Antrag auf Erteilung eines Aufenthaltstitels nach § 24 AufenthaltsG</t>
-  </si>
-  <si>
-    <t>c8178f063ab6dca768e60c48ca445787</t>
-  </si>
-  <si>
-    <t>Antrag Aufenthaltstitels nach § 24 AufenthaltsG</t>
-  </si>
-  <si>
-    <t>Заява про дозвіл на проживання відповідно до розділу 24 Закону про проживання</t>
-  </si>
-  <si>
-    <t>Будь ласка, заповніть свою особисту інформацію</t>
-  </si>
-  <si>
-    <t>Ім'я</t>
-  </si>
-  <si>
-    <t>прізвище</t>
-  </si>
-  <si>
-    <t>Адреса в Україні</t>
-  </si>
-  <si>
-    <t>PLZ в Україні</t>
-  </si>
-  <si>
-    <t>місце в Україні</t>
-  </si>
-  <si>
-    <t>дата народження</t>
-  </si>
-  <si>
-    <t>місце народження</t>
-  </si>
-  <si>
-    <t>країна народження</t>
-  </si>
-  <si>
-    <t>Стать</t>
-  </si>
-  <si>
-    <t>Чоловічий</t>
-  </si>
-  <si>
-    <t>жіночий</t>
-  </si>
-  <si>
-    <t>колір очей</t>
-  </si>
-  <si>
-    <t>синій</t>
-  </si>
-  <si>
-    <t>зелений</t>
-  </si>
-  <si>
-    <t>Сірий</t>
-  </si>
-  <si>
-    <t>Коричневий</t>
-  </si>
-  <si>
-    <t>розмір</t>
-  </si>
-  <si>
-    <t>національність</t>
-  </si>
-  <si>
-    <t>Попереднє громадянство (застосовується лише якщо ви раніше мали інше громадянство)</t>
-  </si>
-  <si>
-    <t>сімейний стан</t>
-  </si>
-  <si>
-    <t>одиночний</t>
-  </si>
-  <si>
-    <t>одружений</t>
-  </si>
-  <si>
-    <t>проживають окремо</t>
-  </si>
-  <si>
-    <t>проживання в зареєстрованому партнерстві</t>
-  </si>
-  <si>
-    <t>розлучений</t>
-  </si>
-  <si>
-    <t>овдовіла</t>
-  </si>
-  <si>
-    <t>Дата шлюбу/реєстрації</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
-  <si>
-    <t>Адреса електронної пошти</t>
-  </si>
-  <si>
-    <t>власний паспорт/посвідчення особи</t>
-  </si>
-  <si>
-    <t>зареєстрований у батька</t>
-  </si>
-  <si>
-    <t>Тип документа, що посвідчує особу</t>
-  </si>
-  <si>
-    <t>паспорт</t>
-  </si>
-  <si>
-    <t>ідентифікаційна картка</t>
-  </si>
-  <si>
-    <t>Номер документа, що посвідчує особу</t>
-  </si>
-  <si>
-    <t>Видано на</t>
-  </si>
-  <si>
-    <t>термін придатності</t>
-  </si>
-  <si>
-    <t>Держава видачі</t>
-  </si>
-  <si>
-    <t>Будь ласка, заповніть дані вашого чоловіка/дружини/зареєстрованого цивільного партнера відповідно до LPartG</t>
-  </si>
-  <si>
-    <t>Скільки дітей приїхало з вами до Німеччини?</t>
-  </si>
-  <si>
-    <t>номер</t>
-  </si>
-  <si>
-    <t>Будь ласка, заповніть інформацію про свій ${ i + 1 }. Дитини</t>
-  </si>
-  <si>
-    <t>Будь ласка, дайте відповідь на наступні запитання щодо вашого прибуття</t>
-  </si>
-  <si>
-    <t>В'їзд до Німеччини</t>
-  </si>
-  <si>
-    <t>В'їзд з візою</t>
-  </si>
-  <si>
-    <t>вхід</t>
-  </si>
-  <si>
-    <t>з шенгенською візою</t>
-  </si>
-  <si>
-    <t>з національною німецькою візою</t>
-  </si>
-  <si>
-    <t>номер візи</t>
-  </si>
-  <si>
-    <t>категорія візи</t>
-  </si>
-  <si>
-    <t>Повітряна транзитна віза</t>
-  </si>
-  <si>
-    <t>Віза для транзиту</t>
-  </si>
-  <si>
-    <t>Перебування до 90 днів</t>
-  </si>
-  <si>
-    <t>Національна віза</t>
-  </si>
-  <si>
-    <t>Віза видана</t>
-  </si>
-  <si>
-    <t>Дата видачі візи</t>
-  </si>
-  <si>
-    <t>Віза діє від</t>
-  </si>
-  <si>
-    <t>Віза діє до</t>
-  </si>
-  <si>
-    <t>Просторове обмеження</t>
-  </si>
-  <si>
-    <t>без просторових обмежень</t>
-  </si>
-  <si>
-    <t>обмежується</t>
-  </si>
-  <si>
-    <t>Просторове обмеження на</t>
-  </si>
-  <si>
-    <t>місце проживання</t>
-  </si>
-  <si>
-    <t>Будь ласка, дайте відповідь на наступні запитання щодо вашого перебування в Німеччині</t>
-  </si>
-  <si>
-    <t>Будь ласка, введіть планову або поточну адресу **в Німеччині**.</t>
-  </si>
-  <si>
-    <t>Поточна адреса Німеччина</t>
-  </si>
-  <si>
-    <t>Поточний поштовий індекс Німеччини</t>
-  </si>
-  <si>
-    <t>Поточне місце розташування Німеччина</t>
-  </si>
-  <si>
-    <t>причина перебування</t>
-  </si>
-  <si>
-    <t>втеча від війни</t>
-  </si>
-  <si>
-    <t>Планована тривалість перебування</t>
-  </si>
-  <si>
-    <t>закінчення війни</t>
-  </si>
-  <si>
-    <t>Майже готово, виконайте наведені нижче дії, перш ніж надсилати</t>
-  </si>
-  <si>
-    <t>Перегляньте відео нижче та дотримуйтесь інструкцій, щоб знайти **правильну адресу** для вашої заявки</t>
-  </si>
-  <si>
-    <t>Запишіть правильну адресу з відео вище як адресу для програми</t>
-  </si>
-  <si>
-    <t>Усі ідентифікатори/паспорти скопійовані, щоб додати після завантаження програми</t>
-  </si>
-  <si>
-    <t>Вашу заяву на отримання дозволу на проживання відповідно до § 24 Закону про проживання створено!</t>
-  </si>
-  <si>
-    <t>${ static_image('undraw_done_a34v.svg', width='70%') }
-&lt;br&gt;
-&lt;br&gt;
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ static_image('undraw_done_a34v.svg', width='70%') }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 #### Ваш додаток створено 🎉
 1. Завантажте програму як **PDF**
 2. Роздрукуйте заявку
-3. &lt;span style=""""color:red""""&gt;**Підпишіть**&lt;/span&gt; запит у кінці документа
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;span style=""""color:red""""&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**Підпишіть**</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> запит у кінці документа
 4. До заявки додайте ксерокопії ідентифікаційних карток/паспортів
 5. Надішліть заявку на правильну адресу з попереднього кроку</t>
+    </r>
+  </si>
+  <si>
+    <t>Question_15</t>
+  </si>
+  <si>
+    <t>f78b3eafebc726131d5f3184986d902e</t>
+  </si>
+  <si>
+    <t>Antrag auf Erteilung eines Aufenthaltstitels nach § 24 AufenthaltsG</t>
   </si>
   <si>
     <t>Заява про дозвіл на проживання відповідно до § 24 Закону про проживання</t>
   </si>
   <si>
-    <t>Чи є у вас чоловік/дружина/зареєстрований партнер, який також хоче подати заяву на отримання дозволу на проживання?</t>
+    <t>c8178f063ab6dca768e60c48ca445787</t>
+  </si>
+  <si>
+    <t>Antrag Aufenthaltstitels nach § 24 AufenthaltsG</t>
+  </si>
+  <si>
+    <t>Примітка TripliQ</t>
+  </si>
+  <si>
+    <t>TripliQ не включає ***без юридичних консультацій чи юридичних послуг***, тобто не проводиться юридична експертиза конкретної окремої справи у розумінні Закону про юридичні послуги (RDG) TripliQ.
+- Ми не зберігаємо ваші дані постійно. Ми використовуємо лише ваші записи для створення вашої програми. Після цього ваші дані будуть видалені.
+- Пропозиція «TripliQ»» підтримує клієнта за допомогою програмно-підтримуваного інтерв'ю та процесу створення договору при самостійному створенні його юридичних документів.
+– Цей процес в основному розроблений таким чином, що заявка не вимагає спеціальних юридичних знань. Однак автоматизований процес інтерв’ю не може охопити кожен факт з його специфічними характеристиками.
+- Тому замовник зобов'язаний піддати створені юридичні документи перевірці правдоподібності щодо цільового використання. У разі необхідності проведення юридичної експертизи в конкретному окремому випадку рекомендуємо звернутися за консультацією до юриста або іншого органу, уповноваженого надавати юридичні послуги відповідно до РДГ.</t>
+  </si>
+  <si>
+    <t>Я подаю заяву на отримання дозволу на працевлаштування</t>
+  </si>
+  <si>
+    <t>Скільки членів сім’ї приїхали з вами до Німеччини?</t>
+  </si>
+  <si>
+    <t>Сюди враховуються лише люди із заявником, **жили в сім’ї** до польоту і **повністю або значною мірою залежали від нього/його**.</t>
+  </si>
+  <si>
+    <t>Будь ласка, заповніть інформацію про члена вашої родини ${ i + 1 }</t>
+  </si>
+  <si>
+    <t>родинні зв'язки</t>
+  </si>
+  <si>
+    <t>мати</t>
+  </si>
+  <si>
+    <t>батько</t>
+  </si>
+  <si>
+    <t>свекруха</t>
+  </si>
+  <si>
+    <t>тесть</t>
+  </si>
+  <si>
+    <t>брати</t>
+  </si>
+  <si>
+    <t>сестра</t>
+  </si>
+  <si>
+    <t>невістка</t>
+  </si>
+  <si>
+    <t>шурин</t>
+  </si>
+  <si>
+    <t>дядько</t>
+  </si>
+  <si>
+    <t>тітка</t>
+  </si>
+  <si>
+    <t>племінниця</t>
+  </si>
+  <si>
+    <t>племінник</t>
+  </si>
+  <si>
+    <t>двоюрідний брат</t>
   </si>
 </sst>
 </file>
@@ -1672,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1738,7 +2144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1761,10 +2167,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1787,44 +2193,44 @@
         <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
         <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -1842,15 +2248,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1865,21 +2271,21 @@
         <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -1888,10 +2294,10 @@
         <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1899,13 +2305,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -1914,50 +2320,50 @@
         <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -1966,24 +2372,24 @@
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -1992,10 +2398,10 @@
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>271</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2003,13 +2409,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -2018,10 +2424,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>272</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2029,13 +2435,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -2044,10 +2450,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2055,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -2070,24 +2476,24 @@
         <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -2096,10 +2502,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2107,13 +2513,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -2122,10 +2528,10 @@
         <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2133,13 +2539,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
@@ -2148,10 +2554,10 @@
         <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2159,13 +2565,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -2174,10 +2580,10 @@
         <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>275</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2185,13 +2591,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -2200,10 +2606,10 @@
         <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>276</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2211,13 +2617,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -2226,10 +2632,10 @@
         <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2237,13 +2643,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
@@ -2252,10 +2658,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>277</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2263,13 +2669,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
@@ -2277,11 +2683,11 @@
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>57</v>
+      <c r="G23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2289,13 +2695,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -2304,10 +2710,10 @@
         <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2315,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>11</v>
@@ -2330,10 +2736,10 @@
         <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>279</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2341,13 +2747,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
@@ -2356,10 +2762,10 @@
         <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2367,13 +2773,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>11</v>
@@ -2381,11 +2787,11 @@
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>280</v>
+      <c r="G27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2393,13 +2799,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
@@ -2408,10 +2814,10 @@
         <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>281</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2419,13 +2825,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>11</v>
@@ -2434,10 +2840,10 @@
         <v>12</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2445,13 +2851,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>11</v>
@@ -2460,10 +2866,10 @@
         <v>12</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>283</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2471,13 +2877,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>11</v>
@@ -2486,10 +2892,10 @@
         <v>12</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>284</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2497,13 +2903,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>11</v>
@@ -2512,10 +2918,10 @@
         <v>12</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2523,13 +2929,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
@@ -2538,10 +2944,10 @@
         <v>12</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2549,13 +2955,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>11</v>
@@ -2564,10 +2970,10 @@
         <v>12</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2575,13 +2981,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>11</v>
@@ -2590,10 +2996,10 @@
         <v>12</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>288</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2601,13 +3007,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>11</v>
@@ -2616,24 +3022,24 @@
         <v>12</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>11</v>
@@ -2642,10 +3048,10 @@
         <v>12</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>290</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2653,13 +3059,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
@@ -2668,10 +3074,10 @@
         <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>291</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2679,13 +3085,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>11</v>
@@ -2694,10 +3100,10 @@
         <v>12</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>292</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2705,13 +3111,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>11</v>
@@ -2720,24 +3126,24 @@
         <v>12</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>11</v>
@@ -2746,10 +3152,10 @@
         <v>12</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2757,13 +3163,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
@@ -2772,10 +3178,10 @@
         <v>12</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>295</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2783,13 +3189,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>11</v>
@@ -2798,10 +3204,10 @@
         <v>12</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>296</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2809,13 +3215,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>11</v>
@@ -2824,10 +3230,10 @@
         <v>12</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>297</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2835,13 +3241,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>11</v>
@@ -2850,10 +3256,10 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>298</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2861,13 +3267,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>11</v>
@@ -2876,10 +3282,10 @@
         <v>12</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2887,13 +3293,13 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>11</v>
@@ -2902,10 +3308,10 @@
         <v>12</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2913,13 +3319,13 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
@@ -2928,10 +3334,10 @@
         <v>12</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>300</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2939,13 +3345,13 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="2">
         <v>33</v>
       </c>
-      <c r="C49" s="2">
-        <v>37</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>11</v>
@@ -2954,10 +3360,10 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>109</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2965,13 +3371,13 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>11</v>
@@ -2980,10 +3386,10 @@
         <v>12</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2991,13 +3397,13 @@
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>11</v>
@@ -3006,10 +3412,10 @@
         <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3017,13 +3423,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
@@ -3032,24 +3438,24 @@
         <v>12</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
@@ -3058,10 +3464,10 @@
         <v>12</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3069,13 +3475,13 @@
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
@@ -3084,10 +3490,10 @@
         <v>12</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3095,13 +3501,13 @@
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C55" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
@@ -3110,10 +3516,10 @@
         <v>12</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>301</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3121,13 +3527,13 @@
         <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C56" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
@@ -3136,10 +3542,10 @@
         <v>12</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3147,13 +3553,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C57" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
@@ -3162,24 +3568,24 @@
         <v>12</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C58" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
@@ -3188,10 +3594,10 @@
         <v>12</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>304</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3199,13 +3605,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C59" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -3214,10 +3620,10 @@
         <v>12</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>305</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3225,13 +3631,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C60" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
@@ -3240,10 +3646,10 @@
         <v>12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>306</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3251,13 +3657,13 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C61" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
@@ -3266,10 +3672,10 @@
         <v>12</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3277,13 +3683,13 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C62" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
@@ -3292,10 +3698,10 @@
         <v>12</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>307</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3303,13 +3709,13 @@
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C63" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
@@ -3318,10 +3724,10 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>308</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3329,13 +3735,13 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C64" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>11</v>
@@ -3344,10 +3750,10 @@
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3355,13 +3761,13 @@
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C65" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
@@ -3370,24 +3776,24 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C66" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>11</v>
@@ -3396,24 +3802,24 @@
         <v>12</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C67" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
@@ -3422,10 +3828,10 @@
         <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>351</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3433,13 +3839,13 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C68" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
@@ -3448,10 +3854,10 @@
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3459,13 +3865,13 @@
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C69" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>11</v>
@@ -3474,10 +3880,10 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3485,13 +3891,13 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="C70" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
@@ -3499,25 +3905,25 @@
       <c r="F70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G70" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="C71" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>11</v>
@@ -3525,25 +3931,25 @@
       <c r="F71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G71" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="C72" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>11</v>
@@ -3551,11 +3957,11 @@
       <c r="F72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>157</v>
+      <c r="G72" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3563,13 +3969,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C73" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>11</v>
@@ -3578,24 +3984,24 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C74" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
@@ -3604,10 +4010,10 @@
         <v>12</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3615,13 +4021,13 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C75" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
@@ -3629,11 +4035,11 @@
       <c r="F75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>312</v>
+      <c r="G75" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3641,13 +4047,13 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C76" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
@@ -3655,25 +4061,25 @@
       <c r="F76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G76" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C77" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>11</v>
@@ -3681,11 +4087,11 @@
       <c r="F77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>313</v>
+      <c r="G77" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3693,65 +4099,65 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="2">
         <v>2</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
@@ -3760,10 +4166,10 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>314</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3771,13 +4177,13 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C81" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
@@ -3786,10 +4192,10 @@
         <v>12</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3797,13 +4203,13 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="C82" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
@@ -3812,24 +4218,24 @@
         <v>12</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="C83" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -3838,10 +4244,10 @@
         <v>12</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>317</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3849,13 +4255,13 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C84" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>11</v>
@@ -3864,24 +4270,24 @@
         <v>12</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C85" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>11</v>
@@ -3890,10 +4296,10 @@
         <v>12</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>319</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3901,13 +4307,13 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C86" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>11</v>
@@ -3916,10 +4322,10 @@
         <v>12</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>320</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3927,13 +4333,13 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C87" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
@@ -3942,10 +4348,10 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>190</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3953,13 +4359,13 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C88" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>11</v>
@@ -3968,10 +4374,10 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>321</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3979,13 +4385,13 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C89" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>11</v>
@@ -3994,10 +4400,10 @@
         <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>322</v>
+        <v>413</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4005,13 +4411,13 @@
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C90" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>11</v>
@@ -4020,10 +4426,10 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>323</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4031,13 +4437,13 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C91" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
@@ -4046,10 +4452,10 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>324</v>
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4057,13 +4463,13 @@
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C92" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>11</v>
@@ -4072,10 +4478,10 @@
         <v>12</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>325</v>
+        <v>416</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4083,13 +4489,13 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C93" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>11</v>
@@ -4098,10 +4504,10 @@
         <v>12</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>326</v>
+        <v>417</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4109,13 +4515,13 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C94" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>11</v>
@@ -4124,10 +4530,10 @@
         <v>12</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>204</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4135,13 +4541,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C95" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>11</v>
@@ -4150,10 +4556,10 @@
         <v>12</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>327</v>
+        <v>419</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4161,13 +4567,13 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C96" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>11</v>
@@ -4176,10 +4582,10 @@
         <v>12</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>328</v>
+        <v>420</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4187,13 +4593,13 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C97" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>11</v>
@@ -4202,10 +4608,10 @@
         <v>12</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4213,13 +4619,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C98" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>11</v>
@@ -4228,10 +4634,10 @@
         <v>12</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>330</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4239,13 +4645,13 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C99" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>11</v>
@@ -4254,10 +4660,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4265,13 +4671,13 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C100" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>11</v>
@@ -4280,10 +4686,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4291,13 +4697,13 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C101" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>11</v>
@@ -4306,10 +4712,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>333</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4317,13 +4723,13 @@
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>11</v>
@@ -4332,10 +4738,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4343,13 +4749,13 @@
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="C103" s="2">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
@@ -4358,10 +4764,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4369,13 +4775,13 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C104" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>11</v>
@@ -4384,24 +4790,24 @@
         <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C105" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>11</v>
@@ -4410,10 +4816,10 @@
         <v>12</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>337</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4421,13 +4827,13 @@
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C106" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>11</v>
@@ -4436,10 +4842,10 @@
         <v>12</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4447,13 +4853,13 @@
         <v>8</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C107" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>11</v>
@@ -4462,10 +4868,10 @@
         <v>12</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4473,13 +4879,13 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C108" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
@@ -4488,10 +4894,10 @@
         <v>12</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4499,13 +4905,13 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C109" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
@@ -4514,10 +4920,10 @@
         <v>12</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4525,13 +4931,13 @@
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C110" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
@@ -4540,10 +4946,10 @@
         <v>12</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4551,13 +4957,13 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C111" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>11</v>
@@ -4566,10 +4972,10 @@
         <v>12</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4577,13 +4983,13 @@
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C112" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>11</v>
@@ -4592,10 +4998,10 @@
         <v>12</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4603,13 +5009,13 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C113" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>11</v>
@@ -4618,10 +5024,10 @@
         <v>12</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4629,13 +5035,13 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="C114" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>11</v>
@@ -4644,24 +5050,24 @@
         <v>12</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="C115" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>11</v>
@@ -4670,24 +5076,24 @@
         <v>12</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="C116" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
@@ -4696,10 +5102,10 @@
         <v>12</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4707,13 +5113,13 @@
         <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="C117" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>11</v>
@@ -4721,11 +5127,11 @@
       <c r="F117" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>252</v>
+      <c r="G117" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4733,13 +5139,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="C118" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>11</v>
@@ -4748,10 +5154,10 @@
         <v>12</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4759,13 +5165,13 @@
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="C119" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>11</v>
@@ -4774,24 +5180,24 @@
         <v>12</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C120" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>11</v>
@@ -4800,24 +5206,24 @@
         <v>12</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C121" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>11</v>
@@ -4826,24 +5232,24 @@
         <v>12</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C122" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>11</v>
@@ -4852,24 +5258,24 @@
         <v>12</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C123" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>11</v>
@@ -4878,36 +5284,686 @@
         <v>12</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>257</v>
+        <v>8</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C124" s="2">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C125" s="2">
+        <v>21</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" s="2">
+        <v>22</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C128" s="2">
         <v>1</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>270</v>
+      <c r="D128" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C130" s="2">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C131" s="2">
+        <v>4</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C132" s="2">
+        <v>5</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C133" s="2">
+        <v>6</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C134" s="2">
+        <v>7</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C135" s="2">
+        <v>8</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C136" s="2">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C137" s="2">
+        <v>10</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C138" s="2">
+        <v>11</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C141" s="2">
+        <v>2</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C142" s="2">
+        <v>3</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C143" s="2">
+        <v>4</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C144" s="2">
+        <v>5</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C146" s="2">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C149" s="2">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docassemble/ukraine/data/sources/interview_uk.xlsx
+++ b/docassemble/ukraine/data/sources/interview_uk.xlsx
@@ -8,31 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9777205-C410-C345-BBE4-D198C8B74C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBD3F58-06BF-9A47-8560-5724504B9699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23360" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="456">
   <si>
     <t>interview</t>
   </si>
@@ -86,6 +74,9 @@
   </si>
   <si>
     <t>TripliQ Hinweis</t>
+  </si>
+  <si>
+    <t>Примітка TripliQ</t>
   </si>
   <si>
     <t>e1af86e448533b16289bda8345b27d35</t>
@@ -97,6 +88,13 @@
 - Dieser Prozess ist grundsätzlich so gestaltet, dass die Anwendung keine besonderen Rechtskenntnisse erfordert. Ein automatisierter Interviewprozess kann allerdings nicht jeden einzelnen Sachverhalt mit seinen spezifischen Besonderheiten erfassen.
 - Der Kunde ist daher gehalten, die erstellten Rechtsdokumente im Hinblick auf die von ihm angestrebte Verwendung insbesondere einer Plausibilitätsprüfung zu unterziehen. Sollte eine rechtliche Prüfung im konkreten Einzelfall erforderlich werden, empfehlen wir, den Rat eines Rechtsanwalts oder einer sonstigen zur Erbringung von Rechtsdienstleistungen nach dem RDG berechtigten Stelle zu suchen.
 </t>
+  </si>
+  <si>
+    <t>TripliQ не включає ***без юридичних консультацій чи юридичних послуг***, тобто не проводиться юридична експертиза конкретної окремої справи у розумінні Закону про юридичні послуги (RDG) TripliQ.
+- Ми не зберігаємо ваші дані постійно. Ми використовуємо лише ваші записи для створення вашої програми. Після цього ваші дані будуть видалені.
+- Пропозиція «TripliQ»» підтримує клієнта за допомогою програмно-підтримуваного інтерв'ю та процесу створення договору при самостійному створенні його юридичних документів.
+– Цей процес в основному розроблений таким чином, що заявка не вимагає спеціальних юридичних знань. Однак автоматизований процес інтерв’ю не може охопити кожен факт з його специфічними характеристиками.
+- Тому замовник зобов'язаний піддати створені юридичні документи перевірці правдоподібності щодо цільового використання. У разі необхідності проведення юридичної експертизи в конкретному окремому випадку рекомендуємо звернутися за консультацією до юриста або іншого органу, уповноваженого надавати юридичні послуги відповідно до РДГ.</t>
   </si>
   <si>
     <t>Question_2</t>
@@ -197,6 +195,24 @@
     <t>Question_4</t>
   </si>
   <si>
+    <t>16fcf804313a563fd834dbef8d2100c0</t>
+  </si>
+  <si>
+    <t>Question Asked</t>
+  </si>
+  <si>
+    <t>f827cf462f62848df37c5e1e94a4da74</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>e2b2fd87315d762a6cf43286f5dfa058</t>
+  </si>
+  <si>
+    <t>Person Details</t>
+  </si>
+  <si>
     <t>3af74b6d1d85f3bafe030d5097a92a81</t>
   </si>
   <si>
@@ -387,13 +403,10 @@
     <t>Коричневий</t>
   </si>
   <si>
-    <t>d248453369cf82a6a64617f1357089c5</t>
-  </si>
-  <si>
-    <t>Größe</t>
-  </si>
-  <si>
-    <t>розмір</t>
+    <t>4c81d7ef328893ff868ac306c296c031</t>
+  </si>
+  <si>
+    <t>Größe in cm</t>
   </si>
   <si>
     <t>4481872be58c4d95aec1336303b73159</t>
@@ -477,64 +490,87 @@
     <t>овдовіла</t>
   </si>
   <si>
+    <t>0975cf6baccb3862c31522c2b5b8fabc</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>19b3f25973b650a1cab65ce8a7f3dd12</t>
+  </si>
+  <si>
+    <t>+380 XXX XXX XXX</t>
+  </si>
+  <si>
+    <t>ce8ae9da5b7cd6c3df2929543a9af92d</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Адреса електронної пошти</t>
+  </si>
+  <si>
+    <t>fbf2b9cfc0a472389f3620e471bdf0e9</t>
+  </si>
+  <si>
+    <t>example@mail.com</t>
+  </si>
+  <si>
+    <t>Question_5</t>
+  </si>
+  <si>
+    <t>c541d294b4cad5a2d0c13e151180b02e</t>
+  </si>
+  <si>
+    <t>Person Additional Details</t>
+  </si>
+  <si>
+    <t>08e6f5b88febf1c82aa796924d766616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte vervollständigen Sie weitere Angaben zu ihrer Hochzeit
+</t>
+  </si>
+  <si>
+    <t>1f88aebf7007ada18bc4e0e5df36003c</t>
+  </si>
+  <si>
+    <t>Datum der Hochzeit/ Anmeldung</t>
+  </si>
+  <si>
+    <t>Дата шлюбу/реєстрації</t>
+  </si>
+  <si>
+    <t>Question_6</t>
+  </si>
+  <si>
+    <t>7917d59de3d010697c12fc87c125ff34</t>
+  </si>
+  <si>
+    <t>Request Employment</t>
+  </si>
+  <si>
+    <t>959e4e39ce1ae3bde1a78089e4e2e83c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antrag auf Erlaubnis einer Erwerbstätigkeit
+</t>
+  </si>
+  <si>
     <t>a3193d8c02c38f33b7d6d06cbc7af0b9</t>
   </si>
   <si>
     <t>Hiermit beantrage ich die Erlaubnis einer Erwerbstätigkeit</t>
   </si>
   <si>
-    <t>f827cf462f62848df37c5e1e94a4da74</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>1f88aebf7007ada18bc4e0e5df36003c</t>
-  </si>
-  <si>
-    <t>Datum der Hochzeit/ Anmeldung</t>
-  </si>
-  <si>
-    <t>Дата шлюбу/реєстрації</t>
-  </si>
-  <si>
-    <t>0975cf6baccb3862c31522c2b5b8fabc</t>
-  </si>
-  <si>
-    <t>Telefon</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
-  <si>
-    <t>19b3f25973b650a1cab65ce8a7f3dd12</t>
-  </si>
-  <si>
-    <t>+380 XXX XXX XXX</t>
-  </si>
-  <si>
-    <t>ce8ae9da5b7cd6c3df2929543a9af92d</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Адреса електронної пошти</t>
-  </si>
-  <si>
-    <t>fbf2b9cfc0a472389f3620e471bdf0e9</t>
-  </si>
-  <si>
-    <t>example@mail.com</t>
-  </si>
-  <si>
-    <t>Question_5</t>
-  </si>
-  <si>
-    <t>16fcf804313a563fd834dbef8d2100c0</t>
-  </si>
-  <si>
-    <t>Question Asked</t>
+    <t>Я подаю заяву на отримання дозволу на працевлаштування</t>
+  </si>
+  <si>
+    <t>Question_7</t>
   </si>
   <si>
     <t>ffcf25a9474afef66eeb62c018cee111</t>
@@ -574,6 +610,12 @@
     <t>зареєстрований у батька</t>
   </si>
   <si>
+    <t>c457ccd7a4a2feb532e295b6baef0d1b</t>
+  </si>
+  <si>
+    <t>eingetragen bei Mutter</t>
+  </si>
+  <si>
     <t>bfd7b7364883556645e40b1903f6aa9e</t>
   </si>
   <si>
@@ -643,7 +685,7 @@
     <t>Держава видачі</t>
   </si>
   <si>
-    <t>Question_6</t>
+    <t>Question_8</t>
   </si>
   <si>
     <t>405d3e56ebb280d2f311e4d129e3870c</t>
@@ -701,7 +743,13 @@
     <t>${ applicant.address.city }</t>
   </si>
   <si>
-    <t>Question_7</t>
+    <t>3e0dca67054b8412df2290b7630d2ebf</t>
+  </si>
+  <si>
+    <t>Hiermit beantragt die Person die Erlaubnis einer Erwerbstätigkeit</t>
+  </si>
+  <si>
+    <t>Question_9</t>
   </si>
   <si>
     <t>9fb644a605c48746c9426bb91f360add</t>
@@ -717,10 +765,13 @@
 </t>
   </si>
   <si>
-    <t>eaf88f9c5a548686fa745ff9dc445775</t>
-  </si>
-  <si>
-    <t>Hier zählen nur Personen mit der/dem Antragsteller:in vor der Flucht **innerhalb eines Familienverbands gelebt** und war **vollständig oder größtenteils von ihr/ihm abhängig**.</t>
+    <t>Скільки членів сім’ї приїхали з вами до Німеччини?</t>
+  </si>
+  <si>
+    <t>f0cdc1a10206e850afd3da991265350d</t>
+  </si>
+  <si>
+    <t>Nur Personen, die mit der/dem Antragsteller:in vor der Flucht **innerhalb eines Familienverbands gelebt haben** und **vollständig oder größtenteils von ihr/ihm abhängig waren**.</t>
   </si>
   <si>
     <t>71f221d8debed7f7baf1ee4e7b658199</t>
@@ -732,7 +783,7 @@
     <t>номер</t>
   </si>
   <si>
-    <t>Question_8</t>
+    <t>Question_10</t>
   </si>
   <si>
     <t>d5edb6a1da156d0b28a228bc77826015</t>
@@ -751,7 +802,7 @@
     <t>Скільки дітей приїхало з вами до Німеччини?</t>
   </si>
   <si>
-    <t>Question_9</t>
+    <t>Question_11</t>
   </si>
   <si>
     <t>75566c5ecb588b1bdf94e0a9ef16162d</t>
@@ -797,6 +848,29 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Будь ласка, заповніть інформацію про члена вашої родини </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ i + 1 }</t>
+    </r>
+  </si>
+  <si>
     <t>ecaa00bf3577e28c4baa2423436009c9</t>
   </si>
   <si>
@@ -809,91 +883,133 @@
     <t>Familiäre Verbindung</t>
   </si>
   <si>
+    <t>родинні зв'язки</t>
+  </si>
+  <si>
     <t>d9eece7f90d8d40b6c391a236a8e8f59</t>
   </si>
   <si>
     <t>Mutter</t>
   </si>
   <si>
+    <t>мати</t>
+  </si>
+  <si>
     <t>dcb504d58f8287434f6b3098d6b6f69f</t>
   </si>
   <si>
     <t>Vater</t>
   </si>
   <si>
+    <t>батько</t>
+  </si>
+  <si>
     <t>c4a7f176f39472da0f9e714f45f132ac</t>
   </si>
   <si>
     <t>Schwiegermutter</t>
   </si>
   <si>
+    <t>свекруха</t>
+  </si>
+  <si>
     <t>72753a7c1dd9f0ccf94b08327fede540</t>
   </si>
   <si>
     <t>Schwiegervater</t>
   </si>
   <si>
+    <t>тесть</t>
+  </si>
+  <si>
     <t>78f5978148a3dae25fb85200b6f267fe</t>
   </si>
   <si>
     <t>Bruder</t>
   </si>
   <si>
+    <t>брати</t>
+  </si>
+  <si>
     <t>36c0e58589bdce086dbed1f5f88b5971</t>
   </si>
   <si>
     <t>Schwester</t>
   </si>
   <si>
+    <t>сестра</t>
+  </si>
+  <si>
     <t>86a3f75a78dc5ff1e876fdc98159f73b</t>
   </si>
   <si>
     <t>Schwägerin</t>
   </si>
   <si>
+    <t>невістка</t>
+  </si>
+  <si>
     <t>19a62099932b91d0523cf5426ba3965c</t>
   </si>
   <si>
     <t>Schwager</t>
   </si>
   <si>
+    <t>шурин</t>
+  </si>
+  <si>
     <t>2aa0c2b9def0ecd0fbd6ce7391d8326b</t>
   </si>
   <si>
     <t>Onkel</t>
   </si>
   <si>
+    <t>дядько</t>
+  </si>
+  <si>
     <t>059fb00a4e5ef45c7fe0d60563c453c6</t>
   </si>
   <si>
     <t>Tante</t>
   </si>
   <si>
+    <t>тітка</t>
+  </si>
+  <si>
     <t>06147ed887ea0c1b1fa3ad006b849ed7</t>
   </si>
   <si>
     <t>Nichte</t>
   </si>
   <si>
+    <t>племінниця</t>
+  </si>
+  <si>
     <t>f7fd6c15743b17a38c783b8daa9f0edd</t>
   </si>
   <si>
     <t>Neffe</t>
   </si>
   <si>
+    <t>племінник</t>
+  </si>
+  <si>
     <t>ed712769ea77496e07203dbdc9cd7027</t>
   </si>
   <si>
     <t>Cousine</t>
   </si>
   <si>
+    <t>двоюрідний брат</t>
+  </si>
+  <si>
     <t>a30d92a26314107dfdac74aab0e3c9b5</t>
   </si>
   <si>
     <t>Cousin</t>
   </si>
   <si>
-    <t>Question_10</t>
+    <t>Question_12</t>
   </si>
   <si>
     <t>33f4d7162ae40e74ca7cbc5ee1b13117</t>
@@ -972,7 +1088,7 @@
     </r>
   </si>
   <si>
-    <t>Question_11</t>
+    <t>Question_13</t>
   </si>
   <si>
     <t>885b3c534ec909cf87987897bfba2235</t>
@@ -1156,15 +1272,6 @@
     <t>без просторових обмежень</t>
   </si>
   <si>
-    <t>78b610a44487316c18d72d68c15eaec6</t>
-  </si>
-  <si>
-    <t>beschränkt auf</t>
-  </si>
-  <si>
-    <t>обмежується</t>
-  </si>
-  <si>
     <t>95dc2a055148b01e72397fd3ad4d95fc</t>
   </si>
   <si>
@@ -1174,7 +1281,7 @@
     <t>Просторове обмеження на</t>
   </si>
   <si>
-    <t>Question_12</t>
+    <t>Question_14</t>
   </si>
   <si>
     <t>6804f318fb04a55e415325ad26f50ae1</t>
@@ -1280,7 +1387,7 @@
     <t>закінчення війни</t>
   </si>
   <si>
-    <t>Question_13</t>
+    <t>Question_15</t>
   </si>
   <si>
     <t>a5d727df2ce2d168bae39c78df4b9054</t>
@@ -1299,14 +1406,150 @@
     <t>Майже готово, виконайте наведені нижче дії, перш ніж надсилати</t>
   </si>
   <si>
-    <t>422b5491fc9cd54f8ae1f4f537417d08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bitte sehen Sie sich das folgende Video an und folgen Sie den Anweisungen, um die **richtige Adresse** für Ihren Antrag  zu finden
+    <t>5b6ec4f2292d13a918475c27c05650f3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bitte sehen Sie sich das folgende Video an und folgen Sie den Anweisungen, um die **richtige Adresse** für Ihren Antrag  zu finden.
 </t>
-  </si>
-  <si>
-    <t>Перегляньте відео нижче та дотримуйтесь інструкцій, щоб знайти **правильну адресу** для вашої заявки</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Link zum Behördenfinder]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://bamf-navi.bamf.de/de/Themen/Behoerden/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>37bbec6e75751bd637cd89cd06477129</t>
@@ -1336,7 +1579,7 @@
     <t>docassemble.ukraine:data/questions/document.yml</t>
   </si>
   <si>
-    <t>Question_14</t>
+    <t>Question_16</t>
   </si>
   <si>
     <t>417213e638acf14e3535ee830f4b0827</t>
@@ -1589,7 +1832,7 @@
     </r>
   </si>
   <si>
-    <t>Question_15</t>
+    <t>Question_17</t>
   </si>
   <si>
     <t>f78b3eafebc726131d5f3184986d902e</t>
@@ -1607,68 +1850,73 @@
     <t>Antrag Aufenthaltstitels nach § 24 AufenthaltsG</t>
   </si>
   <si>
-    <t>Примітка TripliQ</t>
-  </si>
-  <si>
-    <t>TripliQ не включає ***без юридичних консультацій чи юридичних послуг***, тобто не проводиться юридична експертиза конкретної окремої справи у розумінні Закону про юридичні послуги (RDG) TripliQ.
-- Ми не зберігаємо ваші дані постійно. Ми використовуємо лише ваші записи для створення вашої програми. Після цього ваші дані будуть видалені.
-- Пропозиція «TripliQ»» підтримує клієнта за допомогою програмно-підтримуваного інтерв'ю та процесу створення договору при самостійному створенні його юридичних документів.
-– Цей процес в основному розроблений таким чином, що заявка не вимагає спеціальних юридичних знань. Однак автоматизований процес інтерв’ю не може охопити кожен факт з його специфічними характеристиками.
-- Тому замовник зобов'язаний піддати створені юридичні документи перевірці правдоподібності щодо цільового використання. У разі необхідності проведення юридичної експертизи в конкретному окремому випадку рекомендуємо звернутися за консультацією до юриста або іншого органу, уповноваженого надавати юридичні послуги відповідно до РДГ.</t>
-  </si>
-  <si>
-    <t>Я подаю заяву на отримання дозволу на працевлаштування</t>
-  </si>
-  <si>
-    <t>Скільки членів сім’ї приїхали з вами до Німеччини?</t>
+    <t>78b610a44487316c18d72d68c15eaec6</t>
+  </si>
+  <si>
+    <t>beschränkt auf</t>
+  </si>
+  <si>
+    <t>обмежується</t>
+  </si>
+  <si>
+    <t>d248453369cf82a6a64617f1357089c5</t>
+  </si>
+  <si>
+    <t>Größe</t>
+  </si>
+  <si>
+    <t>розмір</t>
+  </si>
+  <si>
+    <t>eaf88f9c5a548686fa745ff9dc445775</t>
+  </si>
+  <si>
+    <t>Hier zählen nur Personen mit der/dem Antragsteller:in vor der Flucht **innerhalb eines Familienverbands gelebt** und war **vollständig oder größtenteils von ihr/ihm abhängig**.</t>
   </si>
   <si>
     <t>Сюди враховуються лише люди із заявником, **жили в сім’ї** до польоту і **повністю або значною мірою залежали від нього/його**.</t>
   </si>
   <si>
-    <t>Будь ласка, заповніть інформацію про члена вашої родини ${ i + 1 }</t>
-  </si>
-  <si>
-    <t>родинні зв'язки</t>
-  </si>
-  <si>
-    <t>мати</t>
-  </si>
-  <si>
-    <t>батько</t>
-  </si>
-  <si>
-    <t>свекруха</t>
-  </si>
-  <si>
-    <t>тесть</t>
-  </si>
-  <si>
-    <t>брати</t>
-  </si>
-  <si>
-    <t>сестра</t>
-  </si>
-  <si>
-    <t>невістка</t>
-  </si>
-  <si>
-    <t>шурин</t>
-  </si>
-  <si>
-    <t>дядько</t>
-  </si>
-  <si>
-    <t>тітка</t>
-  </si>
-  <si>
-    <t>племінниця</t>
-  </si>
-  <si>
-    <t>племінник</t>
-  </si>
-  <si>
-    <t>двоюрідний брат</t>
+    <t>422b5491fc9cd54f8ae1f4f537417d08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte sehen Sie sich das folgende Video an und folgen Sie den Anweisungen, um die **richtige Adresse** für Ihren Antrag  zu finden
+</t>
+  </si>
+  <si>
+    <t>Перегляньте відео нижче та дотримуйтесь інструкцій, щоб знайти **правильну адресу** для вашої заявки</t>
+  </si>
+  <si>
+    <t>Велика в см</t>
+  </si>
+  <si>
+    <t>Будь ласка, заповніть будь-яку іншу інформацію про своє весілля</t>
+  </si>
+  <si>
+    <t>Заява на отримання дозволу на роботу</t>
+  </si>
+  <si>
+    <t>Будь ласка, надайте дані свого паспорта чи посвідчення особи</t>
+  </si>
+  <si>
+    <t>паспорт / ідентифікаційна картка</t>
+  </si>
+  <si>
+    <t>зареєстрований у матері</t>
+  </si>
+  <si>
+    <t>Цим особа подає заяву на отримання дозволу на роботу</t>
+  </si>
+  <si>
+    <t>Лише люди, які **жили** із заявником до польоту і **повністю або переважно залежали від нього/його**.</t>
+  </si>
+  <si>
+    <t>Будь ласка, перегляньте відео нижче та дотримуйтесь інструкцій, щоб знайти **правильну адресу** для вашої заявки.
+&lt;br&gt;
+&lt;br&gt;
+[Посилання на авторитетний засіб пошуку](https://bamf-navi.bamf.de/de/Themen/Behoerden/)
+&lt;br&gt;
+&lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -2078,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="H172" sqref="H172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2193,7 +2441,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>405</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2207,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -2216,10 +2464,10 @@
         <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>406</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2227,13 +2475,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -2242,10 +2490,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2253,13 +2501,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -2268,10 +2516,10 @@
         <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2279,13 +2527,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -2294,10 +2542,10 @@
         <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2305,13 +2553,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -2320,10 +2568,10 @@
         <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2331,13 +2579,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -2346,10 +2594,10 @@
         <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,13 +2605,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -2372,10 +2620,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2383,13 +2631,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -2398,10 +2646,10 @@
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2409,13 +2657,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -2424,10 +2672,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2435,13 +2683,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -2450,10 +2698,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2461,13 +2709,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -2476,24 +2724,24 @@
         <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -2502,10 +2750,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2513,13 +2761,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -2528,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>49</v>
@@ -2539,7 +2787,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -2560,12 +2808,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -2591,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -2609,7 +2857,7 @@
         <v>56</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2617,13 +2865,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -2632,7 +2880,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>59</v>
@@ -2643,7 +2891,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
@@ -2661,7 +2909,7 @@
         <v>61</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2669,13 +2917,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
@@ -2684,7 +2932,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>64</v>
@@ -2695,7 +2943,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2">
         <v>8</v>
@@ -2721,7 +2969,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
         <v>9</v>
@@ -2747,7 +2995,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2">
         <v>10</v>
@@ -2773,7 +3021,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2">
         <v>11</v>
@@ -2787,11 +3035,11 @@
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>74</v>
+      <c r="H27" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2799,13 +3047,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
@@ -2814,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>77</v>
@@ -2825,7 +3073,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2">
         <v>13</v>
@@ -2851,7 +3099,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2">
         <v>14</v>
@@ -2865,10 +3113,10 @@
       <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2877,7 +3125,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2">
         <v>15</v>
@@ -2903,7 +3151,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -2929,7 +3177,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2">
         <v>17</v>
@@ -2947,7 +3195,7 @@
         <v>90</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2955,25 +3203,25 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2">
         <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2981,25 +3229,25 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2">
         <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3007,25 +3255,25 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2">
         <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3033,25 +3281,25 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2">
         <v>21</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3059,25 +3307,25 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3085,25 +3333,25 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3111,51 +3359,51 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2">
         <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3163,25 +3411,25 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2">
         <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="H42" s="4" t="s">
-        <v>118</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3189,51 +3437,51 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2">
         <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3241,25 +3489,25 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2">
         <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3267,25 +3515,25 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2">
         <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3293,25 +3541,25 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2">
         <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3319,25 +3567,25 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2">
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3345,25 +3593,25 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3371,22 +3619,22 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2">
         <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>140</v>
@@ -3397,7 +3645,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2">
         <v>35</v>
@@ -3423,7 +3671,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2">
         <v>36</v>
@@ -3449,7 +3697,7 @@
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C53" s="2">
         <v>37</v>
@@ -3475,7 +3723,7 @@
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2">
         <v>38</v>
@@ -3501,7 +3749,7 @@
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C55" s="2">
         <v>39</v>
@@ -3548,7 +3796,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
@@ -3571,10 +3819,10 @@
         <v>158</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
@@ -3597,7 +3845,7 @@
         <v>160</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3605,13 +3853,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C59" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -3620,24 +3868,24 @@
         <v>12</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C60" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
@@ -3646,10 +3894,10 @@
         <v>12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>165</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3657,13 +3905,13 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C61" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
@@ -3672,10 +3920,10 @@
         <v>12</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3683,13 +3931,13 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C62" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
@@ -3698,24 +3946,24 @@
         <v>12</v>
       </c>
       <c r="G62" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C63" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
@@ -3724,10 +3972,10 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>174</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3735,10 +3983,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C64" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>175</v>
@@ -3753,7 +4001,7 @@
         <v>176</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>177</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3761,25 +4009,25 @@
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C65" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3787,22 +4035,22 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C66" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>182</v>
@@ -3813,10 +4061,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C67" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>183</v>
@@ -3831,7 +4079,7 @@
         <v>184</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>185</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3839,25 +4087,25 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C68" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3865,25 +4113,25 @@
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C69" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="H69" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3891,77 +4139,77 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="2">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="2">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="H70" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="3" t="s">
+    </row>
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="2">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="H71" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H71" s="4" t="s">
+    </row>
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="2">
+        <v>10</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="2">
-        <v>2</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="H72" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3969,25 +4217,25 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C73" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3995,22 +4243,22 @@
         <v>8</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C74" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>204</v>
@@ -4021,10 +4269,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C75" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>205</v>
@@ -4035,11 +4283,11 @@
       <c r="F75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>206</v>
+      <c r="H75" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4047,13 +4295,13 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C76" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
@@ -4061,51 +4309,51 @@
       <c r="F76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C77" s="2">
-        <v>7</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="C78" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
@@ -4114,24 +4362,24 @@
         <v>12</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
@@ -4140,24 +4388,24 @@
         <v>12</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C80" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
@@ -4166,10 +4414,10 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>409</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4177,13 +4425,13 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C81" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
@@ -4191,11 +4439,11 @@
       <c r="F81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>220</v>
+      <c r="G81" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4203,13 +4451,13 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C82" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
@@ -4217,25 +4465,25 @@
       <c r="F82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G82" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C83" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -4243,10 +4491,10 @@
       <c r="F83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H83" s="4" t="s">
+      <c r="G83" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4255,36 +4503,36 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" s="2">
+        <v>8</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C84" s="2">
+      <c r="E84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" s="2">
         <v>0</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>230</v>
@@ -4299,18 +4547,18 @@
         <v>231</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>232</v>
@@ -4325,21 +4573,21 @@
         <v>233</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C87" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
@@ -4348,10 +4596,10 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4359,13 +4607,13 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C88" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>11</v>
@@ -4374,10 +4622,10 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>412</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4385,13 +4633,13 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C89" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>11</v>
@@ -4400,24 +4648,24 @@
         <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C90" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>11</v>
@@ -4426,10 +4674,10 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>414</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4437,13 +4685,13 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C91" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
@@ -4452,24 +4700,24 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C92" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>11</v>
@@ -4478,10 +4726,10 @@
         <v>12</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>416</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4489,13 +4737,13 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C93" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>11</v>
@@ -4504,10 +4752,10 @@
         <v>12</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>417</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4515,13 +4763,13 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C94" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>11</v>
@@ -4530,10 +4778,10 @@
         <v>12</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>418</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4541,13 +4789,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C95" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>11</v>
@@ -4556,10 +4804,10 @@
         <v>12</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>419</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4567,13 +4815,13 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C96" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>11</v>
@@ -4582,10 +4830,10 @@
         <v>12</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>420</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4593,13 +4841,13 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C97" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>11</v>
@@ -4608,10 +4856,10 @@
         <v>12</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>421</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4619,13 +4867,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C98" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>11</v>
@@ -4634,10 +4882,10 @@
         <v>12</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>422</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4645,13 +4893,13 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C99" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>11</v>
@@ -4660,10 +4908,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>423</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4671,13 +4919,13 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C100" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>11</v>
@@ -4686,10 +4934,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>424</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4697,13 +4945,13 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="C101" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>11</v>
@@ -4712,10 +4960,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>424</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4723,13 +4971,13 @@
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C102" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>11</v>
@@ -4738,24 +4986,24 @@
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C103" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
@@ -4764,10 +5012,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4775,13 +5023,13 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C104" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>11</v>
@@ -4790,24 +5038,24 @@
         <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C105" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>11</v>
@@ -4816,10 +5064,10 @@
         <v>12</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4827,13 +5075,13 @@
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C106" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>11</v>
@@ -4842,10 +5090,10 @@
         <v>12</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4853,13 +5101,13 @@
         <v>8</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C107" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>11</v>
@@ -4868,10 +5116,10 @@
         <v>12</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4879,13 +5127,13 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C108" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
@@ -4894,10 +5142,10 @@
         <v>12</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4905,13 +5153,13 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C109" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
@@ -4920,24 +5168,24 @@
         <v>12</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C110" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
@@ -4946,10 +5194,10 @@
         <v>12</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4957,13 +5205,13 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C111" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>11</v>
@@ -4972,24 +5220,24 @@
         <v>12</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C112" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>11</v>
@@ -4998,10 +5246,10 @@
         <v>12</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5009,13 +5257,13 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C113" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>11</v>
@@ -5024,10 +5272,10 @@
         <v>12</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5035,13 +5283,13 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C114" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>11</v>
@@ -5050,10 +5298,10 @@
         <v>12</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5061,13 +5309,13 @@
         <v>8</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C115" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>11</v>
@@ -5076,10 +5324,10 @@
         <v>12</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5087,13 +5335,13 @@
         <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C116" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
@@ -5102,10 +5350,10 @@
         <v>12</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5113,13 +5361,13 @@
         <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C117" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>11</v>
@@ -5128,10 +5376,10 @@
         <v>12</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5139,13 +5387,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C118" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>11</v>
@@ -5154,10 +5402,10 @@
         <v>12</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5165,13 +5413,13 @@
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C119" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>11</v>
@@ -5180,10 +5428,10 @@
         <v>12</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5191,13 +5439,13 @@
         <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C120" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>11</v>
@@ -5206,10 +5454,10 @@
         <v>12</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5217,13 +5465,13 @@
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C121" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>11</v>
@@ -5232,10 +5480,10 @@
         <v>12</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5243,13 +5491,13 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C122" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>11</v>
@@ -5258,10 +5506,10 @@
         <v>12</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5269,13 +5517,13 @@
         <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C123" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>11</v>
@@ -5284,10 +5532,10 @@
         <v>12</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5295,13 +5543,13 @@
         <v>8</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C124" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>11</v>
@@ -5310,10 +5558,10 @@
         <v>12</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5321,13 +5569,13 @@
         <v>8</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C125" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>11</v>
@@ -5336,10 +5584,10 @@
         <v>12</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5347,13 +5595,13 @@
         <v>8</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C126" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>11</v>
@@ -5362,10 +5610,10 @@
         <v>12</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5373,13 +5621,13 @@
         <v>8</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C127" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>11</v>
@@ -5388,24 +5636,24 @@
         <v>12</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C128" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>11</v>
@@ -5414,10 +5662,10 @@
         <v>12</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5425,13 +5673,13 @@
         <v>8</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C129" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>11</v>
@@ -5440,10 +5688,10 @@
         <v>12</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5451,13 +5699,13 @@
         <v>8</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C130" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>11</v>
@@ -5466,10 +5714,10 @@
         <v>12</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5477,13 +5725,13 @@
         <v>8</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C131" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>11</v>
@@ -5492,10 +5740,10 @@
         <v>12</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5503,13 +5751,13 @@
         <v>8</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C132" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>11</v>
@@ -5518,10 +5766,10 @@
         <v>12</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5529,13 +5777,13 @@
         <v>8</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="C133" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>11</v>
@@ -5544,24 +5792,24 @@
         <v>12</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="C134" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>11</v>
@@ -5570,10 +5818,10 @@
         <v>12</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5581,13 +5829,13 @@
         <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="C135" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>11</v>
@@ -5596,10 +5844,10 @@
         <v>12</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5607,13 +5855,13 @@
         <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="C136" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>11</v>
@@ -5622,10 +5870,10 @@
         <v>12</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5633,13 +5881,13 @@
         <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="C137" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>11</v>
@@ -5648,10 +5896,10 @@
         <v>12</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5659,13 +5907,13 @@
         <v>8</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="C138" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>11</v>
@@ -5674,10 +5922,10 @@
         <v>12</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5685,13 +5933,13 @@
         <v>8</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C139" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>11</v>
@@ -5700,24 +5948,24 @@
         <v>12</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C140" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>11</v>
@@ -5726,24 +5974,24 @@
         <v>12</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C141" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>11</v>
@@ -5752,10 +6000,10 @@
         <v>12</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5763,13 +6011,13 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C142" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>11</v>
@@ -5777,11 +6025,11 @@
       <c r="F142" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G142" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>382</v>
+      <c r="G142" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5789,13 +6037,13 @@
         <v>8</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C143" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>11</v>
@@ -5804,10 +6052,10 @@
         <v>12</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5815,13 +6063,13 @@
         <v>8</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C144" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>11</v>
@@ -5830,24 +6078,24 @@
         <v>12</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>389</v>
+        <v>8</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>11</v>
@@ -5856,24 +6104,24 @@
         <v>12</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>389</v>
+        <v>8</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C146" s="2">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>11</v>
@@ -5882,24 +6130,24 @@
         <v>12</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>389</v>
+        <v>8</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C147" s="2">
         <v>2</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>11</v>
@@ -5908,24 +6156,24 @@
         <v>12</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>389</v>
+        <v>8</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C148" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>11</v>
@@ -5933,37 +6181,297 @@
       <c r="F148" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>402</v>
+      <c r="G148" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>389</v>
+        <v>8</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C149" s="2">
+        <v>4</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C150" s="2">
+        <v>5</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C152" s="2">
         <v>1</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>25</v>
+      <c r="D152" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C153" s="2">
+        <v>2</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1021</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1023</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C159" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/docassemble/ukraine/data/sources/interview_uk.xlsx
+++ b/docassemble/ukraine/data/sources/interview_uk.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBD3F58-06BF-9A47-8560-5724504B9699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC4DD5A-6DEA-0842-8104-801F1374EF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23360" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="461">
   <si>
     <t>interview</t>
   </si>
@@ -88,13 +88,6 @@
 - Dieser Prozess ist grundsätzlich so gestaltet, dass die Anwendung keine besonderen Rechtskenntnisse erfordert. Ein automatisierter Interviewprozess kann allerdings nicht jeden einzelnen Sachverhalt mit seinen spezifischen Besonderheiten erfassen.
 - Der Kunde ist daher gehalten, die erstellten Rechtsdokumente im Hinblick auf die von ihm angestrebte Verwendung insbesondere einer Plausibilitätsprüfung zu unterziehen. Sollte eine rechtliche Prüfung im konkreten Einzelfall erforderlich werden, empfehlen wir, den Rat eines Rechtsanwalts oder einer sonstigen zur Erbringung von Rechtsdienstleistungen nach dem RDG berechtigten Stelle zu suchen.
 </t>
-  </si>
-  <si>
-    <t>TripliQ не включає ***без юридичних консультацій чи юридичних послуг***, тобто не проводиться юридична експертиза конкретної окремої справи у розумінні Закону про юридичні послуги (RDG) TripliQ.
-- Ми не зберігаємо ваші дані постійно. Ми використовуємо лише ваші записи для створення вашої програми. Після цього ваші дані будуть видалені.
-- Пропозиція «TripliQ»» підтримує клієнта за допомогою програмно-підтримуваного інтерв'ю та процесу створення договору при самостійному створенні його юридичних документів.
-– Цей процес в основному розроблений таким чином, що заявка не вимагає спеціальних юридичних знань. Однак автоматизований процес інтерв’ю не може охопити кожен факт з його специфічними характеристиками.
-- Тому замовник зобов'язаний піддати створені юридичні документи перевірці правдоподібності щодо цільового використання. У разі необхідності проведення юридичної експертизи в конкретному окремому випадку рекомендуємо звернутися за консультацією до юриста або іншого органу, уповноваженого надавати юридичні послуги відповідно до РДГ.</t>
   </si>
   <si>
     <t>Question_2</t>
@@ -244,9 +237,6 @@
     <t>Nachname</t>
   </si>
   <si>
-    <t>прізвище</t>
-  </si>
-  <si>
     <t>7e7c162a5a1f8372af6ca75caa391dc6</t>
   </si>
   <si>
@@ -274,18 +264,12 @@
     <t>PLZ in der Ukraine</t>
   </si>
   <si>
-    <t>PLZ в Україні</t>
-  </si>
-  <si>
     <t>73deb8568395488d598e2614b427cf78</t>
   </si>
   <si>
     <t>Ort in der Ukraine</t>
   </si>
   <si>
-    <t>місце в Україні</t>
-  </si>
-  <si>
     <t>1b2d21ab68e4219ce2ec8f073c2db464</t>
   </si>
   <si>
@@ -298,9 +282,6 @@
     <t>Geburtsdatum</t>
   </si>
   <si>
-    <t>дата народження</t>
-  </si>
-  <si>
     <t>53de3428c5ce9f797a09cdbea5ca2483</t>
   </si>
   <si>
@@ -313,18 +294,12 @@
     <t>Geburtsort</t>
   </si>
   <si>
-    <t>місце народження</t>
-  </si>
-  <si>
     <t>f91d4ca1d94fd19f8f5be1f15bd09c23</t>
   </si>
   <si>
     <t>Geburtsland</t>
   </si>
   <si>
-    <t>країна народження</t>
-  </si>
-  <si>
     <t>f01fc92b23faa973f3492a23d5a705c5</t>
   </si>
   <si>
@@ -346,27 +321,18 @@
     <t>Männlich</t>
   </si>
   <si>
-    <t>Чоловічий</t>
-  </si>
-  <si>
     <t>c1a9d224abe4774fd94d39c4d8f883c4</t>
   </si>
   <si>
     <t>Weiblich</t>
   </si>
   <si>
-    <t>жіночий</t>
-  </si>
-  <si>
     <t>eab75d9851bd767c05237261b153b203</t>
   </si>
   <si>
     <t>Augenfarbe</t>
   </si>
   <si>
-    <t>колір очей</t>
-  </si>
-  <si>
     <t>313409a244ee26600d1fd7c3e7d1419e</t>
   </si>
   <si>
@@ -391,18 +357,12 @@
     <t>Grau</t>
   </si>
   <si>
-    <t>Сірий</t>
-  </si>
-  <si>
     <t>0d178dd9904716651a1b0cd7c9882568</t>
   </si>
   <si>
     <t>Braun</t>
   </si>
   <si>
-    <t>Коричневий</t>
-  </si>
-  <si>
     <t>4c81d7ef328893ff868ac306c296c031</t>
   </si>
   <si>
@@ -415,54 +375,36 @@
     <t>Staatsangehörigkeit</t>
   </si>
   <si>
-    <t>національність</t>
-  </si>
-  <si>
     <t>a25a3807795ae5779200d608a222ba3b</t>
   </si>
   <si>
     <t>Vorherige Staatsangehörigkeit (nur zutreffend, wenn Sie zuvor eine andere Staatsangehörigkeit hatten)</t>
   </si>
   <si>
-    <t>Попереднє громадянство (застосовується лише якщо ви раніше мали інше громадянство)</t>
-  </si>
-  <si>
     <t>52b7438c976d9cc1ac0faee13cf87107</t>
   </si>
   <si>
     <t>Familienstand</t>
   </si>
   <si>
-    <t>сімейний стан</t>
-  </si>
-  <si>
     <t>3561d879014cd8d355dd6f48a7de82d7</t>
   </si>
   <si>
     <t>ledig</t>
   </si>
   <si>
-    <t>одиночний</t>
-  </si>
-  <si>
     <t>10089a27d8ecac99bb41097d6dbf6045</t>
   </si>
   <si>
     <t>verheiratet</t>
   </si>
   <si>
-    <t>одружений</t>
-  </si>
-  <si>
     <t>d1583da77bc6f4c7b014a12fa16dffd3</t>
   </si>
   <si>
     <t>getreent lebend</t>
   </si>
   <si>
-    <t>проживають окремо</t>
-  </si>
-  <si>
     <t>764dbf389582d4e6efad29a46d2e3e8b</t>
   </si>
   <si>
@@ -478,25 +420,16 @@
     <t>geschieden</t>
   </si>
   <si>
-    <t>розлучений</t>
-  </si>
-  <si>
     <t>927d93e85fb03b8bf5d0eabf1513866e</t>
   </si>
   <si>
     <t>verwitwet</t>
   </si>
   <si>
-    <t>овдовіла</t>
-  </si>
-  <si>
     <t>0975cf6baccb3862c31522c2b5b8fabc</t>
   </si>
   <si>
     <t>Telefon</t>
-  </si>
-  <si>
-    <t>Телефон</t>
   </si>
   <si>
     <t>19b3f25973b650a1cab65ce8a7f3dd12</t>
@@ -567,9 +500,6 @@
     <t>Hiermit beantrage ich die Erlaubnis einer Erwerbstätigkeit</t>
   </si>
   <si>
-    <t>Я подаю заяву на отримання дозволу на працевлаштування</t>
-  </si>
-  <si>
     <t>Question_7</t>
   </si>
   <si>
@@ -598,9 +528,6 @@
     <t>eigener Pass/Ausweis</t>
   </si>
   <si>
-    <t>власний паспорт/посвідчення особи</t>
-  </si>
-  <si>
     <t>21ec048f9c925cb0d8cf2dc690d47ba7</t>
   </si>
   <si>
@@ -631,18 +558,12 @@
     <t>Reisepass</t>
   </si>
   <si>
-    <t>паспорт</t>
-  </si>
-  <si>
     <t>39c6a9c3da84ae1e6456d11f2b9d7634</t>
   </si>
   <si>
     <t>Personalausweis</t>
   </si>
   <si>
-    <t>ідентифікаційна картка</t>
-  </si>
-  <si>
     <t>ef338fd9512742a44430b54b7d9cc890</t>
   </si>
   <si>
@@ -664,25 +585,16 @@
     <t>Ausgestellt am</t>
   </si>
   <si>
-    <t>Видано на</t>
-  </si>
-  <si>
     <t>abf7ac09dfe3da2923516dd75445cd7e</t>
   </si>
   <si>
     <t>Gültig bis</t>
   </si>
   <si>
-    <t>термін придатності</t>
-  </si>
-  <si>
     <t>63ec771779c8f14287f1e62ba50d67c1</t>
   </si>
   <si>
     <t>Ausstellender Staat</t>
-  </si>
-  <si>
-    <t>Держава видачі</t>
   </si>
   <si>
     <t>Question_8</t>
@@ -710,9 +622,6 @@
     <t>Haben Sie einen Ehegatten/eingetragenen Lebenspartner, der ebenfalls eine Aufenthaltserlaubnis beantragen möchte?</t>
   </si>
   <si>
-    <t>Чи є у вас чоловік/дружина/зареєстрований партнер, який також хоче подати заяву на отримання дозволу на проживання?</t>
-  </si>
-  <si>
     <t>f8320b26d30ab433c5a54546d21f414c</t>
   </si>
   <si>
@@ -765,9 +674,6 @@
 </t>
   </si>
   <si>
-    <t>Скільки членів сім’ї приїхали з вами до Німеччини?</t>
-  </si>
-  <si>
     <t>f0cdc1a10206e850afd3da991265350d</t>
   </si>
   <si>
@@ -778,9 +684,6 @@
   </si>
   <si>
     <t>Anzahl</t>
-  </si>
-  <si>
-    <t>номер</t>
   </si>
   <si>
     <t>Question_10</t>
@@ -797,9 +700,6 @@
   <si>
     <t xml:space="preserve">Wie viele Kinder sind mit Ihnen nach Deutschland gekommen?
 </t>
-  </si>
-  <si>
-    <t>Скільки дітей приїхало з вами до Німеччини?</t>
   </si>
   <si>
     <t>Question_11</t>
@@ -848,29 +748,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Будь ласка, заповніть інформацію про члена вашої родини </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ i + 1 }</t>
-    </r>
-  </si>
-  <si>
     <t>ecaa00bf3577e28c4baa2423436009c9</t>
   </si>
   <si>
@@ -883,9 +760,6 @@
     <t>Familiäre Verbindung</t>
   </si>
   <si>
-    <t>родинні зв'язки</t>
-  </si>
-  <si>
     <t>d9eece7f90d8d40b6c391a236a8e8f59</t>
   </si>
   <si>
@@ -928,9 +802,6 @@
     <t>Bruder</t>
   </si>
   <si>
-    <t>брати</t>
-  </si>
-  <si>
     <t>36c0e58589bdce086dbed1f5f88b5971</t>
   </si>
   <si>
@@ -953,9 +824,6 @@
   </si>
   <si>
     <t>Schwager</t>
-  </si>
-  <si>
-    <t>шурин</t>
   </si>
   <si>
     <t>2aa0c2b9def0ecd0fbd6ce7391d8326b</t>
@@ -1055,39 +923,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Будь ласка, заповніть інформацію про свій </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ i + 1 }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Дитини</t>
-    </r>
-  </si>
-  <si>
     <t>Question_13</t>
   </si>
   <si>
@@ -1113,9 +948,6 @@
     <t>Einreise nach Deutschland</t>
   </si>
   <si>
-    <t>В'їзд до Німеччини</t>
-  </si>
-  <si>
     <t>66eb0e5b03d8ca2b703036d4b44a8699</t>
   </si>
   <si>
@@ -1131,9 +963,6 @@
     <t>Einreise</t>
   </si>
   <si>
-    <t>вхід</t>
-  </si>
-  <si>
     <t>e6a3f9d48b28d4f378405b8f8d84d1a1</t>
   </si>
   <si>
@@ -1191,9 +1020,6 @@
     <t>Visum für die Durchreise</t>
   </si>
   <si>
-    <t>Віза для транзиту</t>
-  </si>
-  <si>
     <t>fa62ed907c4ac14ee5792e7b5b5384b1</t>
   </si>
   <si>
@@ -1260,27 +1086,18 @@
     <t>Räumliche Beschränkung</t>
   </si>
   <si>
-    <t>Просторове обмеження</t>
-  </si>
-  <si>
     <t>63509b63725d75b1d10285cb656bb109</t>
   </si>
   <si>
     <t>ohne räumliche Beschränkung</t>
   </si>
   <si>
-    <t>без просторових обмежень</t>
-  </si>
-  <si>
     <t>95dc2a055148b01e72397fd3ad4d95fc</t>
   </si>
   <si>
     <t>Räumliche Beschränkung auf</t>
   </si>
   <si>
-    <t>Просторове обмеження на</t>
-  </si>
-  <si>
     <t>Question_14</t>
   </si>
   <si>
@@ -1288,9 +1105,6 @@
   </si>
   <si>
     <t>Residence</t>
-  </si>
-  <si>
-    <t>місце проживання</t>
   </si>
   <si>
     <t>0d0e75d05fcbdc9b5a90c256f958d866</t>
@@ -1318,9 +1132,6 @@
     <t>Aktuelle Adresse Deutschland</t>
   </si>
   <si>
-    <t>Поточна адреса Німеччина</t>
-  </si>
-  <si>
     <t>67ceed3af3a7ba6d928e5e60ed1b2f7a</t>
   </si>
   <si>
@@ -1342,9 +1153,6 @@
     <t>Aktueller Ort Deutschland</t>
   </si>
   <si>
-    <t>Поточне місце розташування Німеччина</t>
-  </si>
-  <si>
     <t>68f2201cb7d566aa17f922c49fa65c1e</t>
   </si>
   <si>
@@ -1357,25 +1165,16 @@
     <t>Zweck des Aufenthalts</t>
   </si>
   <si>
-    <t>причина перебування</t>
-  </si>
-  <si>
     <t>a7fb7f38dd07f88081a131e4eee7e19b</t>
   </si>
   <si>
     <t>Flucht vor Krieg</t>
   </si>
   <si>
-    <t>втеча від війни</t>
-  </si>
-  <si>
     <t>276766a2569921b3837cb4717d4166b8</t>
   </si>
   <si>
     <t>Beabsichtigte Dauer des Aufenthalts</t>
-  </si>
-  <si>
-    <t>Планована тривалість перебування</t>
   </si>
   <si>
     <t>066e0a89bda7b7abde76ad4bb69651ed</t>
@@ -1401,9 +1200,6 @@
   <si>
     <t xml:space="preserve">Fast fertig, vervollständigen Sie die folgenden Schritte vor dem Absenden
 </t>
-  </si>
-  <si>
-    <t>Майже готово, виконайте наведені нижче дії, перш ніж надсилати</t>
   </si>
   <si>
     <t>5b6ec4f2292d13a918475c27c05650f3</t>
@@ -1564,16 +1360,10 @@
     <t>Die richtige Adresse aus dem Video oben als Adresse für den Antrag notiert</t>
   </si>
   <si>
-    <t>Запишіть правильну адресу з відео вище як адресу для програми</t>
-  </si>
-  <si>
     <t>b7365affa2df27626d2e2a8ca823bf6b</t>
   </si>
   <si>
     <t>Alle Ausweise / Pässe kopiert, um sie nach dem Herunterladen des Antrags hinzuzufügen</t>
-  </si>
-  <si>
-    <t>Усі ідентифікатори/паспорти скопійовані, щоб додати після завантаження програми</t>
   </si>
   <si>
     <t>docassemble.ukraine:data/questions/document.yml</t>
@@ -1717,6 +1507,295 @@
     </r>
   </si>
   <si>
+    <t>Question_17</t>
+  </si>
+  <si>
+    <t>f78b3eafebc726131d5f3184986d902e</t>
+  </si>
+  <si>
+    <t>Antrag auf Erteilung eines Aufenthaltstitels nach § 24 AufenthaltsG</t>
+  </si>
+  <si>
+    <t>Заява про дозвіл на проживання відповідно до § 24 Закону про проживання</t>
+  </si>
+  <si>
+    <t>c8178f063ab6dca768e60c48ca445787</t>
+  </si>
+  <si>
+    <t>Antrag Aufenthaltstitels nach § 24 AufenthaltsG</t>
+  </si>
+  <si>
+    <t>78b610a44487316c18d72d68c15eaec6</t>
+  </si>
+  <si>
+    <t>beschränkt auf</t>
+  </si>
+  <si>
+    <t>d248453369cf82a6a64617f1357089c5</t>
+  </si>
+  <si>
+    <t>Größe</t>
+  </si>
+  <si>
+    <t>розмір</t>
+  </si>
+  <si>
+    <t>eaf88f9c5a548686fa745ff9dc445775</t>
+  </si>
+  <si>
+    <t>Hier zählen nur Personen mit der/dem Antragsteller:in vor der Flucht **innerhalb eines Familienverbands gelebt** und war **vollständig oder größtenteils von ihr/ihm abhängig**.</t>
+  </si>
+  <si>
+    <t>422b5491fc9cd54f8ae1f4f537417d08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte sehen Sie sich das folgende Video an und folgen Sie den Anweisungen, um die **richtige Adresse** für Ihren Antrag  zu finden
+</t>
+  </si>
+  <si>
+    <t>зареєстрований у матері</t>
+  </si>
+  <si>
+    <t>TripliQ не включає ***юридичні консультації чи юридичниі послуги***, тобто не проводиться юридична експертиза конкретної окремої справи в рамках Закону про юридичні послуги (RDG) від TripliQ.
+- Ваші дані не зберігаються у нас довгостроково. Дані, які Ви вносите, використовуються лише для написання Вашої заяви. Після цього ваші дані будуть видалені.
+- Пропозиція «TripliQ»» підтримує клієнта за допомогою програмно-підтримуваного інтерв'ю та процесу створення договору при самостійному створенні його юридичних документів.
+– Цей процес в основному розроблений таким чином, що заявка не вимагає спеціальних юридичних знань. Однак автоматизований процес інтерв’ю не може охопити кожен факт з його специфічними характеристиками.
+- Тому замовник зобов'язаний піддати створені юридичні документи перевірці правдоподібності щодо цільового використання. У разі необхідності проведення юридичної експертизи в конкретному окремому випадку рекомендуємо звернутися за консультацією до юриста або іншого органу, уповноваженого надавати юридичні послуги відповідно до РДГ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please choose your language.
+(Будь ласка, виберіть Вашу мову).
+Bitte wählen Sie eine Sprache aus.
+</t>
+  </si>
+  <si>
+    <t>Ukranian/українська/Ukrainisch</t>
+  </si>
+  <si>
+    <t>German/німецька/Deutsch</t>
+  </si>
+  <si>
+    <t>Прізвище</t>
+  </si>
+  <si>
+    <t>Поштовий індекс в Україні</t>
+  </si>
+  <si>
+    <t>Дата народження</t>
+  </si>
+  <si>
+    <t>Місто/село/смт в Україні</t>
+  </si>
+  <si>
+    <t>Вулиця та номер будинку проживання в Україні</t>
+  </si>
+  <si>
+    <t>Місце народження</t>
+  </si>
+  <si>
+    <t>Країна, в якій Ви народились</t>
+  </si>
+  <si>
+    <t>Чоловіча</t>
+  </si>
+  <si>
+    <t>жіноча</t>
+  </si>
+  <si>
+    <t>Колір очей</t>
+  </si>
+  <si>
+    <t>сірий</t>
+  </si>
+  <si>
+    <t>коричневий</t>
+  </si>
+  <si>
+    <t>Ріст в см</t>
+  </si>
+  <si>
+    <t>Національність</t>
+  </si>
+  <si>
+    <t>Попереднє громадянство вказати лише у випадку, якщо раніше у Вас було інше громадянство)</t>
+  </si>
+  <si>
+    <t>Сімейний стан</t>
+  </si>
+  <si>
+    <t>перебуваю у шлюбі, але живемо окремо</t>
+  </si>
+  <si>
+    <t>розлучена/-ий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер телефону </t>
+  </si>
+  <si>
+    <t>Будь ласка, заповніть будь-яку додаткову інформацію щодо Вашого шлюбу</t>
+  </si>
+  <si>
+    <t>вдова/вдівець</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заміжня/одружений </t>
+  </si>
+  <si>
+    <t>незаміжня/неодружений</t>
+  </si>
+  <si>
+    <t>Заява про отримання дозволу на роботу</t>
+  </si>
+  <si>
+    <t>Прошу надати дозвіл на працевлаштування</t>
+  </si>
+  <si>
+    <t>Паспорт / посвідчення особи</t>
+  </si>
+  <si>
+    <t>Будь ласка, заповніть паспортні дані чи інші дані, що посвідчують Вашу особу</t>
+  </si>
+  <si>
+    <t>особистий паспорт/посвідчення особи</t>
+  </si>
+  <si>
+    <t>Закордонний паспорт</t>
+  </si>
+  <si>
+    <t>Посвідчення особи  / український (внутрішній) пасопрт</t>
+  </si>
+  <si>
+    <t>Видано в</t>
+  </si>
+  <si>
+    <t>Дійсний до</t>
+  </si>
+  <si>
+    <t>Країна, в якій було видано документ</t>
+  </si>
+  <si>
+    <t>Чи є у вас чоловік/дружина/зареєстрований партнер, який/яка також хоче подати заяву на отримання дозволу на проживання?</t>
+  </si>
+  <si>
+    <t>Прошу надати дозвіл на працевлаштування для цієї особи</t>
+  </si>
+  <si>
+    <t>Скільки членів сім’ї приїхали з Вами до Німеччини?</t>
+  </si>
+  <si>
+    <t>Лише люди, які **жили** із заявником до біженкства **повністю або переважно залежали від неї/нього**.</t>
+  </si>
+  <si>
+    <t>Кількість</t>
+  </si>
+  <si>
+    <t>Скільки дітей приїхало з Вами до Німеччини?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Будь ласка, заповніть інформацію про члена Вашої родини </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ i + 1 }</t>
+    </r>
+  </si>
+  <si>
+    <t>Родинний зв'язок</t>
+  </si>
+  <si>
+    <t>брат</t>
+  </si>
+  <si>
+    <t>швагер/свояк</t>
+  </si>
+  <si>
+    <t>двоюрідна сестра</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Будь ласка, заповніть інформацію про Вашу </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ i + 1 }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Дитину</t>
+    </r>
+  </si>
+  <si>
+    <t>В'їзд в Німеччину</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В'їзд </t>
+  </si>
+  <si>
+    <t>Транзитна віза</t>
+  </si>
+  <si>
+    <t>Територіальне обмеження</t>
+  </si>
+  <si>
+    <t>без територіального обмежень</t>
+  </si>
+  <si>
+    <t>Територіальне обмеження на</t>
+  </si>
+  <si>
+    <t>Місце проживання</t>
+  </si>
+  <si>
+    <t>Поточна адреса в Німеччині Німеччина</t>
+  </si>
+  <si>
+    <t>Поточне місце перебування в Німеччині</t>
+  </si>
+  <si>
+    <t>Мета Вашого перебування</t>
+  </si>
+  <si>
+    <t>Плановий термін перебування</t>
+  </si>
+  <si>
+    <t>Майже готово, виконайте наведені нижче дії, перш ніж надіслати заяву</t>
+  </si>
+  <si>
+    <t>Будь ласка, перегляньте відео нижче та дотримуйтесь інструкцій, щоб знайти **правильну адресу** для вашої заявки.
+&lt;br&gt;
+&lt;br&gt;
+[Посилання на пошуковий сайт установ](https://bamf-navi.bamf.de/de/Themen/Behoerden/)
+&lt;br&gt;
+&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Записано правильну адресу з відео вище як адресу для заяви</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зроблено копії усіх посвідчень/паспортів для прикріплення до заяви після її завантаження </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1781,9 +1860,9 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-#### Ваш додаток створено 🎉
-1. Завантажте програму як **PDF**
-2. Роздрукуйте заявку
+#### Вашу заяву створено 🎉
+1. Завантажте заяву як **PDF**
+2. Роздрукуйте заяву
 3. </t>
     </r>
     <r>
@@ -1826,97 +1905,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> запит у кінці документа
-4. До заявки додайте ксерокопії ідентифікаційних карток/паспортів
+      <t xml:space="preserve"> зауву в кінці документа
+4. До заяви додайте ксерокопії посвідчень/паспортів
 5. Надішліть заявку на правильну адресу з попереднього кроку</t>
     </r>
   </si>
   <si>
-    <t>Question_17</t>
-  </si>
-  <si>
-    <t>f78b3eafebc726131d5f3184986d902e</t>
-  </si>
-  <si>
-    <t>Antrag auf Erteilung eines Aufenthaltstitels nach § 24 AufenthaltsG</t>
-  </si>
-  <si>
-    <t>Заява про дозвіл на проживання відповідно до § 24 Закону про проживання</t>
-  </si>
-  <si>
-    <t>c8178f063ab6dca768e60c48ca445787</t>
-  </si>
-  <si>
-    <t>Antrag Aufenthaltstitels nach § 24 AufenthaltsG</t>
-  </si>
-  <si>
-    <t>78b610a44487316c18d72d68c15eaec6</t>
-  </si>
-  <si>
-    <t>beschränkt auf</t>
-  </si>
-  <si>
-    <t>обмежується</t>
-  </si>
-  <si>
-    <t>d248453369cf82a6a64617f1357089c5</t>
-  </si>
-  <si>
-    <t>Größe</t>
-  </si>
-  <si>
-    <t>розмір</t>
-  </si>
-  <si>
-    <t>eaf88f9c5a548686fa745ff9dc445775</t>
-  </si>
-  <si>
-    <t>Hier zählen nur Personen mit der/dem Antragsteller:in vor der Flucht **innerhalb eines Familienverbands gelebt** und war **vollständig oder größtenteils von ihr/ihm abhängig**.</t>
-  </si>
-  <si>
-    <t>Сюди враховуються лише люди із заявником, **жили в сім’ї** до польоту і **повністю або значною мірою залежали від нього/його**.</t>
-  </si>
-  <si>
-    <t>422b5491fc9cd54f8ae1f4f537417d08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bitte sehen Sie sich das folgende Video an und folgen Sie den Anweisungen, um die **richtige Adresse** für Ihren Antrag  zu finden
-</t>
-  </si>
-  <si>
-    <t>Перегляньте відео нижче та дотримуйтесь інструкцій, щоб знайти **правильну адресу** для вашої заявки</t>
-  </si>
-  <si>
-    <t>Велика в см</t>
-  </si>
-  <si>
-    <t>Будь ласка, заповніть будь-яку іншу інформацію про своє весілля</t>
-  </si>
-  <si>
-    <t>Заява на отримання дозволу на роботу</t>
-  </si>
-  <si>
-    <t>Будь ласка, надайте дані свого паспорта чи посвідчення особи</t>
-  </si>
-  <si>
-    <t>паспорт / ідентифікаційна картка</t>
-  </si>
-  <si>
-    <t>зареєстрований у матері</t>
-  </si>
-  <si>
-    <t>Цим особа подає заяву на отримання дозволу на роботу</t>
-  </si>
-  <si>
-    <t>Лише люди, які **жили** із заявником до польоту і **повністю або переважно залежали від нього/його**.</t>
-  </si>
-  <si>
-    <t>Будь ласка, перегляньте відео нижче та дотримуйтесь інструкцій, щоб знайти **правильну адресу** для вашої заявки.
-&lt;br&gt;
-&lt;br&gt;
-[Посилання на авторитетний засіб пошуку](https://bamf-navi.bamf.de/de/Themen/Behoerden/)
-&lt;br&gt;
-&lt;br&gt;</t>
+    <t>обмеження</t>
+  </si>
+  <si>
+    <t>Сюди враховуються лише люди, які **жили в сім’ї**  із заявником до біженкства і **повністю або значною мірою залежали від неї/ньоого**.</t>
+  </si>
+  <si>
+    <t>Перегляньте відео нижче та дотримуйтесь інструкцій, щоб знайти **правильну адресу** для вашої заяви</t>
+  </si>
+  <si>
+    <t>військове біженство</t>
   </si>
 </sst>
 </file>
@@ -2328,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="H172" sqref="H172"/>
+    <sheetView tabSelected="1" topLeftCell="E94" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2467,7 +2471,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2475,25 +2479,25 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2501,25 +2505,25 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2527,25 +2531,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2553,25 +2557,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2579,25 +2583,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2605,25 +2609,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>36</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2631,25 +2635,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2657,25 +2661,25 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>40</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2683,25 +2687,25 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>42</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2709,25 +2713,25 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2735,25 +2739,25 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2761,25 +2765,25 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2787,25 +2791,25 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2813,25 +2817,25 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2839,25 +2843,25 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2865,25 +2869,25 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="H21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2891,25 +2895,25 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2917,13 +2921,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
@@ -2932,10 +2936,10 @@
         <v>12</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2943,13 +2947,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -2958,10 +2962,10 @@
         <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>67</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2969,13 +2973,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>11</v>
@@ -2984,10 +2988,10 @@
         <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2995,13 +2999,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2">
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
@@ -3010,10 +3014,10 @@
         <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>72</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3021,13 +3025,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2">
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>11</v>
@@ -3036,10 +3040,10 @@
         <v>12</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>75</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3047,13 +3051,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
@@ -3062,10 +3066,10 @@
         <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3073,13 +3077,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>11</v>
@@ -3088,10 +3092,10 @@
         <v>12</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>80</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3099,13 +3103,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2">
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>11</v>
@@ -3114,10 +3118,10 @@
         <v>12</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3125,13 +3129,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>11</v>
@@ -3140,10 +3144,10 @@
         <v>12</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>85</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3151,13 +3155,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>11</v>
@@ -3166,10 +3170,10 @@
         <v>12</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>88</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3177,13 +3181,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
@@ -3192,10 +3196,10 @@
         <v>12</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3203,13 +3207,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2">
         <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>11</v>
@@ -3218,10 +3222,10 @@
         <v>12</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3229,13 +3233,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2">
         <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>11</v>
@@ -3244,10 +3248,10 @@
         <v>12</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>96</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3255,13 +3259,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2">
         <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>11</v>
@@ -3270,10 +3274,10 @@
         <v>12</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>99</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3281,13 +3285,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2">
         <v>21</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>11</v>
@@ -3296,10 +3300,10 @@
         <v>12</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>102</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3307,13 +3311,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2">
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
@@ -3322,10 +3326,10 @@
         <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3333,13 +3337,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>11</v>
@@ -3348,10 +3352,10 @@
         <v>12</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3359,13 +3363,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2">
         <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>11</v>
@@ -3374,10 +3378,10 @@
         <v>12</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>111</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3385,13 +3389,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>11</v>
@@ -3400,10 +3404,10 @@
         <v>12</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>114</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3411,13 +3415,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2">
         <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
@@ -3426,10 +3430,10 @@
         <v>12</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3437,13 +3441,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>11</v>
@@ -3452,10 +3456,10 @@
         <v>12</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>119</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -3463,13 +3467,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2">
         <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>11</v>
@@ -3478,10 +3482,10 @@
         <v>12</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>122</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3489,13 +3493,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2">
         <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>11</v>
@@ -3504,10 +3508,10 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>125</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3515,13 +3519,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2">
         <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>11</v>
@@ -3530,10 +3534,10 @@
         <v>12</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>128</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3541,13 +3545,13 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2">
         <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>11</v>
@@ -3556,10 +3560,10 @@
         <v>12</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>131</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3567,13 +3571,13 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2">
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
@@ -3582,10 +3586,10 @@
         <v>12</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>134</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3593,13 +3597,13 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>11</v>
@@ -3608,10 +3612,10 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3619,13 +3623,13 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2">
         <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>11</v>
@@ -3634,10 +3638,10 @@
         <v>12</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>140</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3645,13 +3649,13 @@
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="2">
         <v>35</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>11</v>
@@ -3660,10 +3664,10 @@
         <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>143</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3671,13 +3675,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="2">
         <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
@@ -3686,10 +3690,10 @@
         <v>12</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>146</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3697,13 +3701,13 @@
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2">
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
@@ -3712,10 +3716,10 @@
         <v>12</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3723,13 +3727,13 @@
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" s="2">
         <v>38</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
@@ -3738,10 +3742,10 @@
         <v>12</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3749,13 +3753,13 @@
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="2">
         <v>39</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
@@ -3764,10 +3768,10 @@
         <v>12</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3775,13 +3779,13 @@
         <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
@@ -3790,10 +3794,10 @@
         <v>12</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3801,13 +3805,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
@@ -3816,10 +3820,10 @@
         <v>12</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3827,13 +3831,13 @@
         <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
@@ -3842,10 +3846,10 @@
         <v>12</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3853,13 +3857,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -3868,10 +3872,10 @@
         <v>12</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3879,13 +3883,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
@@ -3894,10 +3898,10 @@
         <v>12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3905,13 +3909,13 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C61" s="2">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
@@ -3920,10 +3924,10 @@
         <v>12</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>169</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3931,13 +3935,13 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
@@ -3946,10 +3950,10 @@
         <v>12</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3957,13 +3961,13 @@
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
@@ -3972,10 +3976,10 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3983,13 +3987,13 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C64" s="2">
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>11</v>
@@ -3998,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4009,13 +4013,13 @@
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C65" s="2">
         <v>3</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
@@ -4024,10 +4028,10 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>179</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4035,13 +4039,13 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C66" s="2">
         <v>4</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>11</v>
@@ -4050,10 +4054,10 @@
         <v>12</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4061,13 +4065,13 @@
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C67" s="2">
         <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
@@ -4076,10 +4080,10 @@
         <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4087,13 +4091,13 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C68" s="2">
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
@@ -4102,10 +4106,10 @@
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4113,13 +4117,13 @@
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C69" s="2">
         <v>7</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>11</v>
@@ -4128,10 +4132,10 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>190</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4139,13 +4143,13 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
@@ -4154,10 +4158,10 @@
         <v>12</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>193</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4165,13 +4169,13 @@
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>11</v>
@@ -4180,10 +4184,10 @@
         <v>12</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4191,13 +4195,13 @@
         <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C72" s="2">
         <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>11</v>
@@ -4206,10 +4210,10 @@
         <v>12</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4217,13 +4221,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C73" s="2">
         <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>11</v>
@@ -4232,10 +4236,10 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>201</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4243,13 +4247,13 @@
         <v>8</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C74" s="2">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
@@ -4258,10 +4262,10 @@
         <v>12</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>204</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4269,13 +4273,13 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C75" s="2">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
@@ -4284,10 +4288,10 @@
         <v>12</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>207</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4295,13 +4299,13 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
@@ -4310,10 +4314,10 @@
         <v>12</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4321,13 +4325,13 @@
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>11</v>
@@ -4336,10 +4340,10 @@
         <v>12</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -4347,13 +4351,13 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C78" s="2">
         <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
@@ -4362,10 +4366,10 @@
         <v>12</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>216</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4373,13 +4377,13 @@
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C79" s="2">
         <v>3</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
@@ -4388,10 +4392,10 @@
         <v>12</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4399,13 +4403,13 @@
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C80" s="2">
         <v>4</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
@@ -4414,10 +4418,10 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4425,13 +4429,13 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C81" s="2">
         <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
@@ -4440,10 +4444,10 @@
         <v>12</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4451,13 +4455,13 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C82" s="2">
         <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
@@ -4466,10 +4470,10 @@
         <v>12</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4477,13 +4481,13 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C83" s="2">
         <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -4492,10 +4496,10 @@
         <v>12</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4503,13 +4507,13 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C84" s="2">
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>11</v>
@@ -4518,10 +4522,10 @@
         <v>12</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4529,13 +4533,13 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>11</v>
@@ -4544,10 +4548,10 @@
         <v>12</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4555,13 +4559,13 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>11</v>
@@ -4570,10 +4574,10 @@
         <v>12</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>234</v>
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -4581,13 +4585,13 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C87" s="2">
         <v>2</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
@@ -4596,10 +4600,10 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4607,13 +4611,13 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C88" s="2">
         <v>3</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>11</v>
@@ -4622,10 +4626,10 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>239</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4633,13 +4637,13 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>11</v>
@@ -4648,10 +4652,10 @@
         <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4659,13 +4663,13 @@
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>11</v>
@@ -4674,10 +4678,10 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>245</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4685,13 +4689,13 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
@@ -4700,10 +4704,10 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4711,13 +4715,13 @@
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C92" s="2">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>11</v>
@@ -4726,10 +4730,10 @@
         <v>12</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>251</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4737,13 +4741,13 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C93" s="2">
         <v>2</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>11</v>
@@ -4752,10 +4756,10 @@
         <v>12</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4763,13 +4767,13 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C94" s="2">
         <v>3</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>11</v>
@@ -4778,10 +4782,10 @@
         <v>12</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>256</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4789,13 +4793,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C95" s="2">
         <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>11</v>
@@ -4804,10 +4808,10 @@
         <v>12</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4815,13 +4819,13 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C96" s="2">
         <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>11</v>
@@ -4830,10 +4834,10 @@
         <v>12</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4841,13 +4845,13 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C97" s="2">
         <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>11</v>
@@ -4856,10 +4860,10 @@
         <v>12</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4867,13 +4871,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C98" s="2">
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>11</v>
@@ -4882,10 +4886,10 @@
         <v>12</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4893,13 +4897,13 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C99" s="2">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>11</v>
@@ -4908,10 +4912,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>271</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4919,13 +4923,13 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C100" s="2">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>11</v>
@@ -4934,10 +4938,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4945,13 +4949,13 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C101" s="2">
         <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>11</v>
@@ -4960,10 +4964,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4971,13 +4975,13 @@
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C102" s="2">
         <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>11</v>
@@ -4986,10 +4990,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>280</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4997,25 +5001,25 @@
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="2">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C103" s="2">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="H103" s="4" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5023,13 +5027,13 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C104" s="2">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>11</v>
@@ -5038,10 +5042,10 @@
         <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5049,13 +5053,13 @@
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C105" s="2">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>11</v>
@@ -5064,10 +5068,10 @@
         <v>12</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5075,13 +5079,13 @@
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C106" s="2">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>11</v>
@@ -5090,10 +5094,10 @@
         <v>12</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5101,13 +5105,13 @@
         <v>8</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C107" s="2">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>11</v>
@@ -5116,10 +5120,10 @@
         <v>12</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>295</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5127,13 +5131,13 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C108" s="2">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
@@ -5142,10 +5146,10 @@
         <v>12</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5153,13 +5157,13 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
@@ -5168,10 +5172,10 @@
         <v>12</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5179,13 +5183,13 @@
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C110" s="2">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
@@ -5194,10 +5198,10 @@
         <v>12</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>303</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5205,13 +5209,13 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>11</v>
@@ -5220,10 +5224,10 @@
         <v>12</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5231,13 +5235,13 @@
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C112" s="2">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>11</v>
@@ -5246,10 +5250,10 @@
         <v>12</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5257,13 +5261,13 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C113" s="2">
         <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>11</v>
@@ -5272,10 +5276,10 @@
         <v>12</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>312</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5283,13 +5287,13 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C114" s="2">
         <v>3</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>11</v>
@@ -5298,10 +5302,10 @@
         <v>12</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5309,13 +5313,13 @@
         <v>8</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C115" s="2">
         <v>4</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>11</v>
@@ -5324,10 +5328,10 @@
         <v>12</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>318</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5335,13 +5339,13 @@
         <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C116" s="2">
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
@@ -5350,10 +5354,10 @@
         <v>12</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5361,13 +5365,13 @@
         <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C117" s="2">
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>11</v>
@@ -5376,10 +5380,10 @@
         <v>12</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5387,13 +5391,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C118" s="2">
         <v>7</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>11</v>
@@ -5402,10 +5406,10 @@
         <v>12</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5413,13 +5417,13 @@
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C119" s="2">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>11</v>
@@ -5428,10 +5432,10 @@
         <v>12</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5439,13 +5443,13 @@
         <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C120" s="2">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>11</v>
@@ -5454,10 +5458,10 @@
         <v>12</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5465,13 +5469,13 @@
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C121" s="2">
         <v>10</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>11</v>
@@ -5480,10 +5484,10 @@
         <v>12</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5491,13 +5495,13 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C122" s="2">
         <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>11</v>
@@ -5506,10 +5510,10 @@
         <v>12</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>338</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5517,13 +5521,13 @@
         <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C123" s="2">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>11</v>
@@ -5532,10 +5536,10 @@
         <v>12</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5543,13 +5547,13 @@
         <v>8</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C124" s="2">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>11</v>
@@ -5558,10 +5562,10 @@
         <v>12</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5569,13 +5573,13 @@
         <v>8</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C125" s="2">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>11</v>
@@ -5584,10 +5588,10 @@
         <v>12</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5595,13 +5599,13 @@
         <v>8</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C126" s="2">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>11</v>
@@ -5610,10 +5614,10 @@
         <v>12</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5621,13 +5625,13 @@
         <v>8</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C127" s="2">
         <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>11</v>
@@ -5636,10 +5640,10 @@
         <v>12</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5647,13 +5651,13 @@
         <v>8</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C128" s="2">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>11</v>
@@ -5662,10 +5666,10 @@
         <v>12</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5673,13 +5677,13 @@
         <v>8</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C129" s="2">
         <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>11</v>
@@ -5688,10 +5692,10 @@
         <v>12</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5699,13 +5703,13 @@
         <v>8</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C130" s="2">
         <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>11</v>
@@ -5714,10 +5718,10 @@
         <v>12</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>361</v>
+        <v>444</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5725,13 +5729,13 @@
         <v>8</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C131" s="2">
         <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>11</v>
@@ -5740,10 +5744,10 @@
         <v>12</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>364</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5751,13 +5755,13 @@
         <v>8</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C132" s="2">
         <v>21</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>11</v>
@@ -5766,10 +5770,10 @@
         <v>12</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5777,13 +5781,13 @@
         <v>8</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>11</v>
@@ -5792,10 +5796,10 @@
         <v>12</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>371</v>
+        <v>447</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5803,13 +5807,13 @@
         <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C134" s="2">
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>11</v>
@@ -5818,10 +5822,10 @@
         <v>12</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5829,13 +5833,13 @@
         <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C135" s="2">
         <v>2</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>11</v>
@@ -5844,10 +5848,10 @@
         <v>12</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5855,13 +5859,13 @@
         <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C136" s="2">
         <v>3</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>11</v>
@@ -5870,10 +5874,10 @@
         <v>12</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5881,13 +5885,13 @@
         <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C137" s="2">
         <v>4</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>11</v>
@@ -5896,10 +5900,10 @@
         <v>12</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5907,13 +5911,13 @@
         <v>8</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C138" s="2">
         <v>5</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>11</v>
@@ -5922,10 +5926,10 @@
         <v>12</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5933,13 +5937,13 @@
         <v>8</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C139" s="2">
         <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>11</v>
@@ -5948,10 +5952,10 @@
         <v>12</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>388</v>
+        <v>449</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5959,13 +5963,13 @@
         <v>8</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C140" s="2">
         <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>11</v>
@@ -5974,10 +5978,10 @@
         <v>12</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5985,13 +5989,13 @@
         <v>8</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C141" s="2">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>11</v>
@@ -6000,10 +6004,10 @@
         <v>12</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6011,13 +6015,13 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C142" s="2">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>11</v>
@@ -6026,10 +6030,10 @@
         <v>12</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6037,13 +6041,13 @@
         <v>8</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C143" s="2">
         <v>10</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>11</v>
@@ -6052,10 +6056,10 @@
         <v>12</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6063,13 +6067,13 @@
         <v>8</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C144" s="2">
         <v>11</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>11</v>
@@ -6078,10 +6082,10 @@
         <v>12</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6089,13 +6093,13 @@
         <v>8</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>11</v>
@@ -6104,10 +6108,10 @@
         <v>12</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6115,13 +6119,13 @@
         <v>8</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="C146" s="2">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>11</v>
@@ -6130,10 +6134,10 @@
         <v>12</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -6141,13 +6145,13 @@
         <v>8</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="C147" s="2">
         <v>2</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>11</v>
@@ -6156,10 +6160,10 @@
         <v>12</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6167,13 +6171,13 @@
         <v>8</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="C148" s="2">
         <v>3</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>11</v>
@@ -6182,10 +6186,10 @@
         <v>12</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6193,13 +6197,13 @@
         <v>8</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="C149" s="2">
         <v>4</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>11</v>
@@ -6208,10 +6212,10 @@
         <v>12</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6219,13 +6223,13 @@
         <v>8</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="C150" s="2">
         <v>5</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>11</v>
@@ -6234,24 +6238,24 @@
         <v>12</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>11</v>
@@ -6260,24 +6264,24 @@
         <v>12</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="C152" s="2">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>11</v>
@@ -6286,24 +6290,24 @@
         <v>12</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="C153" s="2">
         <v>2</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>11</v>
@@ -6312,24 +6316,24 @@
         <v>12</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>11</v>
@@ -6338,24 +6342,24 @@
         <v>12</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="C155" s="2">
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>11</v>
@@ -6364,10 +6368,10 @@
         <v>12</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6375,13 +6379,13 @@
         <v>8</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C156" s="2">
         <v>1021</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>435</v>
+        <v>382</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>11</v>
@@ -6390,10 +6394,10 @@
         <v>12</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6401,13 +6405,13 @@
         <v>8</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C157" s="2">
         <v>1023</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>11</v>
@@ -6416,10 +6420,10 @@
         <v>12</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -6427,13 +6431,13 @@
         <v>8</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C158" s="2">
         <v>1002</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>11</v>
@@ -6442,10 +6446,10 @@
         <v>12</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6453,13 +6457,13 @@
         <v>8</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C159" s="2">
         <v>1002</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>11</v>
@@ -6468,10 +6472,10 @@
         <v>12</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>445</v>
+        <v>390</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/docassemble/ukraine/data/sources/interview_uk.xlsx
+++ b/docassemble/ukraine/data/sources/interview_uk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Desktop/tripliq-repo/docassemble-ukraine/docassemble/ukraine/data/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC4DD5A-6DEA-0842-8104-801F1374EF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAEAC87-34F1-6F4F-A85A-1B3B5A120AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,9 +409,6 @@
   </si>
   <si>
     <t>in eingetragener Lebenspartnerschaft lebend</t>
-  </si>
-  <si>
-    <t>проживання в зареєстрованому партнерстві</t>
   </si>
   <si>
     <t>6492c3801e8c049f5b8e6826b3d2b7d9</t>
@@ -1042,9 +1039,6 @@
   </si>
   <si>
     <t>Visum ausgestellt von</t>
-  </si>
-  <si>
-    <t>Віза видана</t>
   </si>
   <si>
     <t>d4908b1e39cc61772e5d74e5fb77d241</t>
@@ -1556,13 +1550,6 @@
     <t>зареєстрований у матері</t>
   </si>
   <si>
-    <t>TripliQ не включає ***юридичні консультації чи юридичниі послуги***, тобто не проводиться юридична експертиза конкретної окремої справи в рамках Закону про юридичні послуги (RDG) від TripliQ.
-- Ваші дані не зберігаються у нас довгостроково. Дані, які Ви вносите, використовуються лише для написання Вашої заяви. Після цього ваші дані будуть видалені.
-- Пропозиція «TripliQ»» підтримує клієнта за допомогою програмно-підтримуваного інтерв'ю та процесу створення договору при самостійному створенні його юридичних документів.
-– Цей процес в основному розроблений таким чином, що заявка не вимагає спеціальних юридичних знань. Однак автоматизований процес інтерв’ю не може охопити кожен факт з його специфічними характеристиками.
-- Тому замовник зобов'язаний піддати створені юридичні документи перевірці правдоподібності щодо цільового використання. У разі необхідності проведення юридичної експертизи в конкретному окремому випадку рекомендуємо звернутися за консультацією до юриста або іншого органу, уповноваженого надавати юридичні послуги відповідно до РДГ.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please choose your language.
 (Будь ласка, виберіть Вашу мову).
 Bitte wählen Sie eine Sprache aus.
@@ -1596,9 +1583,6 @@
     <t>Країна, в якій Ви народились</t>
   </si>
   <si>
-    <t>Чоловіча</t>
-  </si>
-  <si>
     <t>жіноча</t>
   </si>
   <si>
@@ -1617,9 +1601,6 @@
     <t>Національність</t>
   </si>
   <si>
-    <t>Попереднє громадянство вказати лише у випадку, якщо раніше у Вас було інше громадянство)</t>
-  </si>
-  <si>
     <t>Сімейний стан</t>
   </si>
   <si>
@@ -1650,9 +1631,6 @@
     <t>Прошу надати дозвіл на працевлаштування</t>
   </si>
   <si>
-    <t>Паспорт / посвідчення особи</t>
-  </si>
-  <si>
     <t>Будь ласка, заповніть паспортні дані чи інші дані, що посвідчують Вашу особу</t>
   </si>
   <si>
@@ -1666,9 +1644,6 @@
   </si>
   <si>
     <t>Видано в</t>
-  </si>
-  <si>
-    <t>Дійсний до</t>
   </si>
   <si>
     <t>Країна, в якій було видано документ</t>
@@ -1788,12 +1763,6 @@
 [Посилання на пошуковий сайт установ](https://bamf-navi.bamf.de/de/Themen/Behoerden/)
 &lt;br&gt;
 &lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Записано правильну адресу з відео вище як адресу для заяви</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зроблено копії усіх посвідчень/паспортів для прикріплення до заяви після її завантаження </t>
   </si>
   <si>
     <r>
@@ -1921,6 +1890,37 @@
   </si>
   <si>
     <t>військове біженство</t>
+  </si>
+  <si>
+    <t>TripliQ не включає *юридичні консультації чи юридичниі послуги*, тобто не проводиться юридична експертиза конкретної окремої справи в рамках Закону про юридичні послуги (RDG) від TripliQ.
+- Ваші дані не зберігаються у нас довгостроково. Дані, які Ви вносите, використовуються лише для написання Вашої заяви. Після цього ваші дані будуть видалені.
+- Пропозиція «TripliQ»» підтримує клієнта при самостійному створенні власних юридичних документів за допомогою процесу інтерв'ю та процесу створення договору на основі прогманого хабепечення.
+– Цей процес розроблений таким чином, що його використання не вимагає спеціальних юридичних знань. Однак автоматизований процес інтерв’ю не може охопити кожен окремий випадок з його особливостями.
+- Тому користувач зобов'язаний піддати створені юридичні документи перевірці правдоподібності щодо цільового використання. У разі необхідності проведення юридичної експертизи в конкретному окремому випадку рекомендуємо звернутися за консультацією до юриста або іншого органу, уповноваженого надавати юридичні послуги відповідно до Закону про юридичні послуги.</t>
+  </si>
+  <si>
+    <t>Попереднє громадянство (вказати лише у випадку, якщо раніше у Вас було інше громадянство)</t>
+  </si>
+  <si>
+    <t>проживаю в зареєстрованому партнерстві</t>
+  </si>
+  <si>
+    <t>чоловіча</t>
+  </si>
+  <si>
+    <t>Паспорт/ посвідчення особи</t>
+  </si>
+  <si>
+    <t>Дата видачі</t>
+  </si>
+  <si>
+    <t>Орган, що видав візу</t>
+  </si>
+  <si>
+    <t>Запишіть правильну адресу з відео вище, як адресу для заяви</t>
+  </si>
+  <si>
+    <t>Зробіть копії усіх посвідчень/паспортів для прикріплення до заяви після її завантаження</t>
   </si>
 </sst>
 </file>
@@ -2332,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E94" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2471,7 +2471,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2627,7 +2627,7 @@
         <v>35</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2679,7 +2679,7 @@
         <v>39</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2705,7 +2705,7 @@
         <v>41</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2913,7 +2913,7 @@
         <v>60</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2965,7 +2965,7 @@
         <v>64</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3017,7 +3017,7 @@
         <v>69</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3043,7 +3043,7 @@
         <v>71</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3095,7 +3095,7 @@
         <v>75</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3147,7 +3147,7 @@
         <v>79</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3173,7 +3173,7 @@
         <v>81</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3251,7 +3251,7 @@
         <v>88</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3277,7 +3277,7 @@
         <v>90</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3303,7 +3303,7 @@
         <v>92</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3381,7 +3381,7 @@
         <v>100</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3407,7 +3407,7 @@
         <v>102</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3433,7 +3433,7 @@
         <v>104</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3459,7 +3459,7 @@
         <v>106</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -3485,7 +3485,7 @@
         <v>108</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3511,7 +3511,7 @@
         <v>110</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3537,7 +3537,7 @@
         <v>112</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3563,7 +3563,7 @@
         <v>114</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3589,7 +3589,7 @@
         <v>116</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3615,7 +3615,7 @@
         <v>118</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>119</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3629,19 +3629,19 @@
         <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="H50" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3655,19 +3655,19 @@
         <v>35</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="H51" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3681,19 +3681,19 @@
         <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="H52" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3707,19 +3707,19 @@
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H53" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3733,19 +3733,19 @@
         <v>38</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3759,19 +3759,19 @@
         <v>39</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="H55" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3779,25 +3779,25 @@
         <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="H56" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3805,25 +3805,25 @@
         <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3831,25 +3831,25 @@
         <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3857,25 +3857,25 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="H59" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3883,25 +3883,25 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="H60" s="4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3909,25 +3909,25 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" s="2">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="H61" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3935,25 +3935,25 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="H62" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,25 +3961,25 @@
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="H63" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3987,25 +3987,25 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C64" s="2">
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="H64" s="4" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4013,25 +4013,25 @@
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" s="2">
         <v>3</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="H65" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4039,25 +4039,25 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C66" s="2">
         <v>4</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4065,25 +4065,25 @@
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="2">
         <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="H67" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4091,25 +4091,25 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" s="2">
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4117,25 +4117,25 @@
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69" s="2">
         <v>7</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="H69" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4143,25 +4143,25 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70" s="2">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="H70" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4169,25 +4169,25 @@
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="2">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="H71" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4195,25 +4195,25 @@
         <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C72" s="2">
         <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="H72" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4221,25 +4221,25 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C73" s="2">
         <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="H73" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4247,25 +4247,25 @@
         <v>8</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74" s="2">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="H74" s="4" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4273,25 +4273,25 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C75" s="2">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="H75" s="4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4299,25 +4299,25 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="H76" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4325,25 +4325,25 @@
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="H77" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -4351,25 +4351,25 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C78" s="2">
         <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="H78" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4377,25 +4377,25 @@
         <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C79" s="2">
         <v>3</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="H79" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4403,22 +4403,22 @@
         <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C80" s="2">
         <v>4</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>65</v>
@@ -4429,25 +4429,25 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C81" s="2">
         <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="H81" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4455,25 +4455,25 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C82" s="2">
         <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="H82" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4481,25 +4481,25 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C83" s="2">
         <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="H83" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4507,25 +4507,25 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C84" s="2">
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="H84" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4533,25 +4533,25 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="H85" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4559,25 +4559,25 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="H86" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -4585,25 +4585,25 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C87" s="2">
         <v>2</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="H87" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4611,25 +4611,25 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C88" s="2">
         <v>3</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="H88" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4637,25 +4637,25 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="H89" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4663,25 +4663,25 @@
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="H90" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4689,25 +4689,25 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="H91" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4715,25 +4715,25 @@
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C92" s="2">
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="H92" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4741,25 +4741,25 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C93" s="2">
         <v>2</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="H93" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4767,25 +4767,25 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C94" s="2">
         <v>3</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="H94" s="4" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4793,25 +4793,25 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C95" s="2">
         <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4819,25 +4819,25 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C96" s="2">
         <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4845,25 +4845,25 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C97" s="2">
         <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4871,25 +4871,25 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C98" s="2">
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="H98" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4897,25 +4897,25 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C99" s="2">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="H99" s="4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4923,25 +4923,25 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C100" s="2">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="3" t="s">
+      <c r="H100" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4949,25 +4949,25 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C101" s="2">
         <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="H101" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4975,25 +4975,25 @@
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C102" s="2">
         <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="H102" s="4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5001,25 +5001,25 @@
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C103" s="2">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="3" t="s">
+      <c r="H103" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5027,25 +5027,25 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C104" s="2">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="H104" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5053,25 +5053,25 @@
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C105" s="2">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="H105" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5079,25 +5079,25 @@
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C106" s="2">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="3" t="s">
+      <c r="H106" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5105,25 +5105,25 @@
         <v>8</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C107" s="2">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="H107" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5131,25 +5131,25 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C108" s="2">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="H108" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5157,25 +5157,25 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="H109" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5183,25 +5183,25 @@
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C110" s="2">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="H110" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5209,25 +5209,25 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="H111" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5235,25 +5235,25 @@
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C112" s="2">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="3" t="s">
+      <c r="H112" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5261,25 +5261,25 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C113" s="2">
         <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="H113" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5287,25 +5287,25 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C114" s="2">
         <v>3</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="H114" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5313,25 +5313,25 @@
         <v>8</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C115" s="2">
         <v>4</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="H115" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5339,25 +5339,25 @@
         <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C116" s="2">
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="3" t="s">
+      <c r="H116" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5365,25 +5365,25 @@
         <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C117" s="2">
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="3" t="s">
+      <c r="H117" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5391,25 +5391,25 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C118" s="2">
         <v>7</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="3" t="s">
+      <c r="H118" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5417,25 +5417,25 @@
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C119" s="2">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="H119" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5443,25 +5443,25 @@
         <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C120" s="2">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="H120" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5469,25 +5469,25 @@
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C121" s="2">
         <v>10</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="3" t="s">
+      <c r="H121" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5495,25 +5495,25 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C122" s="2">
         <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="H122" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5521,25 +5521,25 @@
         <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C123" s="2">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="3" t="s">
+      <c r="H123" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5547,25 +5547,25 @@
         <v>8</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C124" s="2">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="3" t="s">
+      <c r="H124" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5573,25 +5573,25 @@
         <v>8</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C125" s="2">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="H125" s="4" t="s">
-        <v>307</v>
+        <v>458</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5599,13 +5599,13 @@
         <v>8</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C126" s="2">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>11</v>
@@ -5614,10 +5614,10 @@
         <v>12</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5625,25 +5625,25 @@
         <v>8</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C127" s="2">
         <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H127" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5651,25 +5651,25 @@
         <v>8</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C128" s="2">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H128" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5677,25 +5677,25 @@
         <v>8</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C129" s="2">
         <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H129" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5703,13 +5703,13 @@
         <v>8</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C130" s="2">
         <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>11</v>
@@ -5718,10 +5718,10 @@
         <v>12</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5729,13 +5729,13 @@
         <v>8</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C131" s="2">
         <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>11</v>
@@ -5744,10 +5744,10 @@
         <v>12</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5755,13 +5755,13 @@
         <v>8</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C132" s="2">
         <v>21</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>11</v>
@@ -5770,10 +5770,10 @@
         <v>12</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5781,13 +5781,13 @@
         <v>8</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>11</v>
@@ -5796,10 +5796,10 @@
         <v>12</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5807,25 +5807,25 @@
         <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C134" s="2">
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H134" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5833,25 +5833,25 @@
         <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C135" s="2">
         <v>2</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H135" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5859,13 +5859,13 @@
         <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C136" s="2">
         <v>3</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>11</v>
@@ -5874,10 +5874,10 @@
         <v>12</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5885,13 +5885,13 @@
         <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C137" s="2">
         <v>4</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>11</v>
@@ -5900,10 +5900,10 @@
         <v>12</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5911,25 +5911,25 @@
         <v>8</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C138" s="2">
         <v>5</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H138" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5937,13 +5937,13 @@
         <v>8</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C139" s="2">
         <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>11</v>
@@ -5952,10 +5952,10 @@
         <v>12</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5963,13 +5963,13 @@
         <v>8</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C140" s="2">
         <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>11</v>
@@ -5978,10 +5978,10 @@
         <v>12</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5989,13 +5989,13 @@
         <v>8</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C141" s="2">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>11</v>
@@ -6004,10 +6004,10 @@
         <v>12</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6015,13 +6015,13 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C142" s="2">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>11</v>
@@ -6030,10 +6030,10 @@
         <v>12</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6041,13 +6041,13 @@
         <v>8</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C143" s="2">
         <v>10</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>11</v>
@@ -6056,10 +6056,10 @@
         <v>12</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6067,25 +6067,25 @@
         <v>8</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C144" s="2">
         <v>11</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H144" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6093,13 +6093,13 @@
         <v>8</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>11</v>
@@ -6108,10 +6108,10 @@
         <v>12</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6119,13 +6119,13 @@
         <v>8</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C146" s="2">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>11</v>
@@ -6134,10 +6134,10 @@
         <v>12</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -6145,13 +6145,13 @@
         <v>8</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C147" s="2">
         <v>2</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>11</v>
@@ -6160,10 +6160,10 @@
         <v>12</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6171,13 +6171,13 @@
         <v>8</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C148" s="2">
         <v>3</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>11</v>
@@ -6186,10 +6186,10 @@
         <v>12</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6197,13 +6197,13 @@
         <v>8</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C149" s="2">
         <v>4</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>11</v>
@@ -6212,10 +6212,10 @@
         <v>12</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6223,13 +6223,13 @@
         <v>8</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C150" s="2">
         <v>5</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>11</v>
@@ -6238,24 +6238,24 @@
         <v>12</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>11</v>
@@ -6264,50 +6264,50 @@
         <v>12</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C152" s="2">
         <v>1</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H152" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C153" s="2">
         <v>2</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>11</v>
@@ -6316,50 +6316,50 @@
         <v>12</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H154" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="H154" s="4" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C155" s="2">
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>11</v>
@@ -6368,7 +6368,7 @@
         <v>12</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>26</v>
@@ -6379,13 +6379,13 @@
         <v>8</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C156" s="2">
         <v>1021</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>11</v>
@@ -6394,10 +6394,10 @@
         <v>12</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6411,19 +6411,19 @@
         <v>1023</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H157" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -6431,13 +6431,13 @@
         <v>8</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C158" s="2">
         <v>1002</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>11</v>
@@ -6446,10 +6446,10 @@
         <v>12</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6457,13 +6457,13 @@
         <v>8</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C159" s="2">
         <v>1002</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>11</v>
@@ -6472,10 +6472,10 @@
         <v>12</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
